--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\99gro\Documents\GitHub\Study-of-Emulsion-scattering\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6371B42D-6D02-46D7-949D-292BD74811D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50A161F-E9D6-409C-BEF8-14FDCCA5F4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="itr=10,4" sheetId="1" r:id="rId1"/>
+    <sheet name="itr=10,5" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,15 +26,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>g</t>
   </si>
   <si>
-    <t>ut</t>
+    <t>normPath</t>
   </si>
   <si>
-    <t>normPath</t>
+    <t>Ut</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>thru</t>
+  </si>
+  <si>
+    <t>hit</t>
   </si>
 </sst>
 </file>
@@ -69,8 +85,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,8 +372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="L364" sqref="L364"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -364,10 +383,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -9936,6 +9970,9622 @@
       </c>
       <c r="H369">
         <v>100.0252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C38467-DCEB-423E-91D4-6C751CB06FC1}">
+  <dimension ref="A1:H369"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C2">
+        <v>0.99947553271782597</v>
+      </c>
+      <c r="D2">
+        <v>0.99947553271782597</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.99895999999999996</v>
+      </c>
+      <c r="F2">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="G2">
+        <v>0.99895999999999996</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1.0399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="C3">
+        <v>0.99899503945360801</v>
+      </c>
+      <c r="D3">
+        <v>0.99899503945360801</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="F3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="G3">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C4">
+        <v>0.99846078948203199</v>
+      </c>
+      <c r="D4">
+        <v>0.99846078948203199</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.99700999999999995</v>
+      </c>
+      <c r="F4">
+        <v>2.99E-3</v>
+      </c>
+      <c r="G4">
+        <v>0.99700999999999995</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2.99E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C5">
+        <v>0.99814901228207698</v>
+      </c>
+      <c r="D5">
+        <v>0.99815023587905904</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.99628000000000005</v>
+      </c>
+      <c r="F5">
+        <v>3.7200000000000002E-3</v>
+      </c>
+      <c r="G5">
+        <v>0.99626000000000003</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3.7599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C6">
+        <v>0.99729241892381804</v>
+      </c>
+      <c r="D6">
+        <v>0.99729241892381804</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.99434999999999996</v>
+      </c>
+      <c r="F6">
+        <v>5.6499999999999996E-3</v>
+      </c>
+      <c r="G6">
+        <v>0.99434999999999996</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5.6499999999999996E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C7">
+        <v>0.99687357057411596</v>
+      </c>
+      <c r="D7">
+        <v>0.99687432983352597</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.99389000000000005</v>
+      </c>
+      <c r="F7">
+        <v>6.11E-3</v>
+      </c>
+      <c r="G7">
+        <v>0.99387999999999999</v>
+      </c>
+      <c r="H7" s="2">
+        <v>6.13E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C8">
+        <v>0.99611557747610302</v>
+      </c>
+      <c r="D8">
+        <v>0.99611557747610302</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.99256999999999995</v>
+      </c>
+      <c r="F8">
+        <v>7.43E-3</v>
+      </c>
+      <c r="G8">
+        <v>0.99256999999999995</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7.43E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C9">
+        <v>0.99605414719482499</v>
+      </c>
+      <c r="D9">
+        <v>0.99605507270591498</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.99217</v>
+      </c>
+      <c r="F9">
+        <v>7.8300000000000002E-3</v>
+      </c>
+      <c r="G9">
+        <v>0.99214999999999998</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7.8700000000000003E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.99566712962394599</v>
+      </c>
+      <c r="D10">
+        <v>0.99567007348688097</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.99141999999999997</v>
+      </c>
+      <c r="F10">
+        <v>8.5800000000000008E-3</v>
+      </c>
+      <c r="G10">
+        <v>0.99134999999999995</v>
+      </c>
+      <c r="H10" s="2">
+        <v>8.7200000000000003E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C11">
+        <v>0.99520197044882197</v>
+      </c>
+      <c r="D11">
+        <v>0.99520276739109803</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.99036000000000002</v>
+      </c>
+      <c r="F11">
+        <v>9.6399999999999993E-3</v>
+      </c>
+      <c r="G11">
+        <v>0.99034</v>
+      </c>
+      <c r="H11" s="2">
+        <v>9.6799999999999994E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C12">
+        <v>0.990295860523559</v>
+      </c>
+      <c r="D12">
+        <v>0.99030322385958802</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.98055999999999999</v>
+      </c>
+      <c r="F12">
+        <v>1.9439999999999999E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.98041999999999996</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1.9720000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C13">
+        <v>0.98559026245984105</v>
+      </c>
+      <c r="D13">
+        <v>0.98561136359906398</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="F13">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.97047000000000005</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2.9960000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="C14">
+        <v>0.98041767058152995</v>
+      </c>
+      <c r="D14">
+        <v>0.98046765799191304</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.96057000000000003</v>
+      </c>
+      <c r="F14">
+        <v>3.943E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.95962000000000003</v>
+      </c>
+      <c r="H14" s="2">
+        <v>4.1369999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C15">
+        <v>0.97674979356934799</v>
+      </c>
+      <c r="D15">
+        <v>0.97680984557781503</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.95177999999999996</v>
+      </c>
+      <c r="F15">
+        <v>4.8219999999999999E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.95054000000000005</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5.0779999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C16">
+        <v>0.97244041094318101</v>
+      </c>
+      <c r="D16">
+        <v>0.97253487590055199</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.94374999999999998</v>
+      </c>
+      <c r="F16">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.94198999999999999</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5.9929999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.96810558863765495</v>
+      </c>
+      <c r="D17">
+        <v>0.96823893041193498</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.93450999999999995</v>
+      </c>
+      <c r="F17">
+        <v>6.5490000000000007E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.93196000000000001</v>
+      </c>
+      <c r="H17" s="2">
+        <v>7.0849999999999996E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C18">
+        <v>0.96350710448577703</v>
+      </c>
+      <c r="D18">
+        <v>0.96365209080953995</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.92552999999999996</v>
+      </c>
+      <c r="F18">
+        <v>7.4469999999999995E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.92267999999999994</v>
+      </c>
+      <c r="H18" s="2">
+        <v>8.0449999999999994E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="C19">
+        <v>0.95938226033513496</v>
+      </c>
+      <c r="D19">
+        <v>0.95956325984795898</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.91705000000000003</v>
+      </c>
+      <c r="F19">
+        <v>8.2949999999999996E-2</v>
+      </c>
+      <c r="G19">
+        <v>0.91342999999999996</v>
+      </c>
+      <c r="H19" s="2">
+        <v>9.0410000000000004E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C20">
+        <v>0.95615140441991497</v>
+      </c>
+      <c r="D20">
+        <v>0.95636430313590604</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.90903999999999996</v>
+      </c>
+      <c r="F20">
+        <v>9.0959999999999999E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.90483999999999998</v>
+      </c>
+      <c r="H20" s="2">
+        <v>9.9839999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C21">
+        <v>0.92166620019735701</v>
+      </c>
+      <c r="D21">
+        <v>0.92250270422479896</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.83409</v>
+      </c>
+      <c r="F21">
+        <v>0.16591</v>
+      </c>
+      <c r="G21">
+        <v>0.81950999999999996</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.19928999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-1</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C22">
+        <v>0.894059351244338</v>
+      </c>
+      <c r="D22">
+        <v>0.89580981139050897</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.76949000000000001</v>
+      </c>
+      <c r="F22">
+        <v>0.23050999999999999</v>
+      </c>
+      <c r="G22">
+        <v>0.74148000000000003</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.29926999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C23">
+        <v>0.87091353652686598</v>
+      </c>
+      <c r="D23">
+        <v>0.87393394802325497</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.71170999999999995</v>
+      </c>
+      <c r="F23">
+        <v>0.28828999999999999</v>
+      </c>
+      <c r="G23">
+        <v>0.66825999999999997</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.40243000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-1</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C24">
+        <v>0.85259962502993303</v>
+      </c>
+      <c r="D24">
+        <v>0.85699746853005299</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.66566999999999998</v>
+      </c>
+      <c r="F24">
+        <v>0.33433000000000002</v>
+      </c>
+      <c r="G24">
+        <v>0.60580999999999996</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.49945000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-1</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C25">
+        <v>0.83876244257933297</v>
+      </c>
+      <c r="D25">
+        <v>0.84491293571875803</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.62556999999999996</v>
+      </c>
+      <c r="F25">
+        <v>0.37442999999999999</v>
+      </c>
+      <c r="G25">
+        <v>0.54940999999999995</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.59948999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-1</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C26">
+        <v>0.82560667086542305</v>
+      </c>
+      <c r="D26">
+        <v>0.83371963699498297</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.58748999999999996</v>
+      </c>
+      <c r="F26">
+        <v>0.41250999999999999</v>
+      </c>
+      <c r="G26">
+        <v>0.49528</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.70104999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-1</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C27">
+        <v>0.81880708774997402</v>
+      </c>
+      <c r="D27">
+        <v>0.82920098232275696</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.55722000000000005</v>
+      </c>
+      <c r="F27">
+        <v>0.44278000000000001</v>
+      </c>
+      <c r="G27">
+        <v>0.45057000000000003</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.80230000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-1</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C28">
+        <v>0.80933183930330599</v>
+      </c>
+      <c r="D28">
+        <v>0.82194086724527504</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.52698999999999996</v>
+      </c>
+      <c r="F28">
+        <v>0.47300999999999999</v>
+      </c>
+      <c r="G28">
+        <v>0.40606999999999999</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.90003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-1</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0.79959841453352298</v>
+      </c>
+      <c r="D29">
+        <v>0.81433441800027895</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.49891000000000002</v>
+      </c>
+      <c r="F29">
+        <v>0.50109000000000004</v>
+      </c>
+      <c r="G29">
+        <v>0.36724000000000001</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.99639</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-1</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>0.76048138219998596</v>
+      </c>
+      <c r="D30">
+        <v>0.81095792456576099</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.33416000000000001</v>
+      </c>
+      <c r="F30">
+        <v>0.66583999999999999</v>
+      </c>
+      <c r="G30">
+        <v>0.13549</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2.0038399999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>-1</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>0.72747209261323498</v>
+      </c>
+      <c r="D31">
+        <v>0.82429160174118299</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.249</v>
+      </c>
+      <c r="F31">
+        <v>0.751</v>
+      </c>
+      <c r="G31">
+        <v>5.0630000000000001E-2</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2.9788999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-1</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>0.69619056744844998</v>
+      </c>
+      <c r="D32">
+        <v>0.85053518692475505</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.19843</v>
+      </c>
+      <c r="F32">
+        <v>0.80157</v>
+      </c>
+      <c r="G32">
+        <v>1.8360000000000001E-2</v>
+      </c>
+      <c r="H32" s="2">
+        <v>4.0131699999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-1</v>
+      </c>
+      <c r="B33" s="2">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>0.65534746672620803</v>
+      </c>
+      <c r="D33">
+        <v>0.86691308254098698</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.16556000000000001</v>
+      </c>
+      <c r="F33">
+        <v>0.83443999999999996</v>
+      </c>
+      <c r="G33">
+        <v>6.7099999999999998E-3</v>
+      </c>
+      <c r="H33" s="2">
+        <v>5.0034200000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-1</v>
+      </c>
+      <c r="B34" s="2">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>0.61517284924954596</v>
+      </c>
+      <c r="D34">
+        <v>0.88516414516114095</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.14416000000000001</v>
+      </c>
+      <c r="F34">
+        <v>0.85582999999999998</v>
+      </c>
+      <c r="G34">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="H34" s="2">
+        <v>6.0242500000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-1</v>
+      </c>
+      <c r="B35" s="2">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>0.56754313905869502</v>
+      </c>
+      <c r="D35">
+        <v>0.88488259192696594</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.12359000000000001</v>
+      </c>
+      <c r="F35">
+        <v>0.87639</v>
+      </c>
+      <c r="G35">
+        <v>1.1100000000000001E-3</v>
+      </c>
+      <c r="H35" s="2">
+        <v>6.9342899999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-1</v>
+      </c>
+      <c r="B36" s="2">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>0.53168539059823305</v>
+      </c>
+      <c r="D36">
+        <v>0.90669359468281197</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.1119</v>
+      </c>
+      <c r="F36">
+        <v>0.88790000000000002</v>
+      </c>
+      <c r="G36">
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="H36" s="2">
+        <v>8.0291300000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-1</v>
+      </c>
+      <c r="B37" s="2">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>0.49689912586969398</v>
+      </c>
+      <c r="D37">
+        <v>0.91924383921418396</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.1016</v>
+      </c>
+      <c r="F37">
+        <v>0.89795999999999998</v>
+      </c>
+      <c r="G37">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="H37" s="2">
+        <v>9.0635600000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-1</v>
+      </c>
+      <c r="B38" s="2">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>0.45574211094534101</v>
+      </c>
+      <c r="D38">
+        <v>0.91326371559030795</v>
+      </c>
+      <c r="E38" s="2">
+        <v>8.8520000000000001E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.90981000000000001</v>
+      </c>
+      <c r="G38" s="1">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="H38" s="2">
+        <v>9.9567200000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-1</v>
+      </c>
+      <c r="B39" s="2">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>0.24732610595965099</v>
+      </c>
+      <c r="D39">
+        <v>0.77331879824635896</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2.844E-2</v>
+      </c>
+      <c r="F39">
+        <v>0.93235999999999997</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>16.33765</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-1</v>
+      </c>
+      <c r="B40" s="2">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>0.16674072206469301</v>
+      </c>
+      <c r="D40">
+        <v>0.56991684467773496</v>
+      </c>
+      <c r="E40" s="2">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="F40">
+        <v>0.93235999999999997</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>17.954989999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-1</v>
+      </c>
+      <c r="B41" s="2">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>0.123766483648315</v>
+      </c>
+      <c r="D41">
+        <v>0.42412115730090599</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4.4000000000000002E-4</v>
+      </c>
+      <c r="F41">
+        <v>0.93332999999999999</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>17.824619999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-1</v>
+      </c>
+      <c r="B42" s="2">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>9.9147928489376799E-2</v>
+      </c>
+      <c r="D42">
+        <v>0.34189669350482399</v>
+      </c>
+      <c r="E42" s="3">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F42">
+        <v>0.93240000000000001</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>17.942830000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-1</v>
+      </c>
+      <c r="B43" s="2">
+        <v>60</v>
+      </c>
+      <c r="C43">
+        <v>8.27915326475714E-2</v>
+      </c>
+      <c r="D43">
+        <v>0.28437567619611598</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0.93327000000000004</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>17.92146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-1</v>
+      </c>
+      <c r="B44" s="2">
+        <v>70</v>
+      </c>
+      <c r="C44">
+        <v>7.0975490522598994E-2</v>
+      </c>
+      <c r="D44">
+        <v>0.24420093930428899</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0.93211999999999995</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>17.960529999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>-1</v>
+      </c>
+      <c r="B45" s="2">
+        <v>80</v>
+      </c>
+      <c r="C45">
+        <v>6.1976854758776401E-2</v>
+      </c>
+      <c r="D45">
+        <v>0.214844898488498</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0.93171000000000004</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>18.04053</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>-1</v>
+      </c>
+      <c r="B46" s="2">
+        <v>90</v>
+      </c>
+      <c r="C46">
+        <v>5.4973277848505399E-2</v>
+      </c>
+      <c r="D46">
+        <v>0.18873192529564001</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0.93315999999999999</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>17.861049999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-1</v>
+      </c>
+      <c r="B47" s="2">
+        <v>100</v>
+      </c>
+      <c r="C47">
+        <v>4.9554995081678703E-2</v>
+      </c>
+      <c r="D47">
+        <v>0.17023707775128999</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0.93267999999999995</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>17.889500000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>-0.5</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C48">
+        <v>0.99991830399759896</v>
+      </c>
+      <c r="D48">
+        <v>0.99991918265841595</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.99921000000000004</v>
+      </c>
+      <c r="F48">
+        <v>7.9000000000000001E-4</v>
+      </c>
+      <c r="G48">
+        <v>0.99909000000000003</v>
+      </c>
+      <c r="H48" s="2">
+        <v>9.2000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-0.5</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="C49">
+        <v>1.0016320750946599</v>
+      </c>
+      <c r="D49">
+        <v>1.0016320750946599</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="F49">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="G49">
+        <v>0.99802000000000002</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1.98E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-0.5</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C50">
+        <v>1.00683407623654</v>
+      </c>
+      <c r="D50">
+        <v>1.0072015365754501</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.99731999999999998</v>
+      </c>
+      <c r="F50">
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="G50">
+        <v>0.99683999999999995</v>
+      </c>
+      <c r="H50" s="2">
+        <v>3.1800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-0.5</v>
+      </c>
+      <c r="B51" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C51">
+        <v>1.00203826802021</v>
+      </c>
+      <c r="D51">
+        <v>1.0021273520585201</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.99675999999999998</v>
+      </c>
+      <c r="F51">
+        <v>3.2399999999999998E-3</v>
+      </c>
+      <c r="G51">
+        <v>0.99611000000000005</v>
+      </c>
+      <c r="H51" s="2">
+        <v>3.9300000000000003E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-0.5</v>
+      </c>
+      <c r="B52" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C52">
+        <v>1.0008762873292301</v>
+      </c>
+      <c r="D52">
+        <v>1.00098358158879</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.996</v>
+      </c>
+      <c r="F52">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G52">
+        <v>0.99516000000000004</v>
+      </c>
+      <c r="H52" s="2">
+        <v>4.8900000000000002E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-0.5</v>
+      </c>
+      <c r="B53" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C53">
+        <v>1.0008468974698099</v>
+      </c>
+      <c r="D53">
+        <v>1.0008618691215101</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.99541000000000002</v>
+      </c>
+      <c r="F53">
+        <v>4.5900000000000003E-3</v>
+      </c>
+      <c r="G53">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="H53" s="2">
+        <v>5.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>-0.5</v>
+      </c>
+      <c r="B54" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C54">
+        <v>1.0028202570326801</v>
+      </c>
+      <c r="D54">
+        <v>1.0029174496508</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="F54">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="G54">
+        <v>0.99304000000000003</v>
+      </c>
+      <c r="H54" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-0.5</v>
+      </c>
+      <c r="B55" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C55">
+        <v>1.0013405328356</v>
+      </c>
+      <c r="D55">
+        <v>1.00141432370797</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.99336999999999998</v>
+      </c>
+      <c r="F55">
+        <v>6.6299999999999996E-3</v>
+      </c>
+      <c r="G55">
+        <v>0.99231999999999998</v>
+      </c>
+      <c r="H55" s="2">
+        <v>7.79E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-0.5</v>
+      </c>
+      <c r="B56" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C56">
+        <v>1.00003132399481</v>
+      </c>
+      <c r="D56">
+        <v>1.0001028379180199</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.99261999999999995</v>
+      </c>
+      <c r="F56">
+        <v>7.3800000000000003E-3</v>
+      </c>
+      <c r="G56">
+        <v>0.99114000000000002</v>
+      </c>
+      <c r="H56" s="2">
+        <v>9.0299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>-0.5</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C57">
+        <v>1.0019302921781299</v>
+      </c>
+      <c r="D57">
+        <v>1.0020355595009101</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.99185000000000001</v>
+      </c>
+      <c r="F57">
+        <v>8.1499999999999993E-3</v>
+      </c>
+      <c r="G57">
+        <v>0.99026000000000003</v>
+      </c>
+      <c r="H57" s="2">
+        <v>9.8600000000000007E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>-0.5</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C58">
+        <v>1.0026861041269799</v>
+      </c>
+      <c r="D58">
+        <v>1.0029826445231</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.98414000000000001</v>
+      </c>
+      <c r="F58">
+        <v>1.5859999999999999E-2</v>
+      </c>
+      <c r="G58">
+        <v>0.98075000000000001</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1.992E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>-0.5</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C59">
+        <v>1.0081147935157699</v>
+      </c>
+      <c r="D59">
+        <v>1.00883581584319</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.97619999999999996</v>
+      </c>
+      <c r="F59">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="G59">
+        <v>0.97038999999999997</v>
+      </c>
+      <c r="H59" s="2">
+        <v>3.1189999999999999E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>-0.5</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="C60">
+        <v>1.0052212683242401</v>
+      </c>
+      <c r="D60">
+        <v>1.0059898516704799</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.96831</v>
+      </c>
+      <c r="F60">
+        <v>3.1690000000000003E-2</v>
+      </c>
+      <c r="G60">
+        <v>0.96101000000000003</v>
+      </c>
+      <c r="H60" s="2">
+        <v>4.1439999999999998E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>-0.5</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C61">
+        <v>1.00821597375483</v>
+      </c>
+      <c r="D61">
+        <v>1.0093670427038099</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.96048</v>
+      </c>
+      <c r="F61">
+        <v>3.952E-2</v>
+      </c>
+      <c r="G61">
+        <v>0.95133000000000001</v>
+      </c>
+      <c r="H61" s="2">
+        <v>5.2600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>-0.5</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C62">
+        <v>1.0063061798443</v>
+      </c>
+      <c r="D62">
+        <v>1.0075791496601201</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.95198000000000005</v>
+      </c>
+      <c r="F62">
+        <v>4.802E-2</v>
+      </c>
+      <c r="G62">
+        <v>0.94125000000000003</v>
+      </c>
+      <c r="H62" s="2">
+        <v>6.4170000000000005E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>-0.5</v>
+      </c>
+      <c r="B63" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C63">
+        <v>1.0066424109288601</v>
+      </c>
+      <c r="D63">
+        <v>1.00814039116161</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.94464000000000004</v>
+      </c>
+      <c r="F63">
+        <v>5.5359999999999999E-2</v>
+      </c>
+      <c r="G63">
+        <v>0.93215000000000003</v>
+      </c>
+      <c r="H63" s="2">
+        <v>7.4639999999999998E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>-0.5</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C64">
+        <v>1.01365569605925</v>
+      </c>
+      <c r="D64">
+        <v>1.0156438894984401</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="F64">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="G64">
+        <v>0.9244</v>
+      </c>
+      <c r="H64" s="2">
+        <v>8.4209999999999993E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>-0.5</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="C65">
+        <v>1.01141927473375</v>
+      </c>
+      <c r="D65">
+        <v>1.0135685915586301</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.93122000000000005</v>
+      </c>
+      <c r="F65">
+        <v>6.8779999999999994E-2</v>
+      </c>
+      <c r="G65">
+        <v>0.91391999999999995</v>
+      </c>
+      <c r="H65" s="2">
+        <v>9.6860000000000002E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>-0.5</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C66">
+        <v>1.0100878935770099</v>
+      </c>
+      <c r="D66">
+        <v>1.01270590798528</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.92376999999999998</v>
+      </c>
+      <c r="F66">
+        <v>7.6230000000000006E-2</v>
+      </c>
+      <c r="G66">
+        <v>0.90493000000000001</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.10847999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>-0.5</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C67">
+        <v>1.0299490079503</v>
+      </c>
+      <c r="D67">
+        <v>1.03734862755879</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0.85906000000000005</v>
+      </c>
+      <c r="F67">
+        <v>0.14094000000000001</v>
+      </c>
+      <c r="G67">
+        <v>0.81803000000000003</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0.23241999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>-0.5</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C68">
+        <v>1.0437957639406801</v>
+      </c>
+      <c r="D68">
+        <v>1.05673899818523</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0.80349999999999999</v>
+      </c>
+      <c r="F68">
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="G68">
+        <v>0.74161999999999995</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.35993999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>-0.5</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C69">
+        <v>1.07238193109193</v>
+      </c>
+      <c r="D69">
+        <v>1.0932368171418101</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.75678999999999996</v>
+      </c>
+      <c r="F69">
+        <v>0.24321000000000001</v>
+      </c>
+      <c r="G69">
+        <v>0.67154000000000003</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.50414999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>-0.5</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C70">
+        <v>1.0932305530954101</v>
+      </c>
+      <c r="D70">
+        <v>1.1223830896537701</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.71301999999999999</v>
+      </c>
+      <c r="F70">
+        <v>0.28698000000000001</v>
+      </c>
+      <c r="G70">
+        <v>0.60673999999999995</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.65712000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>-0.5</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C71">
+        <v>1.1228803192183301</v>
+      </c>
+      <c r="D71">
+        <v>1.1622440593255401</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0.67567999999999995</v>
+      </c>
+      <c r="F71">
+        <v>0.32432</v>
+      </c>
+      <c r="G71">
+        <v>0.54861000000000004</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0.82140999999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>-0.5</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C72">
+        <v>1.1444235358152199</v>
+      </c>
+      <c r="D72">
+        <v>1.1948482798926701</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.64007000000000003</v>
+      </c>
+      <c r="F72">
+        <v>0.35993000000000003</v>
+      </c>
+      <c r="G72">
+        <v>0.49647000000000002</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0.98655999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>-0.5</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C73">
+        <v>1.1613155814608001</v>
+      </c>
+      <c r="D73">
+        <v>1.2221649709040301</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="F73">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="G73">
+        <v>0.44940999999999998</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1.1593</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>-0.5</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C74">
+        <v>1.1874689039511399</v>
+      </c>
+      <c r="D74">
+        <v>1.2617511499299601</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0.57923000000000002</v>
+      </c>
+      <c r="F74">
+        <v>0.42076999999999998</v>
+      </c>
+      <c r="G74">
+        <v>0.40558</v>
+      </c>
+      <c r="H74" s="2">
+        <v>1.34219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>-0.5</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1.2022000435783</v>
+      </c>
+      <c r="D75">
+        <v>1.28786591742781</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0.55564999999999998</v>
+      </c>
+      <c r="F75">
+        <v>0.44435000000000002</v>
+      </c>
+      <c r="G75">
+        <v>0.36971999999999999</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1.5196799999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>-0.5</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>1.33813641990676</v>
+      </c>
+      <c r="D76">
+        <v>1.60024082829944</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0.38190000000000002</v>
+      </c>
+      <c r="F76">
+        <v>0.61809999999999998</v>
+      </c>
+      <c r="G76">
+        <v>0.13611000000000001</v>
+      </c>
+      <c r="H76" s="2">
+        <v>3.6588400000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>-0.5</v>
+      </c>
+      <c r="B77" s="2">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>1.33684923712665</v>
+      </c>
+      <c r="D77">
+        <v>1.80771893363661</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0.28382000000000002</v>
+      </c>
+      <c r="F77">
+        <v>0.71618000000000004</v>
+      </c>
+      <c r="G77">
+        <v>4.9239999999999999E-2</v>
+      </c>
+      <c r="H77" s="2">
+        <v>6.0310100000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>-0.5</v>
+      </c>
+      <c r="B78" s="2">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>1.265061286725</v>
+      </c>
+      <c r="D78">
+        <v>1.96447829401651</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0.23050000000000001</v>
+      </c>
+      <c r="F78">
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="G78">
+        <v>1.839E-2</v>
+      </c>
+      <c r="H78" s="2">
+        <v>8.5644299999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>-0.5</v>
+      </c>
+      <c r="B79" s="2">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>1.16027926433377</v>
+      </c>
+      <c r="D79">
+        <v>2.0520935831420899</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0.18790999999999999</v>
+      </c>
+      <c r="F79">
+        <v>0.81186000000000003</v>
+      </c>
+      <c r="G79">
+        <v>6.8100000000000001E-3</v>
+      </c>
+      <c r="H79" s="2">
+        <v>11.042960000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>-0.5</v>
+      </c>
+      <c r="B80" s="2">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>1.0588543922045801</v>
+      </c>
+      <c r="D80">
+        <v>2.13571908343798</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0.16508</v>
+      </c>
+      <c r="F80">
+        <v>0.83340000000000003</v>
+      </c>
+      <c r="G80">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="H80" s="2">
+        <v>13.62613</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>-0.5</v>
+      </c>
+      <c r="B81" s="2">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>0.94975979937836497</v>
+      </c>
+      <c r="D81">
+        <v>2.1553971687145999</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0.14285</v>
+      </c>
+      <c r="F81">
+        <v>0.85213000000000005</v>
+      </c>
+      <c r="G81">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="H81" s="2">
+        <v>15.919090000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>-0.5</v>
+      </c>
+      <c r="B82" s="2">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>0.86393727585295199</v>
+      </c>
+      <c r="D82">
+        <v>2.1882386591912901</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0.12238</v>
+      </c>
+      <c r="F82">
+        <v>0.86573</v>
+      </c>
+      <c r="G82">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="H82" s="2">
+        <v>18.386289999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>-0.5</v>
+      </c>
+      <c r="B83" s="2">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>0.78460959547692299</v>
+      </c>
+      <c r="D83">
+        <v>2.17382352489519</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0.10535</v>
+      </c>
+      <c r="F83">
+        <v>0.87382000000000004</v>
+      </c>
+      <c r="G83">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="H83" s="2">
+        <v>20.455349999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>-0.5</v>
+      </c>
+      <c r="B84" s="2">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>0.71336943253498397</v>
+      </c>
+      <c r="D84">
+        <v>2.11884695141261</v>
+      </c>
+      <c r="E84" s="2">
+        <v>8.7819999999999995E-2</v>
+      </c>
+      <c r="F84">
+        <v>0.87965000000000004</v>
+      </c>
+      <c r="G84" s="1">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H84" s="2">
+        <v>22.079979999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>-0.5</v>
+      </c>
+      <c r="B85" s="2">
+        <v>20</v>
+      </c>
+      <c r="C85">
+        <v>0.36515791762935201</v>
+      </c>
+      <c r="D85">
+        <v>1.36398284663931</v>
+      </c>
+      <c r="E85" s="2">
+        <v>8.0199999999999994E-3</v>
+      </c>
+      <c r="F85">
+        <v>0.88570000000000004</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" s="2">
+        <v>28.19295</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>-0.5</v>
+      </c>
+      <c r="B86" s="2">
+        <v>30</v>
+      </c>
+      <c r="C86">
+        <v>0.24372112092627499</v>
+      </c>
+      <c r="D86">
+        <v>0.92449854982016999</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="F86">
+        <v>0.88426000000000005</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86" s="2">
+        <v>28.641010000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>-0.5</v>
+      </c>
+      <c r="B87" s="2">
+        <v>40</v>
+      </c>
+      <c r="C87">
+        <v>0.18267955175852801</v>
+      </c>
+      <c r="D87">
+        <v>0.69343345866626105</v>
+      </c>
+      <c r="E87" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F87">
+        <v>0.88392999999999999</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87" s="2">
+        <v>28.659389999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>-0.5</v>
+      </c>
+      <c r="B88" s="2">
+        <v>50</v>
+      </c>
+      <c r="C88">
+        <v>0.145483056861896</v>
+      </c>
+      <c r="D88">
+        <v>0.54821405143592905</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0.88614999999999999</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88" s="2">
+        <v>28.331659999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>-0.5</v>
+      </c>
+      <c r="B89" s="2">
+        <v>60</v>
+      </c>
+      <c r="C89">
+        <v>0.12095653370949599</v>
+      </c>
+      <c r="D89">
+        <v>0.45683810894821802</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0.88551999999999997</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2">
+        <v>28.33606</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>-0.5</v>
+      </c>
+      <c r="B90" s="2">
+        <v>70</v>
+      </c>
+      <c r="C90">
+        <v>0.104380130014175</v>
+      </c>
+      <c r="D90">
+        <v>0.39439322154604101</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0.88593</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90" s="2">
+        <v>28.499829999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>-0.5</v>
+      </c>
+      <c r="B91" s="2">
+        <v>80</v>
+      </c>
+      <c r="C91">
+        <v>9.0933784563330594E-2</v>
+      </c>
+      <c r="D91">
+        <v>0.34285165873228302</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0.88612999999999997</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91" s="2">
+        <v>28.346219999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>-0.5</v>
+      </c>
+      <c r="B92" s="2">
+        <v>90</v>
+      </c>
+      <c r="C92">
+        <v>8.1375400348703802E-2</v>
+      </c>
+      <c r="D92">
+        <v>0.30892616336689299</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0.88322999999999996</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2">
+        <v>28.717199999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>-0.5</v>
+      </c>
+      <c r="B93" s="2">
+        <v>100</v>
+      </c>
+      <c r="C93">
+        <v>7.3169722135134702E-2</v>
+      </c>
+      <c r="D93">
+        <v>0.27713463871830002</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0.88451000000000002</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93" s="2">
+        <v>28.6358</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>-0.1</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C94">
+        <v>1.0041247000487401</v>
+      </c>
+      <c r="D94">
+        <v>1.0041247000487401</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0.99941999999999998</v>
+      </c>
+      <c r="F94">
+        <v>5.8E-4</v>
+      </c>
+      <c r="G94">
+        <v>0.99895999999999996</v>
+      </c>
+      <c r="H94" s="2">
+        <v>1.0399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>-0.1</v>
+      </c>
+      <c r="B95" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="C95">
+        <v>1.0017762751355701</v>
+      </c>
+      <c r="D95">
+        <v>1.0018317532540799</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0.99878999999999996</v>
+      </c>
+      <c r="F95">
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="G95">
+        <v>0.99797000000000002</v>
+      </c>
+      <c r="H95" s="2">
+        <v>2.0500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>-0.1</v>
+      </c>
+      <c r="B96" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C96">
+        <v>1.0039594239819001</v>
+      </c>
+      <c r="D96">
+        <v>1.0040426354224701</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="F96">
+        <v>1.8E-3</v>
+      </c>
+      <c r="G96">
+        <v>0.99712999999999996</v>
+      </c>
+      <c r="H96" s="2">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>-0.1</v>
+      </c>
+      <c r="B97" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C97">
+        <v>1.00628335223877</v>
+      </c>
+      <c r="D97">
+        <v>1.00639883904151</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0.99753999999999998</v>
+      </c>
+      <c r="F97">
+        <v>2.4599999999999999E-3</v>
+      </c>
+      <c r="G97">
+        <v>0.99577000000000004</v>
+      </c>
+      <c r="H97" s="2">
+        <v>4.28E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>-0.1</v>
+      </c>
+      <c r="B98" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C98">
+        <v>1.00342125340448</v>
+      </c>
+      <c r="D98">
+        <v>1.00346079219208</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="F98">
+        <v>2.8E-3</v>
+      </c>
+      <c r="G98">
+        <v>0.995</v>
+      </c>
+      <c r="H98" s="2">
+        <v>5.0699999999999999E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>-0.1</v>
+      </c>
+      <c r="B99" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C99">
+        <v>1.0081038705472201</v>
+      </c>
+      <c r="D99">
+        <v>1.00832178703345</v>
+      </c>
+      <c r="E99" s="2">
+        <v>0.99646999999999997</v>
+      </c>
+      <c r="F99">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="G99">
+        <v>0.99417999999999995</v>
+      </c>
+      <c r="H99" s="2">
+        <v>5.9199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>-0.1</v>
+      </c>
+      <c r="B100" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C100">
+        <v>1.0074197424148501</v>
+      </c>
+      <c r="D100">
+        <v>1.00743402272809</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0.99626000000000003</v>
+      </c>
+      <c r="F100">
+        <v>3.7399999999999998E-3</v>
+      </c>
+      <c r="G100">
+        <v>0.99307999999999996</v>
+      </c>
+      <c r="H100" s="2">
+        <v>6.9800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>-0.1</v>
+      </c>
+      <c r="B101" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C101">
+        <v>1.0066718083604</v>
+      </c>
+      <c r="D101">
+        <v>1.0069015197232301</v>
+      </c>
+      <c r="E101" s="2">
+        <v>0.99529000000000001</v>
+      </c>
+      <c r="F101">
+        <v>4.7099999999999998E-3</v>
+      </c>
+      <c r="G101">
+        <v>0.99197000000000002</v>
+      </c>
+      <c r="H101" s="2">
+        <v>8.2500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>-0.1</v>
+      </c>
+      <c r="B102" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C102">
+        <v>1.0117273631875301</v>
+      </c>
+      <c r="D102">
+        <v>1.01178993046854</v>
+      </c>
+      <c r="E102" s="2">
+        <v>0.99492000000000003</v>
+      </c>
+      <c r="F102">
+        <v>5.0800000000000003E-3</v>
+      </c>
+      <c r="G102">
+        <v>0.99104999999999999</v>
+      </c>
+      <c r="H102" s="2">
+        <v>9.11E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>-0.1</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C103">
+        <v>1.0080824554018</v>
+      </c>
+      <c r="D103">
+        <v>1.0083436617750501</v>
+      </c>
+      <c r="E103" s="2">
+        <v>0.99426999999999999</v>
+      </c>
+      <c r="F103">
+        <v>5.7299999999999999E-3</v>
+      </c>
+      <c r="G103">
+        <v>0.99023000000000005</v>
+      </c>
+      <c r="H103" s="2">
+        <v>1.0120000000000001E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>-0.1</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C104">
+        <v>1.0168288829882</v>
+      </c>
+      <c r="D104">
+        <v>1.0173494732017001</v>
+      </c>
+      <c r="E104" s="2">
+        <v>0.98836000000000002</v>
+      </c>
+      <c r="F104">
+        <v>1.1639999999999999E-2</v>
+      </c>
+      <c r="G104">
+        <v>0.97987000000000002</v>
+      </c>
+      <c r="H104" s="2">
+        <v>2.1090000000000001E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>-0.1</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C105">
+        <v>1.0243534531562899</v>
+      </c>
+      <c r="D105">
+        <v>1.0253222081670299</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0.98243999999999998</v>
+      </c>
+      <c r="F105">
+        <v>1.7559999999999999E-2</v>
+      </c>
+      <c r="G105">
+        <v>0.97002999999999995</v>
+      </c>
+      <c r="H105" s="2">
+        <v>3.2079999999999997E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>-0.1</v>
+      </c>
+      <c r="B106" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="C106">
+        <v>1.0318979780051001</v>
+      </c>
+      <c r="D106">
+        <v>1.03312829002283</v>
+      </c>
+      <c r="E106" s="2">
+        <v>0.97765999999999997</v>
+      </c>
+      <c r="F106">
+        <v>2.2339999999999999E-2</v>
+      </c>
+      <c r="G106">
+        <v>0.96079000000000003</v>
+      </c>
+      <c r="H106" s="2">
+        <v>4.2970000000000001E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>-0.1</v>
+      </c>
+      <c r="B107" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C107">
+        <v>1.03507151670196</v>
+      </c>
+      <c r="D107">
+        <v>1.03661997106075</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0.97248999999999997</v>
+      </c>
+      <c r="F107">
+        <v>2.751E-2</v>
+      </c>
+      <c r="G107">
+        <v>0.95186999999999999</v>
+      </c>
+      <c r="H107" s="2">
+        <v>5.3129999999999997E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>-0.1</v>
+      </c>
+      <c r="B108" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C108">
+        <v>1.03903353197684</v>
+      </c>
+      <c r="D108">
+        <v>1.0410106735710301</v>
+      </c>
+      <c r="E108" s="2">
+        <v>0.96684000000000003</v>
+      </c>
+      <c r="F108">
+        <v>3.3160000000000002E-2</v>
+      </c>
+      <c r="G108">
+        <v>0.94154000000000004</v>
+      </c>
+      <c r="H108" s="2">
+        <v>6.5699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>-0.1</v>
+      </c>
+      <c r="B109" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C109">
+        <v>1.04803114784329</v>
+      </c>
+      <c r="D109">
+        <v>1.0505187232102899</v>
+      </c>
+      <c r="E109" s="2">
+        <v>0.96113000000000004</v>
+      </c>
+      <c r="F109">
+        <v>3.8870000000000002E-2</v>
+      </c>
+      <c r="G109">
+        <v>0.93220000000000003</v>
+      </c>
+      <c r="H109" s="2">
+        <v>7.7649999999999997E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>-0.1</v>
+      </c>
+      <c r="B110" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C110">
+        <v>1.05439042348687</v>
+      </c>
+      <c r="D110">
+        <v>1.05744690604919</v>
+      </c>
+      <c r="E110" s="2">
+        <v>0.95587999999999995</v>
+      </c>
+      <c r="F110">
+        <v>4.4119999999999999E-2</v>
+      </c>
+      <c r="G110">
+        <v>0.92283999999999999</v>
+      </c>
+      <c r="H110" s="2">
+        <v>8.924E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>-0.1</v>
+      </c>
+      <c r="B111" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="C111">
+        <v>1.05477880621126</v>
+      </c>
+      <c r="D111">
+        <v>1.0582202680815</v>
+      </c>
+      <c r="E111" s="2">
+        <v>0.95055999999999996</v>
+      </c>
+      <c r="F111">
+        <v>4.9439999999999998E-2</v>
+      </c>
+      <c r="G111">
+        <v>0.91395000000000004</v>
+      </c>
+      <c r="H111" s="2">
+        <v>0.10137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>-0.1</v>
+      </c>
+      <c r="B112" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C112">
+        <v>1.06385308032096</v>
+      </c>
+      <c r="D112">
+        <v>1.0678823620187201</v>
+      </c>
+      <c r="E112" s="2">
+        <v>0.94638999999999995</v>
+      </c>
+      <c r="F112">
+        <v>5.3609999999999998E-2</v>
+      </c>
+      <c r="G112">
+        <v>0.90576000000000001</v>
+      </c>
+      <c r="H112" s="2">
+        <v>0.11279</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>-0.1</v>
+      </c>
+      <c r="B113" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C113">
+        <v>1.1069759507311401</v>
+      </c>
+      <c r="D113">
+        <v>1.1167144852881301</v>
+      </c>
+      <c r="E113" s="2">
+        <v>0.89761999999999997</v>
+      </c>
+      <c r="F113">
+        <v>0.10238</v>
+      </c>
+      <c r="G113">
+        <v>0.81962000000000002</v>
+      </c>
+      <c r="H113" s="2">
+        <v>0.24473</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>-0.1</v>
+      </c>
+      <c r="B114" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C114">
+        <v>1.14154626012265</v>
+      </c>
+      <c r="D114">
+        <v>1.15763196238743</v>
+      </c>
+      <c r="E114" s="2">
+        <v>0.85511999999999999</v>
+      </c>
+      <c r="F114">
+        <v>0.14488000000000001</v>
+      </c>
+      <c r="G114">
+        <v>0.74277000000000004</v>
+      </c>
+      <c r="H114" s="2">
+        <v>0.38527</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>-0.1</v>
+      </c>
+      <c r="B115" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C115">
+        <v>1.17657613170044</v>
+      </c>
+      <c r="D115">
+        <v>1.20033802230857</v>
+      </c>
+      <c r="E115" s="2">
+        <v>0.81440999999999997</v>
+      </c>
+      <c r="F115">
+        <v>0.18559</v>
+      </c>
+      <c r="G115">
+        <v>0.67079999999999995</v>
+      </c>
+      <c r="H115" s="2">
+        <v>0.54276999999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>-0.1</v>
+      </c>
+      <c r="B116" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C116">
+        <v>1.20593987370109</v>
+      </c>
+      <c r="D116">
+        <v>1.23901342338759</v>
+      </c>
+      <c r="E116" s="2">
+        <v>0.77864</v>
+      </c>
+      <c r="F116">
+        <v>0.22136</v>
+      </c>
+      <c r="G116">
+        <v>0.60980000000000001</v>
+      </c>
+      <c r="H116" s="2">
+        <v>0.70189000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>-0.1</v>
+      </c>
+      <c r="B117" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C117">
+        <v>1.23680452590973</v>
+      </c>
+      <c r="D117">
+        <v>1.2791293281079901</v>
+      </c>
+      <c r="E117" s="2">
+        <v>0.74436000000000002</v>
+      </c>
+      <c r="F117">
+        <v>0.25563999999999998</v>
+      </c>
+      <c r="G117">
+        <v>0.55028999999999995</v>
+      </c>
+      <c r="H117" s="2">
+        <v>0.87819000000000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>-0.1</v>
+      </c>
+      <c r="B118" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C118">
+        <v>1.2607371217982699</v>
+      </c>
+      <c r="D118">
+        <v>1.3134261807380401</v>
+      </c>
+      <c r="E118" s="2">
+        <v>0.71133999999999997</v>
+      </c>
+      <c r="F118">
+        <v>0.28866000000000003</v>
+      </c>
+      <c r="G118">
+        <v>0.49728</v>
+      </c>
+      <c r="H118" s="2">
+        <v>1.0580700000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>-0.1</v>
+      </c>
+      <c r="B119" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C119">
+        <v>1.2922861031803199</v>
+      </c>
+      <c r="D119">
+        <v>1.3571628443333399</v>
+      </c>
+      <c r="E119" s="2">
+        <v>0.68493000000000004</v>
+      </c>
+      <c r="F119">
+        <v>0.31507000000000002</v>
+      </c>
+      <c r="G119">
+        <v>0.44934000000000002</v>
+      </c>
+      <c r="H119" s="2">
+        <v>1.2438199999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>-0.1</v>
+      </c>
+      <c r="B120" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C120">
+        <v>1.3171074102459399</v>
+      </c>
+      <c r="D120">
+        <v>1.3943591511928299</v>
+      </c>
+      <c r="E120" s="2">
+        <v>0.65595999999999999</v>
+      </c>
+      <c r="F120">
+        <v>0.34404000000000001</v>
+      </c>
+      <c r="G120">
+        <v>0.40622999999999998</v>
+      </c>
+      <c r="H120" s="2">
+        <v>1.44197</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>-0.1</v>
+      </c>
+      <c r="B121" s="2">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>1.31632067032514</v>
+      </c>
+      <c r="D121">
+        <v>1.4024532323033401</v>
+      </c>
+      <c r="E121" s="2">
+        <v>0.63270999999999999</v>
+      </c>
+      <c r="F121">
+        <v>0.36729000000000001</v>
+      </c>
+      <c r="G121">
+        <v>0.36909999999999998</v>
+      </c>
+      <c r="H121" s="2">
+        <v>1.6085100000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>-0.1</v>
+      </c>
+      <c r="B122" s="2">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>1.44336873367782</v>
+      </c>
+      <c r="D122">
+        <v>1.6877774835964301</v>
+      </c>
+      <c r="E122" s="2">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="F122">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="G122">
+        <v>0.13825000000000001</v>
+      </c>
+      <c r="H122" s="2">
+        <v>3.7932399999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>-0.1</v>
+      </c>
+      <c r="B123" s="2">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>1.4389227553174</v>
+      </c>
+      <c r="D123">
+        <v>1.8711814810401799</v>
+      </c>
+      <c r="E123" s="2">
+        <v>0.35363</v>
+      </c>
+      <c r="F123">
+        <v>0.64637</v>
+      </c>
+      <c r="G123">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="H123" s="2">
+        <v>6.1820599999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>-0.1</v>
+      </c>
+      <c r="B124" s="2">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>1.3747557987844199</v>
+      </c>
+      <c r="D124">
+        <v>2.0093825713814399</v>
+      </c>
+      <c r="E124" s="2">
+        <v>0.28982999999999998</v>
+      </c>
+      <c r="F124">
+        <v>0.71016000000000001</v>
+      </c>
+      <c r="G124">
+        <v>1.9120000000000002E-2</v>
+      </c>
+      <c r="H124" s="2">
+        <v>8.7070100000000004</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>-0.1</v>
+      </c>
+      <c r="B125" s="2">
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <v>1.2760774704410101</v>
+      </c>
+      <c r="D125">
+        <v>2.0925900714431198</v>
+      </c>
+      <c r="E125" s="2">
+        <v>0.24281</v>
+      </c>
+      <c r="F125">
+        <v>0.75712999999999997</v>
+      </c>
+      <c r="G125">
+        <v>6.8599999999999998E-3</v>
+      </c>
+      <c r="H125" s="2">
+        <v>11.19389</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>-0.1</v>
+      </c>
+      <c r="B126" s="2">
+        <v>6</v>
+      </c>
+      <c r="C126">
+        <v>1.16096158175532</v>
+      </c>
+      <c r="D126">
+        <v>2.1305189519241399</v>
+      </c>
+      <c r="E126" s="2">
+        <v>0.20854</v>
+      </c>
+      <c r="F126">
+        <v>0.79107000000000005</v>
+      </c>
+      <c r="G126">
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="H126" s="2">
+        <v>13.56579</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>-0.1</v>
+      </c>
+      <c r="B127" s="2">
+        <v>7</v>
+      </c>
+      <c r="C127">
+        <v>1.06812189647321</v>
+      </c>
+      <c r="D127">
+        <v>2.2015141125122799</v>
+      </c>
+      <c r="E127" s="2">
+        <v>0.18379999999999999</v>
+      </c>
+      <c r="F127">
+        <v>0.81369999999999998</v>
+      </c>
+      <c r="G127">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H127" s="2">
+        <v>16.236080000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>-0.1</v>
+      </c>
+      <c r="B128" s="2">
+        <v>8</v>
+      </c>
+      <c r="C128">
+        <v>0.97352874307867399</v>
+      </c>
+      <c r="D128">
+        <v>2.2041562804686601</v>
+      </c>
+      <c r="E128" s="2">
+        <v>0.16308</v>
+      </c>
+      <c r="F128">
+        <v>0.83152999999999999</v>
+      </c>
+      <c r="G128">
+        <v>2.7E-4</v>
+      </c>
+      <c r="H128" s="2">
+        <v>18.460519999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>-0.1</v>
+      </c>
+      <c r="B129" s="2">
+        <v>9</v>
+      </c>
+      <c r="C129">
+        <v>0.88928610053707602</v>
+      </c>
+      <c r="D129">
+        <v>2.21565486825956</v>
+      </c>
+      <c r="E129" s="2">
+        <v>0.14294999999999999</v>
+      </c>
+      <c r="F129">
+        <v>0.84536</v>
+      </c>
+      <c r="G129">
+        <v>1.2E-4</v>
+      </c>
+      <c r="H129" s="2">
+        <v>20.79711</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>-0.1</v>
+      </c>
+      <c r="B130" s="2">
+        <v>10</v>
+      </c>
+      <c r="C130">
+        <v>0.81498748939361398</v>
+      </c>
+      <c r="D130">
+        <v>2.2078273922757998</v>
+      </c>
+      <c r="E130" s="2">
+        <v>0.12556999999999999</v>
+      </c>
+      <c r="F130">
+        <v>0.85311000000000003</v>
+      </c>
+      <c r="G130" s="1">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="H130" s="2">
+        <v>22.94905</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>-0.1</v>
+      </c>
+      <c r="B131" s="2">
+        <v>20</v>
+      </c>
+      <c r="C131">
+        <v>0.42237348017471099</v>
+      </c>
+      <c r="D131">
+        <v>1.55635881687577</v>
+      </c>
+      <c r="E131" s="2">
+        <v>1.942E-2</v>
+      </c>
+      <c r="F131">
+        <v>0.86851999999999996</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131" s="2">
+        <v>32.019170000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>-0.1</v>
+      </c>
+      <c r="B132" s="2">
+        <v>30</v>
+      </c>
+      <c r="C132">
+        <v>0.28183378528759101</v>
+      </c>
+      <c r="D132">
+        <v>1.06445035789187</v>
+      </c>
+      <c r="E132" s="2">
+        <v>1.14E-3</v>
+      </c>
+      <c r="F132">
+        <v>0.86870999999999998</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132" s="2">
+        <v>32.87171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>-0.1</v>
+      </c>
+      <c r="B133" s="2">
+        <v>40</v>
+      </c>
+      <c r="C133">
+        <v>0.21046515711703201</v>
+      </c>
+      <c r="D133">
+        <v>0.79520901190332305</v>
+      </c>
+      <c r="E133" s="3">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F133">
+        <v>0.86768999999999996</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133" s="2">
+        <v>32.723300000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>-0.1</v>
+      </c>
+      <c r="B134" s="2">
+        <v>50</v>
+      </c>
+      <c r="C134">
+        <v>0.169008763283818</v>
+      </c>
+      <c r="D134">
+        <v>0.64017760499226395</v>
+      </c>
+      <c r="E134" s="2">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0.86675000000000002</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134" s="2">
+        <v>32.879330000000003</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>-0.1</v>
+      </c>
+      <c r="B135" s="2">
+        <v>60</v>
+      </c>
+      <c r="C135">
+        <v>0.140739387973108</v>
+      </c>
+      <c r="D135">
+        <v>0.53085722612338104</v>
+      </c>
+      <c r="E135" s="2">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0.86882000000000004</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135" s="2">
+        <v>32.759189999999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>-0.1</v>
+      </c>
+      <c r="B136" s="2">
+        <v>70</v>
+      </c>
+      <c r="C136">
+        <v>0.120582721212193</v>
+      </c>
+      <c r="D136">
+        <v>0.45470377269756401</v>
+      </c>
+      <c r="E136" s="2">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0.86875000000000002</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136" s="2">
+        <v>32.732390000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>-0.1</v>
+      </c>
+      <c r="B137" s="2">
+        <v>80</v>
+      </c>
+      <c r="C137">
+        <v>0.10611657665600301</v>
+      </c>
+      <c r="D137">
+        <v>0.40401290187028999</v>
+      </c>
+      <c r="E137" s="2">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0.86556</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" s="2">
+        <v>33.215350000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>-0.1</v>
+      </c>
+      <c r="B138" s="2">
+        <v>90</v>
+      </c>
+      <c r="C138">
+        <v>9.3603731737660498E-2</v>
+      </c>
+      <c r="D138">
+        <v>0.352503725775626</v>
+      </c>
+      <c r="E138" s="2">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0.86860000000000004</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138" s="2">
+        <v>32.612299999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>-0.1</v>
+      </c>
+      <c r="B139" s="2">
+        <v>100</v>
+      </c>
+      <c r="C139">
+        <v>8.4005369750990697E-2</v>
+      </c>
+      <c r="D139">
+        <v>0.314826083863466</v>
+      </c>
+      <c r="E139" s="2">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0.87012</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139" s="2">
+        <v>32.396970000000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>0.1</v>
+      </c>
+      <c r="B140" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C140">
+        <v>1.0009825540698001</v>
+      </c>
+      <c r="D140">
+        <v>1.0009825540698001</v>
+      </c>
+      <c r="E140" s="2">
+        <v>0.99956999999999996</v>
+      </c>
+      <c r="F140">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="G140">
+        <v>0.99895</v>
+      </c>
+      <c r="H140" s="2">
+        <v>1.0499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>0.1</v>
+      </c>
+      <c r="B141" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="C141">
+        <v>1.00209627762641</v>
+      </c>
+      <c r="D141">
+        <v>1.0020969896962699</v>
+      </c>
+      <c r="E141" s="2">
+        <v>0.99912000000000001</v>
+      </c>
+      <c r="F141">
+        <v>8.8000000000000003E-4</v>
+      </c>
+      <c r="G141">
+        <v>0.99785000000000001</v>
+      </c>
+      <c r="H141" s="2">
+        <v>2.16E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>0.1</v>
+      </c>
+      <c r="B142" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C142">
+        <v>1.00309349879831</v>
+      </c>
+      <c r="D142">
+        <v>1.0031212074685301</v>
+      </c>
+      <c r="E142" s="2">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="F142">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G142">
+        <v>0.99685999999999997</v>
+      </c>
+      <c r="H142" s="2">
+        <v>3.1800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>0.1</v>
+      </c>
+      <c r="B143" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C143">
+        <v>1.0074393154536001</v>
+      </c>
+      <c r="D143">
+        <v>1.00762147916693</v>
+      </c>
+      <c r="E143" s="2">
+        <v>0.99848000000000003</v>
+      </c>
+      <c r="F143">
+        <v>1.5200000000000001E-3</v>
+      </c>
+      <c r="G143">
+        <v>0.99617999999999995</v>
+      </c>
+      <c r="H143" s="2">
+        <v>3.8300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>0.1</v>
+      </c>
+      <c r="B144" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C144">
+        <v>1.01079998157248</v>
+      </c>
+      <c r="D144">
+        <v>1.01112647024535</v>
+      </c>
+      <c r="E144" s="2">
+        <v>0.99772000000000005</v>
+      </c>
+      <c r="F144">
+        <v>2.2799999999999999E-3</v>
+      </c>
+      <c r="G144">
+        <v>0.99502000000000002</v>
+      </c>
+      <c r="H144" s="2">
+        <v>5.1200000000000004E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>0.1</v>
+      </c>
+      <c r="B145" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C145">
+        <v>1.0040846667169301</v>
+      </c>
+      <c r="D145">
+        <v>1.0041245677300401</v>
+      </c>
+      <c r="E145" s="2">
+        <v>0.99780999999999997</v>
+      </c>
+      <c r="F145">
+        <v>2.1900000000000001E-3</v>
+      </c>
+      <c r="G145">
+        <v>0.99460999999999999</v>
+      </c>
+      <c r="H145" s="2">
+        <v>5.47E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>0.1</v>
+      </c>
+      <c r="B146" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C146">
+        <v>1.0078106888068199</v>
+      </c>
+      <c r="D146">
+        <v>1.00806402193738</v>
+      </c>
+      <c r="E146" s="2">
+        <v>0.99697999999999998</v>
+      </c>
+      <c r="F146">
+        <v>3.0200000000000001E-3</v>
+      </c>
+      <c r="G146">
+        <v>0.99334999999999996</v>
+      </c>
+      <c r="H146" s="2">
+        <v>6.8599999999999998E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>0.1</v>
+      </c>
+      <c r="B147" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C147">
+        <v>1.00908584735573</v>
+      </c>
+      <c r="D147">
+        <v>1.0091880920371501</v>
+      </c>
+      <c r="E147" s="2">
+        <v>0.99666999999999994</v>
+      </c>
+      <c r="F147">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="G147">
+        <v>0.99228000000000005</v>
+      </c>
+      <c r="H147" s="2">
+        <v>7.8100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>0.1</v>
+      </c>
+      <c r="B148" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C148">
+        <v>1.0124556240633</v>
+      </c>
+      <c r="D148">
+        <v>1.01284013132938</v>
+      </c>
+      <c r="E148" s="2">
+        <v>0.99585000000000001</v>
+      </c>
+      <c r="F148">
+        <v>4.15E-3</v>
+      </c>
+      <c r="G148">
+        <v>0.99048999999999998</v>
+      </c>
+      <c r="H148" s="2">
+        <v>9.7699999999999992E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>0.1</v>
+      </c>
+      <c r="B149" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C149">
+        <v>1.01078377525415</v>
+      </c>
+      <c r="D149">
+        <v>1.0109977754492201</v>
+      </c>
+      <c r="E149" s="2">
+        <v>0.99563999999999997</v>
+      </c>
+      <c r="F149">
+        <v>4.3600000000000002E-3</v>
+      </c>
+      <c r="G149">
+        <v>0.98968999999999996</v>
+      </c>
+      <c r="H149" s="2">
+        <v>1.065E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>0.1</v>
+      </c>
+      <c r="B150" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C150">
+        <v>1.02413074628863</v>
+      </c>
+      <c r="D150">
+        <v>1.02479525932509</v>
+      </c>
+      <c r="E150" s="2">
+        <v>0.99158000000000002</v>
+      </c>
+      <c r="F150">
+        <v>8.4200000000000004E-3</v>
+      </c>
+      <c r="G150">
+        <v>0.98051999999999995</v>
+      </c>
+      <c r="H150" s="2">
+        <v>2.0279999999999999E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>0.1</v>
+      </c>
+      <c r="B151" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C151">
+        <v>1.0289573337450499</v>
+      </c>
+      <c r="D151">
+        <v>1.0297686532608401</v>
+      </c>
+      <c r="E151" s="2">
+        <v>0.98760999999999999</v>
+      </c>
+      <c r="F151">
+        <v>1.239E-2</v>
+      </c>
+      <c r="G151">
+        <v>0.97011000000000003</v>
+      </c>
+      <c r="H151" s="2">
+        <v>3.1809999999999998E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>0.1</v>
+      </c>
+      <c r="B152" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="C152">
+        <v>1.0329071769523901</v>
+      </c>
+      <c r="D152">
+        <v>1.0341219845756999</v>
+      </c>
+      <c r="E152" s="2">
+        <v>0.98302</v>
+      </c>
+      <c r="F152">
+        <v>1.6979999999999999E-2</v>
+      </c>
+      <c r="G152">
+        <v>0.96043000000000001</v>
+      </c>
+      <c r="H152" s="2">
+        <v>4.3299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>0.1</v>
+      </c>
+      <c r="B153" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C153">
+        <v>1.03973487578637</v>
+      </c>
+      <c r="D153">
+        <v>1.0412753230110201</v>
+      </c>
+      <c r="E153" s="2">
+        <v>0.97921999999999998</v>
+      </c>
+      <c r="F153">
+        <v>2.078E-2</v>
+      </c>
+      <c r="G153">
+        <v>0.95148999999999995</v>
+      </c>
+      <c r="H153" s="2">
+        <v>5.3650000000000003E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>0.1</v>
+      </c>
+      <c r="B154" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C154">
+        <v>1.0527868802253999</v>
+      </c>
+      <c r="D154">
+        <v>1.0551531352388099</v>
+      </c>
+      <c r="E154" s="2">
+        <v>0.97477999999999998</v>
+      </c>
+      <c r="F154">
+        <v>2.5219999999999999E-2</v>
+      </c>
+      <c r="G154">
+        <v>0.94167000000000001</v>
+      </c>
+      <c r="H154" s="2">
+        <v>6.5769999999999995E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>0.1</v>
+      </c>
+      <c r="B155" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C155">
+        <v>1.0526501309925</v>
+      </c>
+      <c r="D155">
+        <v>1.05498025177356</v>
+      </c>
+      <c r="E155" s="2">
+        <v>0.97126999999999997</v>
+      </c>
+      <c r="F155">
+        <v>2.8729999999999999E-2</v>
+      </c>
+      <c r="G155">
+        <v>0.93257999999999996</v>
+      </c>
+      <c r="H155" s="2">
+        <v>7.6929999999999998E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>0.1</v>
+      </c>
+      <c r="B156" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C156">
+        <v>1.0622499943038599</v>
+      </c>
+      <c r="D156">
+        <v>1.0654880719389299</v>
+      </c>
+      <c r="E156" s="2">
+        <v>0.96767000000000003</v>
+      </c>
+      <c r="F156">
+        <v>3.2329999999999998E-2</v>
+      </c>
+      <c r="G156">
+        <v>0.92535999999999996</v>
+      </c>
+      <c r="H156" s="2">
+        <v>8.6749999999999994E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>0.1</v>
+      </c>
+      <c r="B157" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="C157">
+        <v>1.0639519623185001</v>
+      </c>
+      <c r="D157">
+        <v>1.06730070249425</v>
+      </c>
+      <c r="E157" s="2">
+        <v>0.96353</v>
+      </c>
+      <c r="F157">
+        <v>3.6470000000000002E-2</v>
+      </c>
+      <c r="G157">
+        <v>0.91535</v>
+      </c>
+      <c r="H157" s="2">
+        <v>9.9919999999999995E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>0.1</v>
+      </c>
+      <c r="B158" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C158">
+        <v>1.0743981750403699</v>
+      </c>
+      <c r="D158">
+        <v>1.07827031452547</v>
+      </c>
+      <c r="E158" s="2">
+        <v>0.95965</v>
+      </c>
+      <c r="F158">
+        <v>4.0349999999999997E-2</v>
+      </c>
+      <c r="G158">
+        <v>0.90551000000000004</v>
+      </c>
+      <c r="H158" s="2">
+        <v>0.11244</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>0.1</v>
+      </c>
+      <c r="B159" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C159">
+        <v>1.12373623099819</v>
+      </c>
+      <c r="D159">
+        <v>1.13291800332046</v>
+      </c>
+      <c r="E159" s="2">
+        <v>0.92076000000000002</v>
+      </c>
+      <c r="F159">
+        <v>7.9240000000000005E-2</v>
+      </c>
+      <c r="G159">
+        <v>0.81828999999999996</v>
+      </c>
+      <c r="H159" s="2">
+        <v>0.24557999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>0.1</v>
+      </c>
+      <c r="B160" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C160">
+        <v>1.16380604724359</v>
+      </c>
+      <c r="D160">
+        <v>1.17917587930977</v>
+      </c>
+      <c r="E160" s="2">
+        <v>0.88649999999999995</v>
+      </c>
+      <c r="F160">
+        <v>0.1135</v>
+      </c>
+      <c r="G160">
+        <v>0.74226000000000003</v>
+      </c>
+      <c r="H160" s="2">
+        <v>0.38347999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>0.1</v>
+      </c>
+      <c r="B161" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C161">
+        <v>1.2029382022132</v>
+      </c>
+      <c r="D161">
+        <v>1.2266688862528099</v>
+      </c>
+      <c r="E161" s="2">
+        <v>0.85260000000000002</v>
+      </c>
+      <c r="F161">
+        <v>0.1474</v>
+      </c>
+      <c r="G161">
+        <v>0.67188999999999999</v>
+      </c>
+      <c r="H161" s="2">
+        <v>0.54086999999999996</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>0.1</v>
+      </c>
+      <c r="B162" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C162">
+        <v>1.23731825095287</v>
+      </c>
+      <c r="D162">
+        <v>1.2699428428533299</v>
+      </c>
+      <c r="E162" s="2">
+        <v>0.82016999999999995</v>
+      </c>
+      <c r="F162">
+        <v>0.17982999999999999</v>
+      </c>
+      <c r="G162">
+        <v>0.60629</v>
+      </c>
+      <c r="H162" s="2">
+        <v>0.71231999999999995</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>0.1</v>
+      </c>
+      <c r="B163" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C163">
+        <v>1.2636737390675199</v>
+      </c>
+      <c r="D163">
+        <v>1.3056299998740899</v>
+      </c>
+      <c r="E163" s="2">
+        <v>0.78874999999999995</v>
+      </c>
+      <c r="F163">
+        <v>0.21124999999999999</v>
+      </c>
+      <c r="G163">
+        <v>0.54856000000000005</v>
+      </c>
+      <c r="H163" s="2">
+        <v>0.88251000000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>0.1</v>
+      </c>
+      <c r="B164" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C164">
+        <v>1.2881112462826301</v>
+      </c>
+      <c r="D164">
+        <v>1.33852759460934</v>
+      </c>
+      <c r="E164" s="2">
+        <v>0.76241999999999999</v>
+      </c>
+      <c r="F164">
+        <v>0.23758000000000001</v>
+      </c>
+      <c r="G164">
+        <v>0.49925999999999998</v>
+      </c>
+      <c r="H164" s="2">
+        <v>1.0496099999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>0.1</v>
+      </c>
+      <c r="B165" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C165">
+        <v>1.3170157054157601</v>
+      </c>
+      <c r="D165">
+        <v>1.3788558525221299</v>
+      </c>
+      <c r="E165" s="2">
+        <v>0.73784000000000005</v>
+      </c>
+      <c r="F165">
+        <v>0.26216</v>
+      </c>
+      <c r="G165">
+        <v>0.44971</v>
+      </c>
+      <c r="H165" s="2">
+        <v>1.23895</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>0.1</v>
+      </c>
+      <c r="B166" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C166">
+        <v>1.3353382542532299</v>
+      </c>
+      <c r="D166">
+        <v>1.40876281655271</v>
+      </c>
+      <c r="E166" s="2">
+        <v>0.71048999999999995</v>
+      </c>
+      <c r="F166">
+        <v>0.28950999999999999</v>
+      </c>
+      <c r="G166">
+        <v>0.40865000000000001</v>
+      </c>
+      <c r="H166" s="2">
+        <v>1.42876</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>0.1</v>
+      </c>
+      <c r="B167" s="2">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>1.36562853168181</v>
+      </c>
+      <c r="D167">
+        <v>1.4527741294684999</v>
+      </c>
+      <c r="E167" s="2">
+        <v>0.68769999999999998</v>
+      </c>
+      <c r="F167">
+        <v>0.31230000000000002</v>
+      </c>
+      <c r="G167">
+        <v>0.36813000000000001</v>
+      </c>
+      <c r="H167" s="2">
+        <v>1.6384700000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>0.1</v>
+      </c>
+      <c r="B168" s="2">
+        <v>2</v>
+      </c>
+      <c r="C168">
+        <v>1.47537013602919</v>
+      </c>
+      <c r="D168">
+        <v>1.7076366750090299</v>
+      </c>
+      <c r="E168" s="2">
+        <v>0.51188</v>
+      </c>
+      <c r="F168">
+        <v>0.48812</v>
+      </c>
+      <c r="G168">
+        <v>0.13563</v>
+      </c>
+      <c r="H168" s="2">
+        <v>3.8003300000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>0.1</v>
+      </c>
+      <c r="B169" s="2">
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>1.4799614680897</v>
+      </c>
+      <c r="D169">
+        <v>1.88860496370856</v>
+      </c>
+      <c r="E169" s="2">
+        <v>0.40719</v>
+      </c>
+      <c r="F169">
+        <v>0.59280999999999995</v>
+      </c>
+      <c r="G169">
+        <v>4.9180000000000001E-2</v>
+      </c>
+      <c r="H169" s="2">
+        <v>6.1923300000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>0.1</v>
+      </c>
+      <c r="B170" s="2">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>1.4179426020463199</v>
+      </c>
+      <c r="D170">
+        <v>2.0119983309903202</v>
+      </c>
+      <c r="E170" s="2">
+        <v>0.33401999999999998</v>
+      </c>
+      <c r="F170">
+        <v>0.66598000000000002</v>
+      </c>
+      <c r="G170">
+        <v>1.8319999999999999E-2</v>
+      </c>
+      <c r="H170" s="2">
+        <v>8.6905199999999994</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>0.1</v>
+      </c>
+      <c r="B171" s="2">
+        <v>5</v>
+      </c>
+      <c r="C171">
+        <v>1.32716325235151</v>
+      </c>
+      <c r="D171">
+        <v>2.0949853852209501</v>
+      </c>
+      <c r="E171" s="2">
+        <v>0.2843</v>
+      </c>
+      <c r="F171">
+        <v>0.7157</v>
+      </c>
+      <c r="G171">
+        <v>6.6800000000000002E-3</v>
+      </c>
+      <c r="H171" s="2">
+        <v>11.179819999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>0.1</v>
+      </c>
+      <c r="B172" s="2">
+        <v>6</v>
+      </c>
+      <c r="C172">
+        <v>1.2299313848645399</v>
+      </c>
+      <c r="D172">
+        <v>2.1633728133364598</v>
+      </c>
+      <c r="E172" s="2">
+        <v>0.24814</v>
+      </c>
+      <c r="F172">
+        <v>0.75165999999999999</v>
+      </c>
+      <c r="G172">
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="H172" s="2">
+        <v>13.71438</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>0.1</v>
+      </c>
+      <c r="B173" s="2">
+        <v>7</v>
+      </c>
+      <c r="C173">
+        <v>1.12480299701973</v>
+      </c>
+      <c r="D173">
+        <v>2.1911672496605301</v>
+      </c>
+      <c r="E173" s="2">
+        <v>0.21731</v>
+      </c>
+      <c r="F173">
+        <v>0.78163000000000005</v>
+      </c>
+      <c r="G173">
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="H173" s="2">
+        <v>16.12904</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>0.1</v>
+      </c>
+      <c r="B174" s="2">
+        <v>8</v>
+      </c>
+      <c r="C174">
+        <v>1.03039616348261</v>
+      </c>
+      <c r="D174">
+        <v>2.2067757410784998</v>
+      </c>
+      <c r="E174" s="2">
+        <v>0.19338</v>
+      </c>
+      <c r="F174">
+        <v>0.80320999999999998</v>
+      </c>
+      <c r="G174">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="H174" s="2">
+        <v>18.461590000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>0.1</v>
+      </c>
+      <c r="B175" s="2">
+        <v>9</v>
+      </c>
+      <c r="C175">
+        <v>0.94777830078260805</v>
+      </c>
+      <c r="D175">
+        <v>2.2262217604218999</v>
+      </c>
+      <c r="E175" s="2">
+        <v>0.17021</v>
+      </c>
+      <c r="F175">
+        <v>0.82203000000000004</v>
+      </c>
+      <c r="G175" s="1">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="H175" s="2">
+        <v>20.895779999999998</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>0.1</v>
+      </c>
+      <c r="B176" s="2">
+        <v>10</v>
+      </c>
+      <c r="C176">
+        <v>0.87629635616672996</v>
+      </c>
+      <c r="D176">
+        <v>2.2338044913033199</v>
+      </c>
+      <c r="E176" s="2">
+        <v>0.15376999999999999</v>
+      </c>
+      <c r="F176">
+        <v>0.83186000000000004</v>
+      </c>
+      <c r="G176" s="1">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="H176" s="2">
+        <v>23.188949999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>0.1</v>
+      </c>
+      <c r="B177" s="2">
+        <v>20</v>
+      </c>
+      <c r="C177">
+        <v>0.46115749977831799</v>
+      </c>
+      <c r="D177">
+        <v>1.6802986906582</v>
+      </c>
+      <c r="E177" s="2">
+        <v>3.3189999999999997E-2</v>
+      </c>
+      <c r="F177">
+        <v>0.85487000000000002</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177" s="2">
+        <v>34.491050000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>0.1</v>
+      </c>
+      <c r="B178" s="2">
+        <v>30</v>
+      </c>
+      <c r="C178">
+        <v>0.30719697355792702</v>
+      </c>
+      <c r="D178">
+        <v>1.1708585454849101</v>
+      </c>
+      <c r="E178" s="2">
+        <v>3.32E-3</v>
+      </c>
+      <c r="F178">
+        <v>0.85370000000000001</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178" s="2">
+        <v>36.017429999999997</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>0.1</v>
+      </c>
+      <c r="B179" s="2">
+        <v>40</v>
+      </c>
+      <c r="C179">
+        <v>0.230761731791604</v>
+      </c>
+      <c r="D179">
+        <v>0.88038321598482205</v>
+      </c>
+      <c r="E179" s="2">
+        <v>1.1E-4</v>
+      </c>
+      <c r="F179">
+        <v>0.85348999999999997</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179" s="2">
+        <v>36.098680000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>0.1</v>
+      </c>
+      <c r="B180" s="2">
+        <v>50</v>
+      </c>
+      <c r="C180">
+        <v>0.184514955955942</v>
+      </c>
+      <c r="D180">
+        <v>0.70695665938075802</v>
+      </c>
+      <c r="E180" s="2">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0.85202999999999995</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180" s="2">
+        <v>36.196849999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>0.1</v>
+      </c>
+      <c r="B181" s="2">
+        <v>60</v>
+      </c>
+      <c r="C181">
+        <v>0.153795554726847</v>
+      </c>
+      <c r="D181">
+        <v>0.58383412850910998</v>
+      </c>
+      <c r="E181" s="2">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0.85579000000000005</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181" s="2">
+        <v>35.931939999999997</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>0.1</v>
+      </c>
+      <c r="B182" s="2">
+        <v>70</v>
+      </c>
+      <c r="C182">
+        <v>0.132036840616613</v>
+      </c>
+      <c r="D182">
+        <v>0.50445618047825902</v>
+      </c>
+      <c r="E182" s="2">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0.85280999999999996</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182" s="2">
+        <v>36.22786</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>0.1</v>
+      </c>
+      <c r="B183" s="2">
+        <v>80</v>
+      </c>
+      <c r="C183">
+        <v>0.116111447960244</v>
+      </c>
+      <c r="D183">
+        <v>0.44131310847125099</v>
+      </c>
+      <c r="E183" s="2">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0.85365000000000002</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183" s="2">
+        <v>36.19462</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>0.1</v>
+      </c>
+      <c r="B184" s="2">
+        <v>90</v>
+      </c>
+      <c r="C184">
+        <v>0.102320849276407</v>
+      </c>
+      <c r="D184">
+        <v>0.389469690495584</v>
+      </c>
+      <c r="E184" s="2">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0.85506000000000004</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184" s="2">
+        <v>35.916409999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>0.1</v>
+      </c>
+      <c r="B185" s="2">
+        <v>100</v>
+      </c>
+      <c r="C185">
+        <v>9.2469136507089406E-2</v>
+      </c>
+      <c r="D185">
+        <v>0.35225086366929698</v>
+      </c>
+      <c r="E185" s="2">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0.85285999999999995</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185" s="2">
+        <v>36.125169999999997</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>0.5</v>
+      </c>
+      <c r="B186" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C186">
+        <v>1.00037229859953</v>
+      </c>
+      <c r="D186">
+        <v>1.00037229859953</v>
+      </c>
+      <c r="E186" s="2">
+        <v>0.99983</v>
+      </c>
+      <c r="F186">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="G186">
+        <v>0.999</v>
+      </c>
+      <c r="H186" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>0.5</v>
+      </c>
+      <c r="B187" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="C187">
+        <v>1.0020577324872699</v>
+      </c>
+      <c r="D187">
+        <v>1.0020940788178301</v>
+      </c>
+      <c r="E187" s="2">
+        <v>0.99968000000000001</v>
+      </c>
+      <c r="F187">
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="G187">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="H187" s="2">
+        <v>2.1199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>0.5</v>
+      </c>
+      <c r="B188" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C188">
+        <v>1.0024703990091901</v>
+      </c>
+      <c r="D188">
+        <v>1.00250322904216</v>
+      </c>
+      <c r="E188" s="2">
+        <v>0.99951999999999996</v>
+      </c>
+      <c r="F188">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="G188">
+        <v>0.99692999999999998</v>
+      </c>
+      <c r="H188" s="2">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>0.5</v>
+      </c>
+      <c r="B189" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C189">
+        <v>1.0023882234185399</v>
+      </c>
+      <c r="D189">
+        <v>1.0024168190401701</v>
+      </c>
+      <c r="E189" s="2">
+        <v>0.99924000000000002</v>
+      </c>
+      <c r="F189">
+        <v>7.6000000000000004E-4</v>
+      </c>
+      <c r="G189">
+        <v>0.99624999999999997</v>
+      </c>
+      <c r="H189" s="2">
+        <v>3.7799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>0.5</v>
+      </c>
+      <c r="B190" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C190">
+        <v>1.0019293479889699</v>
+      </c>
+      <c r="D190">
+        <v>1.0019310473488801</v>
+      </c>
+      <c r="E190" s="2">
+        <v>0.99934999999999996</v>
+      </c>
+      <c r="F190">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="G190">
+        <v>0.99517999999999995</v>
+      </c>
+      <c r="H190" s="2">
+        <v>4.8399999999999997E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>0.5</v>
+      </c>
+      <c r="B191" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C191">
+        <v>1.0044556528764299</v>
+      </c>
+      <c r="D191">
+        <v>1.0046088803072</v>
+      </c>
+      <c r="E191" s="2">
+        <v>0.99897000000000002</v>
+      </c>
+      <c r="F191">
+        <v>1.0300000000000001E-3</v>
+      </c>
+      <c r="G191">
+        <v>0.99399000000000004</v>
+      </c>
+      <c r="H191" s="2">
+        <v>6.0800000000000003E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>0.5</v>
+      </c>
+      <c r="B192" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C192">
+        <v>1.00389796093564</v>
+      </c>
+      <c r="D192">
+        <v>1.00393506240174</v>
+      </c>
+      <c r="E192" s="2">
+        <v>0.99875000000000003</v>
+      </c>
+      <c r="F192">
+        <v>1.25E-3</v>
+      </c>
+      <c r="G192">
+        <v>0.99273999999999996</v>
+      </c>
+      <c r="H192" s="2">
+        <v>7.3499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>0.5</v>
+      </c>
+      <c r="B193" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C193">
+        <v>1.0058524352570899</v>
+      </c>
+      <c r="D193">
+        <v>1.0058840987692299</v>
+      </c>
+      <c r="E193" s="2">
+        <v>0.99880999999999998</v>
+      </c>
+      <c r="F193">
+        <v>1.1900000000000001E-3</v>
+      </c>
+      <c r="G193">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="H193" s="2">
+        <v>7.9100000000000004E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>0.5</v>
+      </c>
+      <c r="B194" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C194">
+        <v>1.0077123490500599</v>
+      </c>
+      <c r="D194">
+        <v>1.00798719030879</v>
+      </c>
+      <c r="E194" s="2">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="F194">
+        <v>1.4E-3</v>
+      </c>
+      <c r="G194">
+        <v>0.99145000000000005</v>
+      </c>
+      <c r="H194" s="2">
+        <v>8.7899999999999992E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>0.5</v>
+      </c>
+      <c r="B195" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C195">
+        <v>1.0099176380572701</v>
+      </c>
+      <c r="D195">
+        <v>1.01019464225234</v>
+      </c>
+      <c r="E195" s="2">
+        <v>0.99814999999999998</v>
+      </c>
+      <c r="F195">
+        <v>1.8500000000000001E-3</v>
+      </c>
+      <c r="G195">
+        <v>0.99033000000000004</v>
+      </c>
+      <c r="H195" s="2">
+        <v>9.8899999999999995E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>0.5</v>
+      </c>
+      <c r="B196" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C196">
+        <v>1.01616312096385</v>
+      </c>
+      <c r="D196">
+        <v>1.0165007125922101</v>
+      </c>
+      <c r="E196" s="2">
+        <v>0.99653999999999998</v>
+      </c>
+      <c r="F196">
+        <v>3.46E-3</v>
+      </c>
+      <c r="G196">
+        <v>0.97979000000000005</v>
+      </c>
+      <c r="H196" s="2">
+        <v>2.0879999999999999E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>0.5</v>
+      </c>
+      <c r="B197" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C197">
+        <v>1.0239650474906901</v>
+      </c>
+      <c r="D197">
+        <v>1.0246596391615299</v>
+      </c>
+      <c r="E197" s="2">
+        <v>0.99465999999999999</v>
+      </c>
+      <c r="F197">
+        <v>5.3400000000000001E-3</v>
+      </c>
+      <c r="G197">
+        <v>0.97043000000000001</v>
+      </c>
+      <c r="H197" s="2">
+        <v>3.116E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>0.5</v>
+      </c>
+      <c r="B198" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="C198">
+        <v>1.02567588484786</v>
+      </c>
+      <c r="D198">
+        <v>1.0263984021192001</v>
+      </c>
+      <c r="E198" s="2">
+        <v>0.99324999999999997</v>
+      </c>
+      <c r="F198">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="G198">
+        <v>0.96065999999999996</v>
+      </c>
+      <c r="H198" s="2">
+        <v>4.1779999999999998E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>0.5</v>
+      </c>
+      <c r="B199" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C199">
+        <v>1.0290525264670201</v>
+      </c>
+      <c r="D199">
+        <v>1.02993378208228</v>
+      </c>
+      <c r="E199" s="2">
+        <v>0.99121999999999999</v>
+      </c>
+      <c r="F199">
+        <v>8.7799999999999996E-3</v>
+      </c>
+      <c r="G199">
+        <v>0.95033000000000001</v>
+      </c>
+      <c r="H199" s="2">
+        <v>5.3359999999999998E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>0.5</v>
+      </c>
+      <c r="B200" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C200">
+        <v>1.0326008049823601</v>
+      </c>
+      <c r="D200">
+        <v>1.0336525329783799</v>
+      </c>
+      <c r="E200" s="2">
+        <v>0.98968</v>
+      </c>
+      <c r="F200">
+        <v>1.0319999999999999E-2</v>
+      </c>
+      <c r="G200">
+        <v>0.94257999999999997</v>
+      </c>
+      <c r="H200" s="2">
+        <v>6.216E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>0.5</v>
+      </c>
+      <c r="B201" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C201">
+        <v>1.03966857051685</v>
+      </c>
+      <c r="D201">
+        <v>1.0411996652439599</v>
+      </c>
+      <c r="E201" s="2">
+        <v>0.98738999999999999</v>
+      </c>
+      <c r="F201">
+        <v>1.261E-2</v>
+      </c>
+      <c r="G201">
+        <v>0.93164000000000002</v>
+      </c>
+      <c r="H201" s="2">
+        <v>7.5160000000000005E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>0.5</v>
+      </c>
+      <c r="B202" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C202">
+        <v>1.0429341886630901</v>
+      </c>
+      <c r="D202">
+        <v>1.0446076598260099</v>
+      </c>
+      <c r="E202" s="2">
+        <v>0.98612999999999995</v>
+      </c>
+      <c r="F202">
+        <v>1.387E-2</v>
+      </c>
+      <c r="G202">
+        <v>0.92283000000000004</v>
+      </c>
+      <c r="H202" s="2">
+        <v>8.5819999999999994E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>0.5</v>
+      </c>
+      <c r="B203" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="C203">
+        <v>1.0494548494733</v>
+      </c>
+      <c r="D203">
+        <v>1.05154597747246</v>
+      </c>
+      <c r="E203" s="2">
+        <v>0.98397000000000001</v>
+      </c>
+      <c r="F203">
+        <v>1.6029999999999999E-2</v>
+      </c>
+      <c r="G203">
+        <v>0.91366999999999998</v>
+      </c>
+      <c r="H203" s="2">
+        <v>9.7540000000000002E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>0.5</v>
+      </c>
+      <c r="B204" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C204">
+        <v>1.05503815598829</v>
+      </c>
+      <c r="D204">
+        <v>1.0575831264621101</v>
+      </c>
+      <c r="E204" s="2">
+        <v>0.98238000000000003</v>
+      </c>
+      <c r="F204">
+        <v>1.762E-2</v>
+      </c>
+      <c r="G204">
+        <v>0.90588999999999997</v>
+      </c>
+      <c r="H204" s="2">
+        <v>0.10785</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>0.5</v>
+      </c>
+      <c r="B205" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C205">
+        <v>1.09700631367297</v>
+      </c>
+      <c r="D205">
+        <v>1.10381704283316</v>
+      </c>
+      <c r="E205" s="2">
+        <v>0.96375</v>
+      </c>
+      <c r="F205">
+        <v>3.6249999999999998E-2</v>
+      </c>
+      <c r="G205">
+        <v>0.81757999999999997</v>
+      </c>
+      <c r="H205" s="2">
+        <v>0.23105000000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>0.5</v>
+      </c>
+      <c r="B206" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C206">
+        <v>1.1344402829648501</v>
+      </c>
+      <c r="D206">
+        <v>1.1463130165369799</v>
+      </c>
+      <c r="E206" s="2">
+        <v>0.94688000000000005</v>
+      </c>
+      <c r="F206">
+        <v>5.3120000000000001E-2</v>
+      </c>
+      <c r="G206">
+        <v>0.74031000000000002</v>
+      </c>
+      <c r="H206" s="2">
+        <v>0.36141000000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>0.5</v>
+      </c>
+      <c r="B207" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C207">
+        <v>1.1637992895068101</v>
+      </c>
+      <c r="D207">
+        <v>1.1818377429425899</v>
+      </c>
+      <c r="E207" s="2">
+        <v>0.92783000000000004</v>
+      </c>
+      <c r="F207">
+        <v>7.2169999999999998E-2</v>
+      </c>
+      <c r="G207">
+        <v>0.67098000000000002</v>
+      </c>
+      <c r="H207" s="2">
+        <v>0.49814999999999998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>0.5</v>
+      </c>
+      <c r="B208" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C208">
+        <v>1.1984718290663601</v>
+      </c>
+      <c r="D208">
+        <v>1.22395374636124</v>
+      </c>
+      <c r="E208" s="2">
+        <v>0.91032000000000002</v>
+      </c>
+      <c r="F208">
+        <v>8.9679999999999996E-2</v>
+      </c>
+      <c r="G208">
+        <v>0.60812999999999995</v>
+      </c>
+      <c r="H208" s="2">
+        <v>0.64793000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>0.5</v>
+      </c>
+      <c r="B209" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C209">
+        <v>1.2274328832443</v>
+      </c>
+      <c r="D209">
+        <v>1.2608520279211699</v>
+      </c>
+      <c r="E209" s="2">
+        <v>0.89131000000000005</v>
+      </c>
+      <c r="F209">
+        <v>0.10868999999999999</v>
+      </c>
+      <c r="G209">
+        <v>0.54657</v>
+      </c>
+      <c r="H209" s="2">
+        <v>0.81237999999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>0.5</v>
+      </c>
+      <c r="B210" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C210">
+        <v>1.2538547004468199</v>
+      </c>
+      <c r="D210">
+        <v>1.2957760511402201</v>
+      </c>
+      <c r="E210" s="2">
+        <v>0.87392000000000003</v>
+      </c>
+      <c r="F210">
+        <v>0.12608</v>
+      </c>
+      <c r="G210">
+        <v>0.49575999999999998</v>
+      </c>
+      <c r="H210" s="2">
+        <v>0.97304000000000002</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>0.5</v>
+      </c>
+      <c r="B211" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C211">
+        <v>1.27457411451898</v>
+      </c>
+      <c r="D211">
+        <v>1.32484859868225</v>
+      </c>
+      <c r="E211" s="2">
+        <v>0.85857000000000006</v>
+      </c>
+      <c r="F211">
+        <v>0.14143</v>
+      </c>
+      <c r="G211">
+        <v>0.45002999999999999</v>
+      </c>
+      <c r="H211" s="2">
+        <v>1.1377699999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>0.5</v>
+      </c>
+      <c r="B212" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C212">
+        <v>1.2935175702039401</v>
+      </c>
+      <c r="D212">
+        <v>1.3537514122773999</v>
+      </c>
+      <c r="E212" s="2">
+        <v>0.83953</v>
+      </c>
+      <c r="F212">
+        <v>0.16047</v>
+      </c>
+      <c r="G212">
+        <v>0.40698000000000001</v>
+      </c>
+      <c r="H212" s="2">
+        <v>1.31559</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>0.5</v>
+      </c>
+      <c r="B213" s="2">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>1.31853524210562</v>
+      </c>
+      <c r="D213">
+        <v>1.3889732399958299</v>
+      </c>
+      <c r="E213" s="2">
+        <v>0.82398000000000005</v>
+      </c>
+      <c r="F213">
+        <v>0.17602000000000001</v>
+      </c>
+      <c r="G213">
+        <v>0.36585000000000001</v>
+      </c>
+      <c r="H213" s="2">
+        <v>1.4961500000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>0.5</v>
+      </c>
+      <c r="B214" s="2">
+        <v>2</v>
+      </c>
+      <c r="C214">
+        <v>1.45343856427782</v>
+      </c>
+      <c r="D214">
+        <v>1.64950282525827</v>
+      </c>
+      <c r="E214" s="2">
+        <v>0.68325999999999998</v>
+      </c>
+      <c r="F214">
+        <v>0.31674000000000002</v>
+      </c>
+      <c r="G214">
+        <v>0.13436000000000001</v>
+      </c>
+      <c r="H214" s="2">
+        <v>3.5544500000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>0.5</v>
+      </c>
+      <c r="B215" s="2">
+        <v>3</v>
+      </c>
+      <c r="C215">
+        <v>1.4832091545942101</v>
+      </c>
+      <c r="D215">
+        <v>1.8207568030289401</v>
+      </c>
+      <c r="E215" s="2">
+        <v>0.57152999999999998</v>
+      </c>
+      <c r="F215">
+        <v>0.42847000000000002</v>
+      </c>
+      <c r="G215">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="H215" s="2">
+        <v>5.8450300000000004</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>0.5</v>
+      </c>
+      <c r="B216" s="2">
+        <v>4</v>
+      </c>
+      <c r="C216">
+        <v>1.4589343022455299</v>
+      </c>
+      <c r="D216">
+        <v>1.9463345241546499</v>
+      </c>
+      <c r="E216" s="2">
+        <v>0.49236000000000002</v>
+      </c>
+      <c r="F216">
+        <v>0.50763999999999998</v>
+      </c>
+      <c r="G216">
+        <v>1.866E-2</v>
+      </c>
+      <c r="H216" s="2">
+        <v>8.2628799999999991</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>0.5</v>
+      </c>
+      <c r="B217" s="2">
+        <v>5</v>
+      </c>
+      <c r="C217">
+        <v>1.4105648186886699</v>
+      </c>
+      <c r="D217">
+        <v>2.05445178497158</v>
+      </c>
+      <c r="E217" s="2">
+        <v>0.42964999999999998</v>
+      </c>
+      <c r="F217">
+        <v>0.57035000000000002</v>
+      </c>
+      <c r="G217">
+        <v>6.2700000000000004E-3</v>
+      </c>
+      <c r="H217" s="2">
+        <v>10.82953</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>0.5</v>
+      </c>
+      <c r="B218" s="2">
+        <v>6</v>
+      </c>
+      <c r="C218">
+        <v>1.33043531716986</v>
+      </c>
+      <c r="D218">
+        <v>2.1034835820823901</v>
+      </c>
+      <c r="E218" s="2">
+        <v>0.38150000000000001</v>
+      </c>
+      <c r="F218">
+        <v>0.61846999999999996</v>
+      </c>
+      <c r="G218">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="H218" s="2">
+        <v>13.22723</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>0.5</v>
+      </c>
+      <c r="B219" s="2">
+        <v>7</v>
+      </c>
+      <c r="C219">
+        <v>1.25534913793793</v>
+      </c>
+      <c r="D219">
+        <v>2.1667985746825802</v>
+      </c>
+      <c r="E219" s="2">
+        <v>0.34643000000000002</v>
+      </c>
+      <c r="F219">
+        <v>0.65339000000000003</v>
+      </c>
+      <c r="G219">
+        <v>1.0300000000000001E-3</v>
+      </c>
+      <c r="H219" s="2">
+        <v>15.850149999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>0.5</v>
+      </c>
+      <c r="B220" s="2">
+        <v>8</v>
+      </c>
+      <c r="C220">
+        <v>1.1742067050873599</v>
+      </c>
+      <c r="D220">
+        <v>2.1944808009018</v>
+      </c>
+      <c r="E220" s="2">
+        <v>0.31119000000000002</v>
+      </c>
+      <c r="F220">
+        <v>0.68842999999999999</v>
+      </c>
+      <c r="G220">
+        <v>3.5E-4</v>
+      </c>
+      <c r="H220" s="2">
+        <v>18.248460000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>0.5</v>
+      </c>
+      <c r="B221" s="2">
+        <v>9</v>
+      </c>
+      <c r="C221">
+        <v>1.1025625919247399</v>
+      </c>
+      <c r="D221">
+        <v>2.24736146873849</v>
+      </c>
+      <c r="E221" s="2">
+        <v>0.28442000000000001</v>
+      </c>
+      <c r="F221">
+        <v>0.71394999999999997</v>
+      </c>
+      <c r="G221">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="H221" s="2">
+        <v>20.945229999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>0.5</v>
+      </c>
+      <c r="B222" s="2">
+        <v>10</v>
+      </c>
+      <c r="C222">
+        <v>1.03204724056841</v>
+      </c>
+      <c r="D222">
+        <v>2.2639945424513299</v>
+      </c>
+      <c r="E222" s="2">
+        <v>0.26534999999999997</v>
+      </c>
+      <c r="F222">
+        <v>0.73072000000000004</v>
+      </c>
+      <c r="G222" s="1">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="H222" s="2">
+        <v>23.373480000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>0.5</v>
+      </c>
+      <c r="B223" s="2">
+        <v>20</v>
+      </c>
+      <c r="C223">
+        <v>0.57257825610811797</v>
+      </c>
+      <c r="D223">
+        <v>2.0059794528961001</v>
+      </c>
+      <c r="E223" s="2">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="F223">
+        <v>0.80215000000000003</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223" s="2">
+        <v>40.969740000000002</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>0.5</v>
+      </c>
+      <c r="B224" s="2">
+        <v>30</v>
+      </c>
+      <c r="C224">
+        <v>0.38403020390838799</v>
+      </c>
+      <c r="D224">
+        <v>1.5039580578813401</v>
+      </c>
+      <c r="E224" s="2">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="F224">
+        <v>0.80430999999999997</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224" s="2">
+        <v>45.97842</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>0.5</v>
+      </c>
+      <c r="B225" s="2">
+        <v>40</v>
+      </c>
+      <c r="C225">
+        <v>0.28745844309796298</v>
+      </c>
+      <c r="D225">
+        <v>1.1458136715902201</v>
+      </c>
+      <c r="E225" s="2">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="F225">
+        <v>0.80413000000000001</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225" s="2">
+        <v>46.729660000000003</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>0.5</v>
+      </c>
+      <c r="B226" s="2">
+        <v>50</v>
+      </c>
+      <c r="C226">
+        <v>0.23134042664774199</v>
+      </c>
+      <c r="D226">
+        <v>0.927372008113857</v>
+      </c>
+      <c r="E226" s="2">
+        <v>3.3E-4</v>
+      </c>
+      <c r="F226">
+        <v>0.80264000000000002</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226" s="2">
+        <v>47.213169999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>0.5</v>
+      </c>
+      <c r="B227" s="2">
+        <v>60</v>
+      </c>
+      <c r="C227">
+        <v>0.19304899074068399</v>
+      </c>
+      <c r="D227">
+        <v>0.77497247688912396</v>
+      </c>
+      <c r="E227" s="3">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="F227">
+        <v>0.80118999999999996</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227" s="2">
+        <v>47.338230000000003</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>0.5</v>
+      </c>
+      <c r="B228" s="2">
+        <v>70</v>
+      </c>
+      <c r="C228">
+        <v>0.16486946713143899</v>
+      </c>
+      <c r="D228">
+        <v>0.660373793141809</v>
+      </c>
+      <c r="E228" s="2">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>0.80318999999999996</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228" s="2">
+        <v>47.083590000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>0.5</v>
+      </c>
+      <c r="B229" s="2">
+        <v>80</v>
+      </c>
+      <c r="C229">
+        <v>0.14436350460123701</v>
+      </c>
+      <c r="D229">
+        <v>0.57948675998439902</v>
+      </c>
+      <c r="E229" s="2">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0.80196000000000001</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229" s="2">
+        <v>47.220579999999998</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>0.5</v>
+      </c>
+      <c r="B230" s="2">
+        <v>90</v>
+      </c>
+      <c r="C230">
+        <v>0.128410638852684</v>
+      </c>
+      <c r="D230">
+        <v>0.51198762998130398</v>
+      </c>
+      <c r="E230" s="2">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0.80461000000000005</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230" s="2">
+        <v>46.902320000000003</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>0.5</v>
+      </c>
+      <c r="B231" s="2">
+        <v>100</v>
+      </c>
+      <c r="C231">
+        <v>0.11533583904632901</v>
+      </c>
+      <c r="D231">
+        <v>0.46094891247520497</v>
+      </c>
+      <c r="E231" s="2">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0.80454999999999999</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231" s="2">
+        <v>46.938299999999998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>0.9</v>
+      </c>
+      <c r="B232" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C232">
+        <v>1.00013876246972</v>
+      </c>
+      <c r="D232">
+        <v>1.00013876246972</v>
+      </c>
+      <c r="E232" s="2">
+        <v>0.99999000000000005</v>
+      </c>
+      <c r="F232" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G232">
+        <v>0.99895999999999996</v>
+      </c>
+      <c r="H232" s="2">
+        <v>1.0399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>0.9</v>
+      </c>
+      <c r="B233" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="C233">
+        <v>1.0001672122145699</v>
+      </c>
+      <c r="D233">
+        <v>1.0001700103325299</v>
+      </c>
+      <c r="E233" s="2">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="F233" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G233">
+        <v>0.99807999999999997</v>
+      </c>
+      <c r="H233" s="2">
+        <v>1.9300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>0.9</v>
+      </c>
+      <c r="B234" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C234">
+        <v>1.0001674862730301</v>
+      </c>
+      <c r="D234">
+        <v>1.0001684793763399</v>
+      </c>
+      <c r="E234" s="2">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="F234" s="1">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="G234">
+        <v>0.99714999999999998</v>
+      </c>
+      <c r="H234" s="2">
+        <v>2.8700000000000002E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>0.9</v>
+      </c>
+      <c r="B235" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C235">
+        <v>1.0001522339621101</v>
+      </c>
+      <c r="D235">
+        <v>1.00015261010829</v>
+      </c>
+      <c r="E235" s="2">
+        <v>0.99990999999999997</v>
+      </c>
+      <c r="F235" s="1">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="G235">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="H235" s="2">
+        <v>3.7100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>0.9</v>
+      </c>
+      <c r="B236" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C236">
+        <v>1.00076976963688</v>
+      </c>
+      <c r="D236">
+        <v>1.00077608633489</v>
+      </c>
+      <c r="E236" s="2">
+        <v>0.99987999999999999</v>
+      </c>
+      <c r="F236">
+        <v>1.2E-4</v>
+      </c>
+      <c r="G236">
+        <v>0.99487000000000003</v>
+      </c>
+      <c r="H236" s="2">
+        <v>5.1500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>0.9</v>
+      </c>
+      <c r="B237" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C237">
+        <v>1.0003688855522299</v>
+      </c>
+      <c r="D237">
+        <v>1.0003693923475601</v>
+      </c>
+      <c r="E237" s="2">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F237">
+        <v>1E-4</v>
+      </c>
+      <c r="G237">
+        <v>0.99409999999999998</v>
+      </c>
+      <c r="H237" s="2">
+        <v>5.9100000000000003E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>0.9</v>
+      </c>
+      <c r="B238" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C238">
+        <v>1.0010090123120401</v>
+      </c>
+      <c r="D238">
+        <v>1.00103842025945</v>
+      </c>
+      <c r="E238" s="2">
+        <v>0.99987000000000004</v>
+      </c>
+      <c r="F238">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="G238">
+        <v>0.99299000000000004</v>
+      </c>
+      <c r="H238" s="2">
+        <v>7.0600000000000003E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>0.9</v>
+      </c>
+      <c r="B239" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C239">
+        <v>1.00046955738865</v>
+      </c>
+      <c r="D239">
+        <v>1.00047335650154</v>
+      </c>
+      <c r="E239" s="2">
+        <v>0.99983</v>
+      </c>
+      <c r="F239">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="G239">
+        <v>0.99197999999999997</v>
+      </c>
+      <c r="H239" s="2">
+        <v>8.0800000000000004E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>0.9</v>
+      </c>
+      <c r="B240" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C240">
+        <v>1.0009378814823899</v>
+      </c>
+      <c r="D240">
+        <v>1.0009397678466501</v>
+      </c>
+      <c r="E240" s="2">
+        <v>0.99987000000000004</v>
+      </c>
+      <c r="F240">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="G240">
+        <v>0.99085000000000001</v>
+      </c>
+      <c r="H240" s="2">
+        <v>9.2099999999999994E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>0.9</v>
+      </c>
+      <c r="B241" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C241">
+        <v>1.0026008536219599</v>
+      </c>
+      <c r="D241">
+        <v>1.00260516184361</v>
+      </c>
+      <c r="E241" s="2">
+        <v>0.99982000000000004</v>
+      </c>
+      <c r="F241">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="G241">
+        <v>0.99046999999999996</v>
+      </c>
+      <c r="H241" s="2">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>0.9</v>
+      </c>
+      <c r="B242" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C242">
+        <v>1.0015511140709501</v>
+      </c>
+      <c r="D242">
+        <v>1.00157422091224</v>
+      </c>
+      <c r="E242" s="2">
+        <v>0.99936000000000003</v>
+      </c>
+      <c r="F242">
+        <v>6.4000000000000005E-4</v>
+      </c>
+      <c r="G242">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="H242" s="2">
+        <v>2.034E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>0.9</v>
+      </c>
+      <c r="B243" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C243">
+        <v>1.0039358425727201</v>
+      </c>
+      <c r="D243">
+        <v>1.0040673104459299</v>
+      </c>
+      <c r="E243" s="2">
+        <v>0.99914000000000003</v>
+      </c>
+      <c r="F243">
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="G243">
+        <v>0.97084999999999999</v>
+      </c>
+      <c r="H243" s="2">
+        <v>2.9790000000000001E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>0.9</v>
+      </c>
+      <c r="B244" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="C244">
+        <v>1.00456858008099</v>
+      </c>
+      <c r="D244">
+        <v>1.00478856060723</v>
+      </c>
+      <c r="E244" s="2">
+        <v>0.99897000000000002</v>
+      </c>
+      <c r="F244">
+        <v>1.0300000000000001E-3</v>
+      </c>
+      <c r="G244">
+        <v>0.96030000000000004</v>
+      </c>
+      <c r="H244" s="2">
+        <v>4.0800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>0.9</v>
+      </c>
+      <c r="B245" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C245">
+        <v>1.00616496671457</v>
+      </c>
+      <c r="D245">
+        <v>1.0064672843367799</v>
+      </c>
+      <c r="E245" s="2">
+        <v>0.99895</v>
+      </c>
+      <c r="F245">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="G245">
+        <v>0.95269999999999999</v>
+      </c>
+      <c r="H245" s="2">
+        <v>4.8820000000000002E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>0.9</v>
+      </c>
+      <c r="B246" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C246">
+        <v>1.0072243257114299</v>
+      </c>
+      <c r="D246">
+        <v>1.0076036977663301</v>
+      </c>
+      <c r="E246" s="2">
+        <v>0.99843000000000004</v>
+      </c>
+      <c r="F246">
+        <v>1.57E-3</v>
+      </c>
+      <c r="G246">
+        <v>0.94123999999999997</v>
+      </c>
+      <c r="H246" s="2">
+        <v>6.114E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>0.9</v>
+      </c>
+      <c r="B247" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C247">
+        <v>1.0092145722146399</v>
+      </c>
+      <c r="D247">
+        <v>1.00965349661355</v>
+      </c>
+      <c r="E247" s="2">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="F247">
+        <v>1.9E-3</v>
+      </c>
+      <c r="G247">
+        <v>0.93283000000000005</v>
+      </c>
+      <c r="H247" s="2">
+        <v>7.0330000000000004E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>0.9</v>
+      </c>
+      <c r="B248" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C248">
+        <v>1.00979080122516</v>
+      </c>
+      <c r="D248">
+        <v>1.01038806826026</v>
+      </c>
+      <c r="E248" s="2">
+        <v>0.99804999999999999</v>
+      </c>
+      <c r="F248">
+        <v>1.9499999999999999E-3</v>
+      </c>
+      <c r="G248">
+        <v>0.92413000000000001</v>
+      </c>
+      <c r="H248" s="2">
+        <v>8.0310000000000006E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>0.9</v>
+      </c>
+      <c r="B249" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="C249">
+        <v>1.0107121503508101</v>
+      </c>
+      <c r="D249">
+        <v>1.0114158891531799</v>
+      </c>
+      <c r="E249" s="2">
+        <v>0.99799000000000004</v>
+      </c>
+      <c r="F249">
+        <v>2.0100000000000001E-3</v>
+      </c>
+      <c r="G249">
+        <v>0.91244000000000003</v>
+      </c>
+      <c r="H249" s="2">
+        <v>9.2730000000000007E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>0.9</v>
+      </c>
+      <c r="B250" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C250">
+        <v>1.0124728590022201</v>
+      </c>
+      <c r="D250">
+        <v>1.0132123037609799</v>
+      </c>
+      <c r="E250" s="2">
+        <v>0.99773999999999996</v>
+      </c>
+      <c r="F250">
+        <v>2.2599999999999999E-3</v>
+      </c>
+      <c r="G250">
+        <v>0.90483999999999998</v>
+      </c>
+      <c r="H250" s="2">
+        <v>0.10156999999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>0.9</v>
+      </c>
+      <c r="B251" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C251">
+        <v>1.0200428629410301</v>
+      </c>
+      <c r="D251">
+        <v>1.0220567995379899</v>
+      </c>
+      <c r="E251" s="2">
+        <v>0.99514999999999998</v>
+      </c>
+      <c r="F251">
+        <v>4.8500000000000001E-3</v>
+      </c>
+      <c r="G251">
+        <v>0.81911</v>
+      </c>
+      <c r="H251" s="2">
+        <v>0.20538000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>0.9</v>
+      </c>
+      <c r="B252" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C252">
+        <v>1.0290867269106101</v>
+      </c>
+      <c r="D252">
+        <v>1.0331530948305301</v>
+      </c>
+      <c r="E252" s="2">
+        <v>0.99304999999999999</v>
+      </c>
+      <c r="F252">
+        <v>6.9499999999999996E-3</v>
+      </c>
+      <c r="G252">
+        <v>0.74302999999999997</v>
+      </c>
+      <c r="H252" s="2">
+        <v>0.31058999999999998</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>0.9</v>
+      </c>
+      <c r="B253" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C253">
+        <v>1.0394279097638099</v>
+      </c>
+      <c r="D253">
+        <v>1.0460764168924599</v>
+      </c>
+      <c r="E253" s="2">
+        <v>0.99082000000000003</v>
+      </c>
+      <c r="F253">
+        <v>9.1800000000000007E-3</v>
+      </c>
+      <c r="G253">
+        <v>0.67242000000000002</v>
+      </c>
+      <c r="H253" s="2">
+        <v>0.41922999999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>0.9</v>
+      </c>
+      <c r="B254" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C254">
+        <v>1.04632491128017</v>
+      </c>
+      <c r="D254">
+        <v>1.05573206136672</v>
+      </c>
+      <c r="E254" s="2">
+        <v>0.98738000000000004</v>
+      </c>
+      <c r="F254">
+        <v>1.2619999999999999E-2</v>
+      </c>
+      <c r="G254">
+        <v>0.60484000000000004</v>
+      </c>
+      <c r="H254" s="2">
+        <v>0.53617999999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>0.9</v>
+      </c>
+      <c r="B255" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C255">
+        <v>1.05207556699384</v>
+      </c>
+      <c r="D255">
+        <v>1.0648031168302501</v>
+      </c>
+      <c r="E255" s="2">
+        <v>0.98514000000000002</v>
+      </c>
+      <c r="F255">
+        <v>1.486E-2</v>
+      </c>
+      <c r="G255">
+        <v>0.54810000000000003</v>
+      </c>
+      <c r="H255" s="2">
+        <v>0.64873999999999998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>0.9</v>
+      </c>
+      <c r="B256" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C256">
+        <v>1.0596405385739001</v>
+      </c>
+      <c r="D256">
+        <v>1.0767284501242</v>
+      </c>
+      <c r="E256" s="2">
+        <v>0.98216999999999999</v>
+      </c>
+      <c r="F256">
+        <v>1.7829999999999999E-2</v>
+      </c>
+      <c r="G256">
+        <v>0.49648999999999999</v>
+      </c>
+      <c r="H256" s="2">
+        <v>0.7651</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>0.9</v>
+      </c>
+      <c r="B257" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C257">
+        <v>1.0672160717148</v>
+      </c>
+      <c r="D257">
+        <v>1.0876927812125301</v>
+      </c>
+      <c r="E257" s="2">
+        <v>0.97955999999999999</v>
+      </c>
+      <c r="F257">
+        <v>2.044E-2</v>
+      </c>
+      <c r="G257">
+        <v>0.44856000000000001</v>
+      </c>
+      <c r="H257" s="2">
+        <v>0.88285999999999998</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>0.9</v>
+      </c>
+      <c r="B258" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C258">
+        <v>1.0720576187355</v>
+      </c>
+      <c r="D258">
+        <v>1.09683504643677</v>
+      </c>
+      <c r="E258" s="2">
+        <v>0.97702</v>
+      </c>
+      <c r="F258">
+        <v>2.298E-2</v>
+      </c>
+      <c r="G258">
+        <v>0.40605999999999998</v>
+      </c>
+      <c r="H258" s="2">
+        <v>1.0008999999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>0.9</v>
+      </c>
+      <c r="B259" s="2">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>1.0829955116887</v>
+      </c>
+      <c r="D259">
+        <v>1.1139150993768301</v>
+      </c>
+      <c r="E259" s="2">
+        <v>0.97365999999999997</v>
+      </c>
+      <c r="F259">
+        <v>2.6339999999999999E-2</v>
+      </c>
+      <c r="G259">
+        <v>0.36828</v>
+      </c>
+      <c r="H259" s="2">
+        <v>1.13351</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>0.9</v>
+      </c>
+      <c r="B260" s="2">
+        <v>2</v>
+      </c>
+      <c r="C260">
+        <v>1.12583072602748</v>
+      </c>
+      <c r="D260">
+        <v>1.2142642975771201</v>
+      </c>
+      <c r="E260" s="2">
+        <v>0.94403999999999999</v>
+      </c>
+      <c r="F260">
+        <v>5.5960000000000003E-2</v>
+      </c>
+      <c r="G260">
+        <v>0.13722999999999999</v>
+      </c>
+      <c r="H260" s="2">
+        <v>2.46733</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>0.9</v>
+      </c>
+      <c r="B261" s="2">
+        <v>3</v>
+      </c>
+      <c r="C261">
+        <v>1.1523874149067901</v>
+      </c>
+      <c r="D261">
+        <v>1.31378051716343</v>
+      </c>
+      <c r="E261" s="2">
+        <v>0.91183999999999998</v>
+      </c>
+      <c r="F261">
+        <v>8.8160000000000002E-2</v>
+      </c>
+      <c r="G261">
+        <v>4.854E-2</v>
+      </c>
+      <c r="H261" s="2">
+        <v>4.0213799999999997</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>0.9</v>
+      </c>
+      <c r="B262" s="2">
+        <v>4</v>
+      </c>
+      <c r="C262">
+        <v>1.1672872816167399</v>
+      </c>
+      <c r="D262">
+        <v>1.4119666675498701</v>
+      </c>
+      <c r="E262" s="2">
+        <v>0.87833000000000006</v>
+      </c>
+      <c r="F262">
+        <v>0.12167</v>
+      </c>
+      <c r="G262">
+        <v>1.9019999999999999E-2</v>
+      </c>
+      <c r="H262" s="2">
+        <v>5.7425199999999998</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>0.9</v>
+      </c>
+      <c r="B263" s="2">
+        <v>5</v>
+      </c>
+      <c r="C263">
+        <v>1.1700806449402399</v>
+      </c>
+      <c r="D263">
+        <v>1.5024324120075301</v>
+      </c>
+      <c r="E263" s="2">
+        <v>0.84416999999999998</v>
+      </c>
+      <c r="F263">
+        <v>0.15583</v>
+      </c>
+      <c r="G263">
+        <v>7.3800000000000003E-3</v>
+      </c>
+      <c r="H263" s="2">
+        <v>7.6555099999999996</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>0.9</v>
+      </c>
+      <c r="B264" s="2">
+        <v>6</v>
+      </c>
+      <c r="C264">
+        <v>1.1605942132079301</v>
+      </c>
+      <c r="D264">
+        <v>1.57842543257667</v>
+      </c>
+      <c r="E264" s="2">
+        <v>0.81254000000000004</v>
+      </c>
+      <c r="F264">
+        <v>0.18745999999999999</v>
+      </c>
+      <c r="G264">
+        <v>2.4599999999999999E-3</v>
+      </c>
+      <c r="H264" s="2">
+        <v>9.64893</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>0.9</v>
+      </c>
+      <c r="B265" s="2">
+        <v>7</v>
+      </c>
+      <c r="C265">
+        <v>1.1449664002583699</v>
+      </c>
+      <c r="D265">
+        <v>1.6514916742252701</v>
+      </c>
+      <c r="E265" s="2">
+        <v>0.78161000000000003</v>
+      </c>
+      <c r="F265">
+        <v>0.21839</v>
+      </c>
+      <c r="G265">
+        <v>8.0999999999999996E-4</v>
+      </c>
+      <c r="H265" s="2">
+        <v>11.769159999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>0.9</v>
+      </c>
+      <c r="B266" s="2">
+        <v>8</v>
+      </c>
+      <c r="C266">
+        <v>1.1222277836057899</v>
+      </c>
+      <c r="D266">
+        <v>1.71765229855722</v>
+      </c>
+      <c r="E266" s="2">
+        <v>0.74805999999999995</v>
+      </c>
+      <c r="F266">
+        <v>0.25192999999999999</v>
+      </c>
+      <c r="G266">
+        <v>3.3E-4</v>
+      </c>
+      <c r="H266" s="2">
+        <v>14.03195</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>0.9</v>
+      </c>
+      <c r="B267" s="2">
+        <v>9</v>
+      </c>
+      <c r="C267">
+        <v>1.1021012837773601</v>
+      </c>
+      <c r="D267">
+        <v>1.78691256504274</v>
+      </c>
+      <c r="E267" s="2">
+        <v>0.72075</v>
+      </c>
+      <c r="F267">
+        <v>0.27922000000000002</v>
+      </c>
+      <c r="G267">
+        <v>2.1000000000000001E-4</v>
+      </c>
+      <c r="H267" s="2">
+        <v>16.357220000000002</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>0.9</v>
+      </c>
+      <c r="B268" s="2">
+        <v>10</v>
+      </c>
+      <c r="C268">
+        <v>1.0730316958250901</v>
+      </c>
+      <c r="D268">
+        <v>1.83533271330491</v>
+      </c>
+      <c r="E268" s="2">
+        <v>0.69254000000000004</v>
+      </c>
+      <c r="F268">
+        <v>0.30731000000000003</v>
+      </c>
+      <c r="G268" s="1">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="H268" s="2">
+        <v>18.66433</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>0.9</v>
+      </c>
+      <c r="B269" s="2">
+        <v>20</v>
+      </c>
+      <c r="C269">
+        <v>0.76703994155515498</v>
+      </c>
+      <c r="D269">
+        <v>2.1159446689791599</v>
+      </c>
+      <c r="E269" s="2">
+        <v>0.48810999999999999</v>
+      </c>
+      <c r="F269">
+        <v>0.49237999999999998</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269" s="2">
+        <v>42.81523</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>0.9</v>
+      </c>
+      <c r="B270" s="2">
+        <v>30</v>
+      </c>
+      <c r="C270">
+        <v>0.55498765485650803</v>
+      </c>
+      <c r="D270">
+        <v>2.07240696679693</v>
+      </c>
+      <c r="E270" s="2">
+        <v>0.33079999999999998</v>
+      </c>
+      <c r="F270">
+        <v>0.56122000000000005</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270" s="2">
+        <v>62.723849999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>0.9</v>
+      </c>
+      <c r="B271" s="2">
+        <v>40</v>
+      </c>
+      <c r="C271">
+        <v>0.42385526343987101</v>
+      </c>
+      <c r="D271">
+        <v>1.87024154182222</v>
+      </c>
+      <c r="E271" s="2">
+        <v>0.20047000000000001</v>
+      </c>
+      <c r="F271">
+        <v>0.57713999999999999</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271" s="2">
+        <v>75.394080000000002</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>0.9</v>
+      </c>
+      <c r="B272" s="2">
+        <v>50</v>
+      </c>
+      <c r="C272">
+        <v>0.34099869029159202</v>
+      </c>
+      <c r="D272">
+        <v>1.6251407925505501</v>
+      </c>
+      <c r="E272" s="2">
+        <v>0.11185</v>
+      </c>
+      <c r="F272">
+        <v>0.57647999999999999</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272" s="2">
+        <v>81.876310000000004</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>0.9</v>
+      </c>
+      <c r="B273" s="2">
+        <v>60</v>
+      </c>
+      <c r="C273">
+        <v>0.28469759542920497</v>
+      </c>
+      <c r="D273">
+        <v>1.4052121981122101</v>
+      </c>
+      <c r="E273" s="2">
+        <v>5.4170000000000003E-2</v>
+      </c>
+      <c r="F273">
+        <v>0.57694000000000001</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273" s="2">
+        <v>84.918319999999994</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>0.9</v>
+      </c>
+      <c r="B274" s="2">
+        <v>70</v>
+      </c>
+      <c r="C274">
+        <v>0.24399101139642701</v>
+      </c>
+      <c r="D274">
+        <v>1.2224357993235899</v>
+      </c>
+      <c r="E274" s="2">
+        <v>2.2870000000000001E-2</v>
+      </c>
+      <c r="F274">
+        <v>0.57796999999999998</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274" s="2">
+        <v>86.119489999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>0.9</v>
+      </c>
+      <c r="B275" s="2">
+        <v>80</v>
+      </c>
+      <c r="C275">
+        <v>0.21346313112211701</v>
+      </c>
+      <c r="D275">
+        <v>1.07693159365733</v>
+      </c>
+      <c r="E275" s="2">
+        <v>7.6699999999999997E-3</v>
+      </c>
+      <c r="F275">
+        <v>0.57625999999999999</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="H275" s="2">
+        <v>86.726370000000003</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>0.9</v>
+      </c>
+      <c r="B276" s="2">
+        <v>90</v>
+      </c>
+      <c r="C276">
+        <v>0.18954912527430701</v>
+      </c>
+      <c r="D276">
+        <v>0.95672579538936198</v>
+      </c>
+      <c r="E276" s="2">
+        <v>2.7399999999999998E-3</v>
+      </c>
+      <c r="F276">
+        <v>0.57682999999999995</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276" s="2">
+        <v>86.745069999999998</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>0.9</v>
+      </c>
+      <c r="B277" s="2">
+        <v>100</v>
+      </c>
+      <c r="C277">
+        <v>0.170848379166535</v>
+      </c>
+      <c r="D277">
+        <v>0.86072589784055098</v>
+      </c>
+      <c r="E277" s="2">
+        <v>7.9000000000000001E-4</v>
+      </c>
+      <c r="F277">
+        <v>0.57738</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277" s="2">
+        <v>86.674750000000003</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>0.99</v>
+      </c>
+      <c r="B278" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C278">
+        <v>1.00000147469653</v>
+      </c>
+      <c r="D278">
+        <v>1.00000147469653</v>
+      </c>
+      <c r="E278" s="2">
+        <v>1</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>0.99904999999999999</v>
+      </c>
+      <c r="H278" s="2">
+        <v>9.5E-4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>0.99</v>
+      </c>
+      <c r="B279" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="C279">
+        <v>1.0000096944489201</v>
+      </c>
+      <c r="D279">
+        <v>1.0000096944489201</v>
+      </c>
+      <c r="E279" s="2">
+        <v>1</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0.998</v>
+      </c>
+      <c r="H279" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>0.99</v>
+      </c>
+      <c r="B280" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C280">
+        <v>1.0000119938369501</v>
+      </c>
+      <c r="D280">
+        <v>1.00001241347484</v>
+      </c>
+      <c r="E280" s="2">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0.997</v>
+      </c>
+      <c r="H280" s="2">
+        <v>3.0100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>0.99</v>
+      </c>
+      <c r="B281" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C281">
+        <v>1.0000355356431101</v>
+      </c>
+      <c r="D281">
+        <v>1.0000355356431101</v>
+      </c>
+      <c r="E281" s="2">
+        <v>1</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>0.99619000000000002</v>
+      </c>
+      <c r="H281" s="2">
+        <v>3.81E-3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>0.99</v>
+      </c>
+      <c r="B282" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C282">
+        <v>1.0000501285791199</v>
+      </c>
+      <c r="D282">
+        <v>1.0000503865749</v>
+      </c>
+      <c r="E282" s="2">
+        <v>1</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0.99511000000000005</v>
+      </c>
+      <c r="H282" s="2">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>0.99</v>
+      </c>
+      <c r="B283" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C283">
+        <v>1.0000262621978</v>
+      </c>
+      <c r="D283">
+        <v>1.00002725817758</v>
+      </c>
+      <c r="E283" s="2">
+        <v>0.99999000000000005</v>
+      </c>
+      <c r="F283" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G283">
+        <v>0.99390000000000001</v>
+      </c>
+      <c r="H283" s="2">
+        <v>6.13E-3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>0.99</v>
+      </c>
+      <c r="B284" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C284">
+        <v>1.0001441982841801</v>
+      </c>
+      <c r="D284">
+        <v>1.00014464123098</v>
+      </c>
+      <c r="E284" s="2">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="F284" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G284">
+        <v>0.99319000000000002</v>
+      </c>
+      <c r="H284" s="2">
+        <v>6.8199999999999997E-3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>0.99</v>
+      </c>
+      <c r="B285" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C285">
+        <v>1.00006102243662</v>
+      </c>
+      <c r="D285">
+        <v>1.0000615917084299</v>
+      </c>
+      <c r="E285" s="2">
+        <v>0.99999000000000005</v>
+      </c>
+      <c r="F285" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G285">
+        <v>0.99238000000000004</v>
+      </c>
+      <c r="H285" s="2">
+        <v>7.6400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>0.99</v>
+      </c>
+      <c r="B286" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C286">
+        <v>1.0000743677674</v>
+      </c>
+      <c r="D286">
+        <v>1.0000748669376001</v>
+      </c>
+      <c r="E286" s="2">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0.99053000000000002</v>
+      </c>
+      <c r="H286" s="2">
+        <v>9.4800000000000006E-3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>0.99</v>
+      </c>
+      <c r="B287" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C287">
+        <v>1.0000617156739999</v>
+      </c>
+      <c r="D287">
+        <v>1.0000651105859399</v>
+      </c>
+      <c r="E287" s="2">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="F287" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G287">
+        <v>0.99007999999999996</v>
+      </c>
+      <c r="H287" s="2">
+        <v>1.001E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>0.99</v>
+      </c>
+      <c r="B288" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C288">
+        <v>1.00007984301022</v>
+      </c>
+      <c r="D288">
+        <v>1.00008531874008</v>
+      </c>
+      <c r="E288" s="2">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="F288" s="1">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="G288">
+        <v>0.98077999999999999</v>
+      </c>
+      <c r="H288" s="2">
+        <v>1.9369999999999998E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>0.99</v>
+      </c>
+      <c r="B289" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C289">
+        <v>1.00130749446974</v>
+      </c>
+      <c r="D289">
+        <v>1.00145086703667</v>
+      </c>
+      <c r="E289" s="2">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="F289" s="1">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G289">
+        <v>0.96984999999999999</v>
+      </c>
+      <c r="H289" s="2">
+        <v>3.073E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>0.99</v>
+      </c>
+      <c r="B290" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="C290">
+        <v>1.0001436184759001</v>
+      </c>
+      <c r="D290">
+        <v>1.00016921645331</v>
+      </c>
+      <c r="E290" s="2">
+        <v>0.99987999999999999</v>
+      </c>
+      <c r="F290">
+        <v>1.2E-4</v>
+      </c>
+      <c r="G290">
+        <v>0.96026999999999996</v>
+      </c>
+      <c r="H290" s="2">
+        <v>4.045E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>0.99</v>
+      </c>
+      <c r="B291" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C291">
+        <v>1.0012045407855901</v>
+      </c>
+      <c r="D291">
+        <v>1.0013551837644801</v>
+      </c>
+      <c r="E291" s="2">
+        <v>0.99983</v>
+      </c>
+      <c r="F291">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="G291">
+        <v>0.95145999999999997</v>
+      </c>
+      <c r="H291" s="2">
+        <v>4.9910000000000003E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>0.99</v>
+      </c>
+      <c r="B292" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C292">
+        <v>1.0004297401887601</v>
+      </c>
+      <c r="D292">
+        <v>1.00049207316807</v>
+      </c>
+      <c r="E292" s="2">
+        <v>0.99988999999999995</v>
+      </c>
+      <c r="F292">
+        <v>1.1E-4</v>
+      </c>
+      <c r="G292">
+        <v>0.94152000000000002</v>
+      </c>
+      <c r="H292" s="2">
+        <v>6.019E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>0.99</v>
+      </c>
+      <c r="B293" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C293">
+        <v>1.00130202700937</v>
+      </c>
+      <c r="D293">
+        <v>1.0015004300455099</v>
+      </c>
+      <c r="E293" s="2">
+        <v>0.99980999999999998</v>
+      </c>
+      <c r="F293">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="G293">
+        <v>0.93254000000000004</v>
+      </c>
+      <c r="H293" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>0.99</v>
+      </c>
+      <c r="B294" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C294">
+        <v>1.00066196919041</v>
+      </c>
+      <c r="D294">
+        <v>1.0008016557044399</v>
+      </c>
+      <c r="E294" s="2">
+        <v>0.99980999999999998</v>
+      </c>
+      <c r="F294">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="G294">
+        <v>0.92474999999999996</v>
+      </c>
+      <c r="H294" s="2">
+        <v>7.8420000000000004E-2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>0.99</v>
+      </c>
+      <c r="B295" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="C295">
+        <v>1.0004999118763001</v>
+      </c>
+      <c r="D295">
+        <v>1.0006494760800799</v>
+      </c>
+      <c r="E295" s="2">
+        <v>0.99985000000000002</v>
+      </c>
+      <c r="F295">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="G295">
+        <v>0.91513</v>
+      </c>
+      <c r="H295" s="2">
+        <v>8.8929999999999995E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>0.99</v>
+      </c>
+      <c r="B296" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C296">
+        <v>1.00083671272549</v>
+      </c>
+      <c r="D296">
+        <v>1.0011210337949099</v>
+      </c>
+      <c r="E296" s="2">
+        <v>0.99975000000000003</v>
+      </c>
+      <c r="F296">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G296">
+        <v>0.90663000000000005</v>
+      </c>
+      <c r="H296" s="2">
+        <v>9.8089999999999997E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>0.99</v>
+      </c>
+      <c r="B297" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C297">
+        <v>1.0015813112280101</v>
+      </c>
+      <c r="D297">
+        <v>1.0024472936722399</v>
+      </c>
+      <c r="E297" s="2">
+        <v>0.99968000000000001</v>
+      </c>
+      <c r="F297">
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="G297">
+        <v>0.81655</v>
+      </c>
+      <c r="H297" s="2">
+        <v>0.20372000000000001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>0.99</v>
+      </c>
+      <c r="B298" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C298">
+        <v>1.0023837921827501</v>
+      </c>
+      <c r="D298">
+        <v>1.0043187324209399</v>
+      </c>
+      <c r="E298" s="2">
+        <v>0.99941999999999998</v>
+      </c>
+      <c r="F298">
+        <v>5.8E-4</v>
+      </c>
+      <c r="G298">
+        <v>0.74075999999999997</v>
+      </c>
+      <c r="H298" s="2">
+        <v>0.30112</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>0.99</v>
+      </c>
+      <c r="B299" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C299">
+        <v>1.0028990777736499</v>
+      </c>
+      <c r="D299">
+        <v>1.0059574509078599</v>
+      </c>
+      <c r="E299" s="2">
+        <v>0.99907000000000001</v>
+      </c>
+      <c r="F299">
+        <v>9.3000000000000005E-4</v>
+      </c>
+      <c r="G299">
+        <v>0.67208999999999997</v>
+      </c>
+      <c r="H299" s="2">
+        <v>0.39962999999999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>0.99</v>
+      </c>
+      <c r="B300" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C300">
+        <v>1.0019382082344499</v>
+      </c>
+      <c r="D300">
+        <v>1.00656085516978</v>
+      </c>
+      <c r="E300" s="2">
+        <v>0.99892999999999998</v>
+      </c>
+      <c r="F300">
+        <v>1.07E-3</v>
+      </c>
+      <c r="G300">
+        <v>0.60719999999999996</v>
+      </c>
+      <c r="H300" s="2">
+        <v>0.50361</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>0.99</v>
+      </c>
+      <c r="B301" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C301">
+        <v>1.00215652915952</v>
+      </c>
+      <c r="D301">
+        <v>1.00862578048873</v>
+      </c>
+      <c r="E301" s="2">
+        <v>0.99870999999999999</v>
+      </c>
+      <c r="F301">
+        <v>1.2899999999999999E-3</v>
+      </c>
+      <c r="G301">
+        <v>0.55005999999999999</v>
+      </c>
+      <c r="H301" s="2">
+        <v>0.60426999999999997</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>0.99</v>
+      </c>
+      <c r="B302" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C302">
+        <v>1.00199790616999</v>
+      </c>
+      <c r="D302">
+        <v>1.0113339006092501</v>
+      </c>
+      <c r="E302" s="2">
+        <v>0.99851999999999996</v>
+      </c>
+      <c r="F302">
+        <v>1.48E-3</v>
+      </c>
+      <c r="G302">
+        <v>0.49676999999999999</v>
+      </c>
+      <c r="H302" s="2">
+        <v>0.71075999999999995</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>0.99</v>
+      </c>
+      <c r="B303" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C303">
+        <v>1.0007764186052801</v>
+      </c>
+      <c r="D303">
+        <v>1.0112044776795399</v>
+      </c>
+      <c r="E303" s="2">
+        <v>0.99843999999999999</v>
+      </c>
+      <c r="F303">
+        <v>1.56E-3</v>
+      </c>
+      <c r="G303">
+        <v>0.44767000000000001</v>
+      </c>
+      <c r="H303" s="2">
+        <v>0.81444000000000005</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>0.99</v>
+      </c>
+      <c r="B304" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C304">
+        <v>1.0004817333887801</v>
+      </c>
+      <c r="D304">
+        <v>1.0135906355995401</v>
+      </c>
+      <c r="E304" s="2">
+        <v>0.99787999999999999</v>
+      </c>
+      <c r="F304">
+        <v>2.1199999999999999E-3</v>
+      </c>
+      <c r="G304">
+        <v>0.40799000000000002</v>
+      </c>
+      <c r="H304" s="2">
+        <v>0.91191</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>0.99</v>
+      </c>
+      <c r="B305" s="2">
+        <v>1</v>
+      </c>
+      <c r="C305">
+        <v>0.99778509131482096</v>
+      </c>
+      <c r="D305">
+        <v>1.01220976291354</v>
+      </c>
+      <c r="E305" s="2">
+        <v>0.99785999999999997</v>
+      </c>
+      <c r="F305">
+        <v>2.14E-3</v>
+      </c>
+      <c r="G305">
+        <v>0.36767</v>
+      </c>
+      <c r="H305" s="2">
+        <v>1.0109999999999999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>0.99</v>
+      </c>
+      <c r="B306" s="2">
+        <v>2</v>
+      </c>
+      <c r="C306">
+        <v>0.98400038708345905</v>
+      </c>
+      <c r="D306">
+        <v>1.0275653457812699</v>
+      </c>
+      <c r="E306" s="2">
+        <v>0.99548000000000003</v>
+      </c>
+      <c r="F306">
+        <v>4.5199999999999997E-3</v>
+      </c>
+      <c r="G306">
+        <v>0.13558999999999999</v>
+      </c>
+      <c r="H306" s="2">
+        <v>2.0545</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>0.99</v>
+      </c>
+      <c r="B307" s="2">
+        <v>3</v>
+      </c>
+      <c r="C307">
+        <v>0.96329777012704898</v>
+      </c>
+      <c r="D307">
+        <v>1.0364330381876601</v>
+      </c>
+      <c r="E307" s="2">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="F307">
+        <v>6.3E-3</v>
+      </c>
+      <c r="G307">
+        <v>5.0540000000000002E-2</v>
+      </c>
+      <c r="H307" s="2">
+        <v>3.1148699999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>0.99</v>
+      </c>
+      <c r="B308" s="2">
+        <v>4</v>
+      </c>
+      <c r="C308">
+        <v>0.94417677137474598</v>
+      </c>
+      <c r="D308">
+        <v>1.05128475944158</v>
+      </c>
+      <c r="E308" s="2">
+        <v>0.99099000000000004</v>
+      </c>
+      <c r="F308">
+        <v>9.0100000000000006E-3</v>
+      </c>
+      <c r="G308">
+        <v>1.8960000000000001E-2</v>
+      </c>
+      <c r="H308" s="2">
+        <v>4.2130999999999998</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>0.99</v>
+      </c>
+      <c r="B309" s="2">
+        <v>5</v>
+      </c>
+      <c r="C309">
+        <v>0.92416196365231496</v>
+      </c>
+      <c r="D309">
+        <v>1.0620029163790099</v>
+      </c>
+      <c r="E309" s="2">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="F309">
+        <v>1.159E-2</v>
+      </c>
+      <c r="G309">
+        <v>6.6299999999999996E-3</v>
+      </c>
+      <c r="H309" s="2">
+        <v>5.3143200000000004</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>0.99</v>
+      </c>
+      <c r="B310" s="2">
+        <v>6</v>
+      </c>
+      <c r="C310">
+        <v>0.90402668990890001</v>
+      </c>
+      <c r="D310">
+        <v>1.0719644538478199</v>
+      </c>
+      <c r="E310" s="2">
+        <v>0.98604000000000003</v>
+      </c>
+      <c r="F310">
+        <v>1.396E-2</v>
+      </c>
+      <c r="G310">
+        <v>2.49E-3</v>
+      </c>
+      <c r="H310" s="2">
+        <v>6.4441499999999996</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>0.99</v>
+      </c>
+      <c r="B311" s="2">
+        <v>7</v>
+      </c>
+      <c r="C311">
+        <v>0.88518751616910796</v>
+      </c>
+      <c r="D311">
+        <v>1.0869765924841299</v>
+      </c>
+      <c r="E311" s="2">
+        <v>0.98358000000000001</v>
+      </c>
+      <c r="F311">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="G311">
+        <v>1.1100000000000001E-3</v>
+      </c>
+      <c r="H311" s="2">
+        <v>7.6349900000000002</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>0.99</v>
+      </c>
+      <c r="B312" s="2">
+        <v>8</v>
+      </c>
+      <c r="C312">
+        <v>0.86668444673105705</v>
+      </c>
+      <c r="D312">
+        <v>1.09614851510072</v>
+      </c>
+      <c r="E312" s="2">
+        <v>0.98170999999999997</v>
+      </c>
+      <c r="F312">
+        <v>1.8259999999999998E-2</v>
+      </c>
+      <c r="G312">
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="H312" s="2">
+        <v>8.7810699999999997</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>0.99</v>
+      </c>
+      <c r="B313" s="2">
+        <v>9</v>
+      </c>
+      <c r="C313">
+        <v>0.84757439862893202</v>
+      </c>
+      <c r="D313">
+        <v>1.1086396301738299</v>
+      </c>
+      <c r="E313" s="2">
+        <v>0.97948000000000002</v>
+      </c>
+      <c r="F313">
+        <v>2.0330000000000001E-2</v>
+      </c>
+      <c r="G313">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="H313" s="2">
+        <v>10.00497</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>0.99</v>
+      </c>
+      <c r="B314" s="2">
+        <v>10</v>
+      </c>
+      <c r="C314">
+        <v>0.829749509351416</v>
+      </c>
+      <c r="D314">
+        <v>1.11903893540344</v>
+      </c>
+      <c r="E314" s="2">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="F314">
+        <v>2.3359999999999999E-2</v>
+      </c>
+      <c r="G314" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="H314" s="2">
+        <v>11.214689999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>0.99</v>
+      </c>
+      <c r="B315" s="2">
+        <v>20</v>
+      </c>
+      <c r="C315">
+        <v>0.66899929354751597</v>
+      </c>
+      <c r="D315">
+        <v>1.2206717329216801</v>
+      </c>
+      <c r="E315" s="2">
+        <v>0.94596000000000002</v>
+      </c>
+      <c r="F315">
+        <v>4.9360000000000001E-2</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+      <c r="H315" s="2">
+        <v>24.46406</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>0.99</v>
+      </c>
+      <c r="B316" s="2">
+        <v>30</v>
+      </c>
+      <c r="C316">
+        <v>0.54356089014550102</v>
+      </c>
+      <c r="D316">
+        <v>1.3016089414806999</v>
+      </c>
+      <c r="E316" s="2">
+        <v>0.90683000000000002</v>
+      </c>
+      <c r="F316">
+        <v>7.392E-2</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316" s="2">
+        <v>39.119610000000002</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>0.99</v>
+      </c>
+      <c r="B317" s="2">
+        <v>40</v>
+      </c>
+      <c r="C317">
+        <v>0.447934174934149</v>
+      </c>
+      <c r="D317">
+        <v>1.35583508611938</v>
+      </c>
+      <c r="E317" s="2">
+        <v>0.8589</v>
+      </c>
+      <c r="F317">
+        <v>9.0370000000000006E-2</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317" s="2">
+        <v>54.380609999999997</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>0.99</v>
+      </c>
+      <c r="B318" s="2">
+        <v>50</v>
+      </c>
+      <c r="C318">
+        <v>0.37612223100901199</v>
+      </c>
+      <c r="D318">
+        <v>1.3834891343972699</v>
+      </c>
+      <c r="E318" s="2">
+        <v>0.80183000000000004</v>
+      </c>
+      <c r="F318">
+        <v>9.962E-2</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+      <c r="H318" s="2">
+        <v>69.284419999999997</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>0.99</v>
+      </c>
+      <c r="B319" s="2">
+        <v>60</v>
+      </c>
+      <c r="C319">
+        <v>0.32105279944972498</v>
+      </c>
+      <c r="D319">
+        <v>1.38584847483438</v>
+      </c>
+      <c r="E319" s="2">
+        <v>0.73975999999999997</v>
+      </c>
+      <c r="F319">
+        <v>0.10242999999999999</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+      <c r="H319" s="2">
+        <v>83.245090000000005</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>0.99</v>
+      </c>
+      <c r="B320" s="2">
+        <v>70</v>
+      </c>
+      <c r="C320">
+        <v>0.27876851435731798</v>
+      </c>
+      <c r="D320">
+        <v>1.36682741719518</v>
+      </c>
+      <c r="E320" s="2">
+        <v>0.66583999999999999</v>
+      </c>
+      <c r="F320">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+      <c r="H320" s="2">
+        <v>95.8035</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>0.99</v>
+      </c>
+      <c r="B321" s="2">
+        <v>80</v>
+      </c>
+      <c r="C321">
+        <v>0.24557591063714801</v>
+      </c>
+      <c r="D321">
+        <v>1.3296822930041901</v>
+      </c>
+      <c r="E321" s="2">
+        <v>0.58721999999999996</v>
+      </c>
+      <c r="F321">
+        <v>0.10588</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+      <c r="H321" s="2">
+        <v>106.42706</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>0.99</v>
+      </c>
+      <c r="B322" s="2">
+        <v>90</v>
+      </c>
+      <c r="C322">
+        <v>0.21891570514693001</v>
+      </c>
+      <c r="D322">
+        <v>1.2825389248792201</v>
+      </c>
+      <c r="E322" s="2">
+        <v>0.49342000000000003</v>
+      </c>
+      <c r="F322">
+        <v>0.10505</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+      <c r="H322" s="2">
+        <v>115.52421</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>0.99</v>
+      </c>
+      <c r="B323" s="2">
+        <v>100</v>
+      </c>
+      <c r="C323">
+        <v>0.197096996596655</v>
+      </c>
+      <c r="D323">
+        <v>1.2227831822877999</v>
+      </c>
+      <c r="E323" s="2">
+        <v>0.39439000000000002</v>
+      </c>
+      <c r="F323">
+        <v>0.10537000000000001</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+      <c r="H323" s="2">
+        <v>122.34820000000001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>1</v>
+      </c>
+      <c r="B324" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+      <c r="E324" s="2">
+        <v>1</v>
+      </c>
+      <c r="F324">
+        <v>0</v>
+      </c>
+      <c r="G324">
+        <v>0.99892999999999998</v>
+      </c>
+      <c r="H324" s="2">
+        <v>1.07E-3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>1</v>
+      </c>
+      <c r="B325" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+      <c r="E325" s="2">
+        <v>1</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+      <c r="G325">
+        <v>0.99824000000000002</v>
+      </c>
+      <c r="H325" s="2">
+        <v>1.7600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>1</v>
+      </c>
+      <c r="B326" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C326">
+        <v>0.99999939689945005</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+      <c r="E326" s="2">
+        <v>1</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+      <c r="G326">
+        <v>0.99663000000000002</v>
+      </c>
+      <c r="H326" s="2">
+        <v>3.3899999999999998E-3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>1</v>
+      </c>
+      <c r="B327" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C327">
+        <v>0.99999977918522798</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+      <c r="E327" s="2">
+        <v>1</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327">
+        <v>0.99592000000000003</v>
+      </c>
+      <c r="H327" s="2">
+        <v>4.0899999999999999E-3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>1</v>
+      </c>
+      <c r="B328" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C328">
+        <v>0.99999933900049498</v>
+      </c>
+      <c r="D328">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="E328" s="2">
+        <v>1</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+      <c r="G328">
+        <v>0.99505999999999994</v>
+      </c>
+      <c r="H328" s="2">
+        <v>4.96E-3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>1</v>
+      </c>
+      <c r="B329" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C329">
+        <v>0.99999958005378198</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+      <c r="E329" s="2">
+        <v>1</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+      <c r="G329">
+        <v>0.99387999999999999</v>
+      </c>
+      <c r="H329" s="2">
+        <v>6.13E-3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>1</v>
+      </c>
+      <c r="B330" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+      <c r="E330" s="2">
+        <v>1</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330">
+        <v>0.99253999999999998</v>
+      </c>
+      <c r="H330" s="2">
+        <v>7.4599999999999996E-3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>1</v>
+      </c>
+      <c r="B331" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C331">
+        <v>0.99999958208496098</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+      <c r="E331" s="2">
+        <v>1</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+      <c r="G331">
+        <v>0.99197999999999997</v>
+      </c>
+      <c r="H331" s="2">
+        <v>8.0300000000000007E-3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>1</v>
+      </c>
+      <c r="B332" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C332">
+        <v>0.99999958135049405</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+      <c r="E332" s="2">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>0.99063000000000001</v>
+      </c>
+      <c r="H332" s="2">
+        <v>9.3799999999999994E-3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>1</v>
+      </c>
+      <c r="B333" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C333">
+        <v>0.999998800024685</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+      <c r="E333" s="2">
+        <v>1</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333">
+        <v>0.99009000000000003</v>
+      </c>
+      <c r="H333" s="2">
+        <v>9.9500000000000005E-3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>1</v>
+      </c>
+      <c r="B334" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C334">
+        <v>0.99999289518283796</v>
+      </c>
+      <c r="D334">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="E334" s="2">
+        <v>1</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+      <c r="G334">
+        <v>0.98028999999999999</v>
+      </c>
+      <c r="H334" s="2">
+        <v>1.992E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>1</v>
+      </c>
+      <c r="B335" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C335">
+        <v>0.99998626217992703</v>
+      </c>
+      <c r="D335">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="E335" s="2">
+        <v>1</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+      <c r="G335">
+        <v>0.97094999999999998</v>
+      </c>
+      <c r="H335" s="2">
+        <v>2.947E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>1</v>
+      </c>
+      <c r="B336" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="C336">
+        <v>0.99997191465156099</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+      <c r="E336" s="2">
+        <v>1</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+      <c r="G336">
+        <v>0.96048</v>
+      </c>
+      <c r="H336" s="2">
+        <v>4.0329999999999998E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>1</v>
+      </c>
+      <c r="B337" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C337">
+        <v>0.99996542981029801</v>
+      </c>
+      <c r="D337">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="E337" s="2">
+        <v>1</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+      <c r="G337">
+        <v>0.95081000000000004</v>
+      </c>
+      <c r="H337" s="2">
+        <v>5.0229999999999997E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>1</v>
+      </c>
+      <c r="B338" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C338">
+        <v>0.99993749073601501</v>
+      </c>
+      <c r="D338">
+        <v>0.999999999999998</v>
+      </c>
+      <c r="E338" s="2">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>0.94062000000000001</v>
+      </c>
+      <c r="H338" s="2">
+        <v>6.1400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>1</v>
+      </c>
+      <c r="B339" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C339">
+        <v>0.99992115701666695</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+      <c r="E339" s="2">
+        <v>1</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+      <c r="G339">
+        <v>0.93215000000000003</v>
+      </c>
+      <c r="H339" s="2">
+        <v>7.0300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>1</v>
+      </c>
+      <c r="B340" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C340">
+        <v>0.99989845084233697</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+      <c r="E340" s="2">
+        <v>1</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+      <c r="G340">
+        <v>0.92449999999999999</v>
+      </c>
+      <c r="H340" s="2">
+        <v>7.8589999999999993E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>1</v>
+      </c>
+      <c r="B341" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="C341">
+        <v>0.99987292500750202</v>
+      </c>
+      <c r="D341">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="E341" s="2">
+        <v>1</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+      <c r="G341">
+        <v>0.91395999999999999</v>
+      </c>
+      <c r="H341" s="2">
+        <v>8.9910000000000004E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>1</v>
+      </c>
+      <c r="B342" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C342">
+        <v>0.99983891798511004</v>
+      </c>
+      <c r="D342">
+        <v>0.999999999999998</v>
+      </c>
+      <c r="E342" s="2">
+        <v>1</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+      <c r="G342">
+        <v>0.90468999999999999</v>
+      </c>
+      <c r="H342" s="2">
+        <v>0.10011</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>1</v>
+      </c>
+      <c r="B343" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C343">
+        <v>0.99938317607522498</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+      <c r="E343" s="2">
+        <v>1</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+      <c r="G343">
+        <v>0.81840000000000002</v>
+      </c>
+      <c r="H343" s="2">
+        <v>0.20016999999999999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>1</v>
+      </c>
+      <c r="B344" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C344">
+        <v>0.99865010778979402</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+      <c r="E344" s="2">
+        <v>1</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+      <c r="G344">
+        <v>0.74053999999999998</v>
+      </c>
+      <c r="H344" s="2">
+        <v>0.30066999999999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>1</v>
+      </c>
+      <c r="B345" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C345">
+        <v>0.99772878240142504</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+      <c r="E345" s="2">
+        <v>1</v>
+      </c>
+      <c r="F345">
+        <v>0</v>
+      </c>
+      <c r="G345">
+        <v>0.67003999999999997</v>
+      </c>
+      <c r="H345" s="2">
+        <v>0.39961999999999998</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>1</v>
+      </c>
+      <c r="B346" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C346">
+        <v>0.99653431330829001</v>
+      </c>
+      <c r="D346">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="E346" s="2">
+        <v>1</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+      <c r="G346">
+        <v>0.60450000000000004</v>
+      </c>
+      <c r="H346" s="2">
+        <v>0.50136999999999998</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>1</v>
+      </c>
+      <c r="B347" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C347">
+        <v>0.99513564867175197</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+      <c r="E347" s="2">
+        <v>1</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+      <c r="G347">
+        <v>0.5504</v>
+      </c>
+      <c r="H347" s="2">
+        <v>0.59936999999999996</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>1</v>
+      </c>
+      <c r="B348" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="C348">
+        <v>0.99366720016504395</v>
+      </c>
+      <c r="D348">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="E348" s="2">
+        <v>1</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+      <c r="G348">
+        <v>0.49442000000000003</v>
+      </c>
+      <c r="H348" s="2">
+        <v>0.70299</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>1</v>
+      </c>
+      <c r="B349" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C349">
+        <v>0.99190442863125095</v>
+      </c>
+      <c r="D349">
+        <v>0.999999999999995</v>
+      </c>
+      <c r="E349" s="2">
+        <v>1</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="G349">
+        <v>0.44735000000000003</v>
+      </c>
+      <c r="H349" s="2">
+        <v>0.80449000000000004</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>1</v>
+      </c>
+      <c r="B350" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C350">
+        <v>0.99033875744926003</v>
+      </c>
+      <c r="D350">
+        <v>0.99999999999998701</v>
+      </c>
+      <c r="E350" s="2">
+        <v>1</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350">
+        <v>0.40481</v>
+      </c>
+      <c r="H350" s="2">
+        <v>0.89912000000000003</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>1</v>
+      </c>
+      <c r="B351" s="2">
+        <v>1</v>
+      </c>
+      <c r="C351">
+        <v>0.98842170233644899</v>
+      </c>
+      <c r="D351">
+        <v>1.00000000000001</v>
+      </c>
+      <c r="E351" s="2">
+        <v>1</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+      <c r="G351">
+        <v>0.36492999999999998</v>
+      </c>
+      <c r="H351" s="2">
+        <v>1.0012099999999999</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>1</v>
+      </c>
+      <c r="B352" s="2">
+        <v>2</v>
+      </c>
+      <c r="C352">
+        <v>0.965600114293793</v>
+      </c>
+      <c r="D352">
+        <v>0.99999999999998701</v>
+      </c>
+      <c r="E352" s="2">
+        <v>1</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+      <c r="G352">
+        <v>0.13502</v>
+      </c>
+      <c r="H352" s="2">
+        <v>2.00827</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>1</v>
+      </c>
+      <c r="B353" s="2">
+        <v>3</v>
+      </c>
+      <c r="C353">
+        <v>0.94098613224036598</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+      <c r="E353" s="2">
+        <v>1</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353">
+        <v>4.9639999999999997E-2</v>
+      </c>
+      <c r="H353" s="2">
+        <v>3.0014500000000002</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>1</v>
+      </c>
+      <c r="B354" s="2">
+        <v>4</v>
+      </c>
+      <c r="C354">
+        <v>0.91661294437364305</v>
+      </c>
+      <c r="D354">
+        <v>1.00000000000002</v>
+      </c>
+      <c r="E354" s="2">
+        <v>1</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354">
+        <v>1.8440000000000002E-2</v>
+      </c>
+      <c r="H354" s="2">
+        <v>3.9932599999999998</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>1</v>
+      </c>
+      <c r="B355" s="2">
+        <v>5</v>
+      </c>
+      <c r="C355">
+        <v>0.89296798925950704</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+      <c r="E355" s="2">
+        <v>1</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355">
+        <v>6.5199999999999998E-3</v>
+      </c>
+      <c r="H355" s="2">
+        <v>4.9974699999999999</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>1</v>
+      </c>
+      <c r="B356" s="2">
+        <v>6</v>
+      </c>
+      <c r="C356">
+        <v>0.87072126030553998</v>
+      </c>
+      <c r="D356">
+        <v>0.999999999999994</v>
+      </c>
+      <c r="E356" s="2">
+        <v>1</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="H356" s="2">
+        <v>6.0023900000000001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>1</v>
+      </c>
+      <c r="B357" s="2">
+        <v>7</v>
+      </c>
+      <c r="C357">
+        <v>0.849368694292708</v>
+      </c>
+      <c r="D357">
+        <v>0.99999999999998002</v>
+      </c>
+      <c r="E357" s="2">
+        <v>1</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357">
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="H357" s="2">
+        <v>6.9981400000000002</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>1</v>
+      </c>
+      <c r="B358" s="2">
+        <v>8</v>
+      </c>
+      <c r="C358">
+        <v>0.82867097700472403</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+      <c r="E358" s="2">
+        <v>1</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+      <c r="G358">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="H358" s="2">
+        <v>8.0089799999999993</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>1</v>
+      </c>
+      <c r="B359" s="2">
+        <v>9</v>
+      </c>
+      <c r="C359">
+        <v>0.80916575036174898</v>
+      </c>
+      <c r="D359">
+        <v>1.00000000000004</v>
+      </c>
+      <c r="E359" s="2">
+        <v>1</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359" s="1">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="H359" s="2">
+        <v>9.0016200000000008</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>1</v>
+      </c>
+      <c r="B360" s="2">
+        <v>10</v>
+      </c>
+      <c r="C360">
+        <v>0.79031028647062895</v>
+      </c>
+      <c r="D360">
+        <v>0.99999999999990896</v>
+      </c>
+      <c r="E360" s="2">
+        <v>1</v>
+      </c>
+      <c r="F360">
+        <v>0</v>
+      </c>
+      <c r="G360" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="H360" s="2">
+        <v>10.002660000000001</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>1</v>
+      </c>
+      <c r="B361" s="2">
+        <v>20</v>
+      </c>
+      <c r="C361">
+        <v>0.63333003850109804</v>
+      </c>
+      <c r="D361">
+        <v>1.00000000000001</v>
+      </c>
+      <c r="E361" s="2">
+        <v>1</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
+      <c r="H361" s="2">
+        <v>19.99447</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>1</v>
+      </c>
+      <c r="B362" s="2">
+        <v>30</v>
+      </c>
+      <c r="C362">
+        <v>0.51863961864603303</v>
+      </c>
+      <c r="D362">
+        <v>1.00000000000001</v>
+      </c>
+      <c r="E362" s="2">
+        <v>1</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+      <c r="H362" s="2">
+        <v>29.965160000000001</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>1</v>
+      </c>
+      <c r="B363" s="2">
+        <v>40</v>
+      </c>
+      <c r="C363">
+        <v>0.43264146281870203</v>
+      </c>
+      <c r="D363">
+        <v>0.99999999999995304</v>
+      </c>
+      <c r="E363" s="2">
+        <v>1</v>
+      </c>
+      <c r="F363">
+        <v>0</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+      <c r="H363" s="2">
+        <v>39.983840000000001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>1</v>
+      </c>
+      <c r="B364" s="2">
+        <v>50</v>
+      </c>
+      <c r="C364">
+        <v>0.36715947850846598</v>
+      </c>
+      <c r="D364">
+        <v>0.99999999999996902</v>
+      </c>
+      <c r="E364" s="2">
+        <v>1</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+      <c r="H364" s="2">
+        <v>50.005020000000002</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>1</v>
+      </c>
+      <c r="B365" s="2">
+        <v>60</v>
+      </c>
+      <c r="C365">
+        <v>0.31684289018774597</v>
+      </c>
+      <c r="D365">
+        <v>0.99999999999989797</v>
+      </c>
+      <c r="E365" s="2">
+        <v>1</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+      <c r="G365">
+        <v>0</v>
+      </c>
+      <c r="H365" s="2">
+        <v>59.989220000000003</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>1</v>
+      </c>
+      <c r="B366" s="2">
+        <v>70</v>
+      </c>
+      <c r="C366">
+        <v>0.27710750893460601</v>
+      </c>
+      <c r="D366">
+        <v>0.99999999999995803</v>
+      </c>
+      <c r="E366" s="2">
+        <v>1</v>
+      </c>
+      <c r="F366">
+        <v>0</v>
+      </c>
+      <c r="G366">
+        <v>0</v>
+      </c>
+      <c r="H366" s="2">
+        <v>70.016260000000003</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>1</v>
+      </c>
+      <c r="B367" s="2">
+        <v>80</v>
+      </c>
+      <c r="C367">
+        <v>0.245312934526041</v>
+      </c>
+      <c r="D367">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="E367" s="2">
+        <v>1</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+      <c r="G367">
+        <v>0</v>
+      </c>
+      <c r="H367" s="2">
+        <v>80.009110000000007</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>1</v>
+      </c>
+      <c r="B368" s="2">
+        <v>90</v>
+      </c>
+      <c r="C368">
+        <v>0.219933856929063</v>
+      </c>
+      <c r="D368">
+        <v>0.99999985509122002</v>
+      </c>
+      <c r="E368" s="2">
+        <v>0.99999000000000005</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+      <c r="G368">
+        <v>0</v>
+      </c>
+      <c r="H368" s="2">
+        <v>90.003020000000006</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>1</v>
+      </c>
+      <c r="B369" s="2">
+        <v>100</v>
+      </c>
+      <c r="C369">
+        <v>0.198732153763365</v>
+      </c>
+      <c r="D369">
+        <v>0.99999528946502703</v>
+      </c>
+      <c r="E369" s="2">
+        <v>0.99975999999999998</v>
+      </c>
+      <c r="F369">
+        <v>0</v>
+      </c>
+      <c r="G369">
+        <v>0</v>
+      </c>
+      <c r="H369" s="2">
+        <v>99.968540000000004</v>
       </c>
     </row>
   </sheetData>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\99gro\Documents\GitHub\Study-of-Emulsion-scattering\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50A161F-E9D6-409C-BEF8-14FDCCA5F4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F37658A-D55B-40F8-9F47-E0B724E9672B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="itr=10,4" sheetId="1" r:id="rId1"/>
     <sheet name="itr=10,5" sheetId="2" r:id="rId2"/>
+    <sheet name="updated itr=10,4" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>g</t>
   </si>
@@ -9981,8 +9982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C38467-DCEB-423E-91D4-6C751CB06FC1}">
   <dimension ref="A1:H369"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19591,4 +19592,9613 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6332FE84-DA7D-49F3-833F-BDDF0880D398}">
+  <dimension ref="A1:H369"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>1E-3</v>
+      </c>
+      <c r="C2">
+        <v>0.99989992905756897</v>
+      </c>
+      <c r="D2">
+        <v>0.99989992905756897</v>
+      </c>
+      <c r="E2">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="F2">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G2">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="H2">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3">
+        <v>2E-3</v>
+      </c>
+      <c r="C3">
+        <v>1.0002793069890901</v>
+      </c>
+      <c r="D3">
+        <v>1.0002793069890901</v>
+      </c>
+      <c r="E3">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="F3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="G3">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="H3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="B4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C4">
+        <v>0.99979177011013598</v>
+      </c>
+      <c r="D4">
+        <v>0.99979177011013598</v>
+      </c>
+      <c r="E4">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="F4">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="G4">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="H4">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C5">
+        <v>1.00009702422416</v>
+      </c>
+      <c r="D5">
+        <v>1.00009702422416</v>
+      </c>
+      <c r="E5">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="F5">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="G5">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="H5">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-1</v>
+      </c>
+      <c r="B6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C6">
+        <v>1.0001243636155901</v>
+      </c>
+      <c r="D6">
+        <v>1.0001243636155901</v>
+      </c>
+      <c r="E6">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="F6">
+        <v>3.8E-3</v>
+      </c>
+      <c r="G6">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="H6">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-1</v>
+      </c>
+      <c r="B7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C7">
+        <v>1.0004607904096301</v>
+      </c>
+      <c r="D7">
+        <v>1.0004607904096301</v>
+      </c>
+      <c r="E7">
+        <v>0.99319999999999997</v>
+      </c>
+      <c r="F7">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="G7">
+        <v>0.99319999999999997</v>
+      </c>
+      <c r="H7">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-1</v>
+      </c>
+      <c r="B8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C8">
+        <v>0.99981771981481304</v>
+      </c>
+      <c r="D8">
+        <v>0.99981771981481304</v>
+      </c>
+      <c r="E8">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="F8">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="G8">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="H8">
+        <v>4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-1</v>
+      </c>
+      <c r="B9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C9">
+        <v>1.0002173044195799</v>
+      </c>
+      <c r="D9">
+        <v>1.0002173044195799</v>
+      </c>
+      <c r="E9">
+        <v>0.99150000000000005</v>
+      </c>
+      <c r="F9">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="G9">
+        <v>0.99150000000000005</v>
+      </c>
+      <c r="H9">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-1</v>
+      </c>
+      <c r="B10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C10">
+        <v>1.0008078276207</v>
+      </c>
+      <c r="D10">
+        <v>1.0008078276207</v>
+      </c>
+      <c r="E10">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="F10">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="G10">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="H10">
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+      <c r="B11">
+        <v>0.01</v>
+      </c>
+      <c r="C11">
+        <v>1.0008171808512101</v>
+      </c>
+      <c r="D11">
+        <v>1.0008171808512101</v>
+      </c>
+      <c r="E11">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="F11">
+        <v>1.06E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="H11">
+        <v>1.06E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-1</v>
+      </c>
+      <c r="B12">
+        <v>0.02</v>
+      </c>
+      <c r="C12">
+        <v>0.99951297513736403</v>
+      </c>
+      <c r="D12">
+        <v>0.99951297513736403</v>
+      </c>
+      <c r="E12">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="F12">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="H12">
+        <v>1.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-1</v>
+      </c>
+      <c r="B13">
+        <v>0.03</v>
+      </c>
+      <c r="C13">
+        <v>1.0002647963418101</v>
+      </c>
+      <c r="D13">
+        <v>1.00026774970684</v>
+      </c>
+      <c r="E13">
+        <v>0.96989999999999998</v>
+      </c>
+      <c r="F13">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="H13">
+        <v>3.0499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-1</v>
+      </c>
+      <c r="B14">
+        <v>0.04</v>
+      </c>
+      <c r="C14">
+        <v>0.99975526947398796</v>
+      </c>
+      <c r="D14">
+        <v>0.99979403598642802</v>
+      </c>
+      <c r="E14">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="F14">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.96220000000000006</v>
+      </c>
+      <c r="H14">
+        <v>3.85E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-1</v>
+      </c>
+      <c r="B15">
+        <v>0.05</v>
+      </c>
+      <c r="C15">
+        <v>1.0000126418559501</v>
+      </c>
+      <c r="D15">
+        <v>1.00006757247094</v>
+      </c>
+      <c r="E15">
+        <v>0.95089999999999997</v>
+      </c>
+      <c r="F15">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.95009999999999994</v>
+      </c>
+      <c r="H15">
+        <v>5.0900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-1</v>
+      </c>
+      <c r="B16">
+        <v>0.06</v>
+      </c>
+      <c r="C16">
+        <v>0.99992631223248796</v>
+      </c>
+      <c r="D16">
+        <v>1.0000254543659699</v>
+      </c>
+      <c r="E16">
+        <v>0.94069999999999998</v>
+      </c>
+      <c r="F16">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.93869999999999998</v>
+      </c>
+      <c r="H16">
+        <v>6.3299999999999995E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-1</v>
+      </c>
+      <c r="B17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C17">
+        <v>1.00074199182254</v>
+      </c>
+      <c r="D17">
+        <v>1.0008831651785399</v>
+      </c>
+      <c r="E17">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="F17">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.93179999999999996</v>
+      </c>
+      <c r="H17">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-1</v>
+      </c>
+      <c r="B18">
+        <v>0.08</v>
+      </c>
+      <c r="C18">
+        <v>0.99916172712159901</v>
+      </c>
+      <c r="D18">
+        <v>0.99929948449287198</v>
+      </c>
+      <c r="E18">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="F18">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.9234</v>
+      </c>
+      <c r="H18">
+        <v>7.9200000000000007E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-1</v>
+      </c>
+      <c r="B19">
+        <v>0.09</v>
+      </c>
+      <c r="C19">
+        <v>1.0013896284644399</v>
+      </c>
+      <c r="D19">
+        <v>1.00157020143704</v>
+      </c>
+      <c r="E19">
+        <v>0.91749999999999998</v>
+      </c>
+      <c r="F19">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G19">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="H19">
+        <v>8.9899999999999994E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-1</v>
+      </c>
+      <c r="B20">
+        <v>0.1</v>
+      </c>
+      <c r="C20">
+        <v>1.0016377473760101</v>
+      </c>
+      <c r="D20">
+        <v>1.00184431505252</v>
+      </c>
+      <c r="E20">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="F20">
+        <v>8.7800000000000003E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.90880000000000005</v>
+      </c>
+      <c r="H20">
+        <v>9.5200000000000007E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-1</v>
+      </c>
+      <c r="B21">
+        <v>0.2</v>
+      </c>
+      <c r="C21">
+        <v>0.99787648983375599</v>
+      </c>
+      <c r="D21">
+        <v>0.99869087815604096</v>
+      </c>
+      <c r="E21">
+        <v>0.84440000000000004</v>
+      </c>
+      <c r="F21">
+        <v>0.15559999999999999</v>
+      </c>
+      <c r="G21">
+        <v>0.83220000000000005</v>
+      </c>
+      <c r="H21">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-1</v>
+      </c>
+      <c r="B22">
+        <v>0.3</v>
+      </c>
+      <c r="C22">
+        <v>1.00350341006328</v>
+      </c>
+      <c r="D22">
+        <v>1.00577192268716</v>
+      </c>
+      <c r="E22">
+        <v>0.77259999999999995</v>
+      </c>
+      <c r="F22">
+        <v>0.22739999999999999</v>
+      </c>
+      <c r="G22">
+        <v>0.74350000000000005</v>
+      </c>
+      <c r="H22">
+        <v>0.2984</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-1</v>
+      </c>
+      <c r="B23">
+        <v>0.4</v>
+      </c>
+      <c r="C23">
+        <v>0.99842363232084796</v>
+      </c>
+      <c r="D23">
+        <v>1.00200258198611</v>
+      </c>
+      <c r="E23">
+        <v>0.71530000000000005</v>
+      </c>
+      <c r="F23">
+        <v>0.28470000000000001</v>
+      </c>
+      <c r="G23">
+        <v>0.6724</v>
+      </c>
+      <c r="H23">
+        <v>0.39789999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-1</v>
+      </c>
+      <c r="B24">
+        <v>0.5</v>
+      </c>
+      <c r="C24">
+        <v>0.99262324259663004</v>
+      </c>
+      <c r="D24">
+        <v>0.99779363118240605</v>
+      </c>
+      <c r="E24">
+        <v>0.66539999999999999</v>
+      </c>
+      <c r="F24">
+        <v>0.33460000000000001</v>
+      </c>
+      <c r="G24">
+        <v>0.60640000000000005</v>
+      </c>
+      <c r="H24">
+        <v>0.49580000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-1</v>
+      </c>
+      <c r="B25">
+        <v>0.6</v>
+      </c>
+      <c r="C25">
+        <v>0.997351251895229</v>
+      </c>
+      <c r="D25">
+        <v>1.0052162438852099</v>
+      </c>
+      <c r="E25">
+        <v>0.62829999999999997</v>
+      </c>
+      <c r="F25">
+        <v>0.37169999999999997</v>
+      </c>
+      <c r="G25">
+        <v>0.55179999999999996</v>
+      </c>
+      <c r="H25">
+        <v>0.59789999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-1</v>
+      </c>
+      <c r="B26">
+        <v>0.7</v>
+      </c>
+      <c r="C26">
+        <v>0.993248486148257</v>
+      </c>
+      <c r="D26">
+        <v>1.00383010807565</v>
+      </c>
+      <c r="E26">
+        <v>0.60140000000000005</v>
+      </c>
+      <c r="F26">
+        <v>0.39860000000000001</v>
+      </c>
+      <c r="G26">
+        <v>0.50429999999999997</v>
+      </c>
+      <c r="H26">
+        <v>0.70379999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-1</v>
+      </c>
+      <c r="B27">
+        <v>0.8</v>
+      </c>
+      <c r="C27">
+        <v>0.988548293024192</v>
+      </c>
+      <c r="D27">
+        <v>1.0012839578256201</v>
+      </c>
+      <c r="E27">
+        <v>0.56859999999999999</v>
+      </c>
+      <c r="F27">
+        <v>0.43140000000000001</v>
+      </c>
+      <c r="G27">
+        <v>0.4622</v>
+      </c>
+      <c r="H27">
+        <v>0.77900000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-1</v>
+      </c>
+      <c r="B28">
+        <v>0.9</v>
+      </c>
+      <c r="C28">
+        <v>0.98464910655475801</v>
+      </c>
+      <c r="D28">
+        <v>1.00113536504761</v>
+      </c>
+      <c r="E28">
+        <v>0.52270000000000005</v>
+      </c>
+      <c r="F28">
+        <v>0.4773</v>
+      </c>
+      <c r="G28">
+        <v>0.40350000000000003</v>
+      </c>
+      <c r="H28">
+        <v>0.90769999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-1</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0.97149096517292799</v>
+      </c>
+      <c r="D29">
+        <v>0.99067132706001604</v>
+      </c>
+      <c r="E29">
+        <v>0.49530000000000002</v>
+      </c>
+      <c r="F29">
+        <v>0.50470000000000004</v>
+      </c>
+      <c r="G29">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="H29">
+        <v>0.99870000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-1</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>0.94186607459494598</v>
+      </c>
+      <c r="D30">
+        <v>1.00501909722319</v>
+      </c>
+      <c r="E30">
+        <v>0.3453</v>
+      </c>
+      <c r="F30">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="G30">
+        <v>0.1406</v>
+      </c>
+      <c r="H30">
+        <v>2.0015000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>-1</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>0.88671514542260799</v>
+      </c>
+      <c r="D31">
+        <v>1.00692160099942</v>
+      </c>
+      <c r="E31">
+        <v>0.248</v>
+      </c>
+      <c r="F31">
+        <v>0.752</v>
+      </c>
+      <c r="G31">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="H31">
+        <v>3.0486</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-1</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>0.82165464564101898</v>
+      </c>
+      <c r="D32">
+        <v>0.99876231906785595</v>
+      </c>
+      <c r="E32">
+        <v>0.19889999999999999</v>
+      </c>
+      <c r="F32">
+        <v>0.80110000000000003</v>
+      </c>
+      <c r="G32">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="H32">
+        <v>4.0336999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-1</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>0.76813192625653404</v>
+      </c>
+      <c r="D33">
+        <v>1.00497045340741</v>
+      </c>
+      <c r="E33">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="F33">
+        <v>0.82979999999999998</v>
+      </c>
+      <c r="G33">
+        <v>8.6E-3</v>
+      </c>
+      <c r="H33">
+        <v>5.0167999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-1</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>0.71564848188211305</v>
+      </c>
+      <c r="D34">
+        <v>1.0207686264670599</v>
+      </c>
+      <c r="E34">
+        <v>0.14360000000000001</v>
+      </c>
+      <c r="F34">
+        <v>0.85640000000000005</v>
+      </c>
+      <c r="G34">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H34">
+        <v>6.1204000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-1</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>0.63938710744313398</v>
+      </c>
+      <c r="D35">
+        <v>0.977430334193929</v>
+      </c>
+      <c r="E35">
+        <v>0.1166</v>
+      </c>
+      <c r="F35">
+        <v>0.88339999999999996</v>
+      </c>
+      <c r="G35">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H35">
+        <v>6.8624000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-1</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>0.60338368146062404</v>
+      </c>
+      <c r="D36">
+        <v>1.00099074888035</v>
+      </c>
+      <c r="E36">
+        <v>0.1132</v>
+      </c>
+      <c r="F36">
+        <v>0.88649999999999995</v>
+      </c>
+      <c r="G36">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="H36">
+        <v>7.9988999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-1</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>0.55875458741332895</v>
+      </c>
+      <c r="D37">
+        <v>1.0109515921987899</v>
+      </c>
+      <c r="E37">
+        <v>9.74E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.90149999999999997</v>
+      </c>
+      <c r="G37">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H37">
+        <v>9.1418999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-1</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>0.515412406377322</v>
+      </c>
+      <c r="D38">
+        <v>0.98311561994957997</v>
+      </c>
+      <c r="E38">
+        <v>8.9399999999999993E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.90890000000000004</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>9.8559000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-1</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>0.27466812910655602</v>
+      </c>
+      <c r="D39">
+        <v>0.81600763207814697</v>
+      </c>
+      <c r="E39">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="F39">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>16.337599999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-1</v>
+      </c>
+      <c r="B40">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>0.18661922390674501</v>
+      </c>
+      <c r="D40">
+        <v>0.60142397342820098</v>
+      </c>
+      <c r="E40">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="F40">
+        <v>0.93</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>18.059899999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-1</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>0.13959023491518099</v>
+      </c>
+      <c r="D41">
+        <v>0.45759330625247502</v>
+      </c>
+      <c r="E41">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F41">
+        <v>0.93079999999999996</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>18.339500000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-1</v>
+      </c>
+      <c r="B42">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>0.112626452381882</v>
+      </c>
+      <c r="D42">
+        <v>0.36611541565275202</v>
+      </c>
+      <c r="E42">
+        <v>1E-4</v>
+      </c>
+      <c r="F42">
+        <v>0.93020000000000003</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>18.263999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-1</v>
+      </c>
+      <c r="B43">
+        <v>60</v>
+      </c>
+      <c r="C43">
+        <v>9.2316634889334503E-2</v>
+      </c>
+      <c r="D43">
+        <v>0.30408418221424699</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>18.2394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-1</v>
+      </c>
+      <c r="B44">
+        <v>70</v>
+      </c>
+      <c r="C44">
+        <v>8.0318230201138305E-2</v>
+      </c>
+      <c r="D44">
+        <v>0.26121132859120899</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0.93159999999999998</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>18.233699999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>-1</v>
+      </c>
+      <c r="B45">
+        <v>80</v>
+      </c>
+      <c r="C45">
+        <v>6.9718665829465995E-2</v>
+      </c>
+      <c r="D45">
+        <v>0.223707334252677</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0.93330000000000002</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>17.862500000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>-1</v>
+      </c>
+      <c r="B46">
+        <v>90</v>
+      </c>
+      <c r="C46">
+        <v>6.1382035580469799E-2</v>
+      </c>
+      <c r="D46">
+        <v>0.19843171679053301</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>17.815899999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-1</v>
+      </c>
+      <c r="B47">
+        <v>100</v>
+      </c>
+      <c r="C47">
+        <v>5.5173749254927698E-2</v>
+      </c>
+      <c r="D47">
+        <v>0.18003470431323401</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>17.9712</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>-0.5</v>
+      </c>
+      <c r="B48">
+        <v>1E-3</v>
+      </c>
+      <c r="C48">
+        <v>1.0008379094931099</v>
+      </c>
+      <c r="D48">
+        <v>1.0008379094931099</v>
+      </c>
+      <c r="E48">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="F48">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G48">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="H48">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-0.5</v>
+      </c>
+      <c r="B49">
+        <v>2E-3</v>
+      </c>
+      <c r="C49">
+        <v>1.0040207923690001</v>
+      </c>
+      <c r="D49">
+        <v>1.0040207923690001</v>
+      </c>
+      <c r="E49">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="F49">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="G49">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="H49">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-0.5</v>
+      </c>
+      <c r="B50">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C50">
+        <v>1.00243577486044</v>
+      </c>
+      <c r="D50">
+        <v>1.00243577486044</v>
+      </c>
+      <c r="E50">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="F50">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="G50">
+        <v>0.997</v>
+      </c>
+      <c r="H50">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-0.5</v>
+      </c>
+      <c r="B51">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C51">
+        <v>1.0047460561372099</v>
+      </c>
+      <c r="D51">
+        <v>1.0047460561372099</v>
+      </c>
+      <c r="E51">
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="F51">
+        <v>2.8E-3</v>
+      </c>
+      <c r="G51">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="H51">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-0.5</v>
+      </c>
+      <c r="B52">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C52">
+        <v>1.00522292358454</v>
+      </c>
+      <c r="D52">
+        <v>1.00541768460666</v>
+      </c>
+      <c r="E52">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="F52">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="G52">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="H52">
+        <v>5.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-0.5</v>
+      </c>
+      <c r="B53">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C53">
+        <v>1.0130266830893899</v>
+      </c>
+      <c r="D53">
+        <v>1.0130266830893899</v>
+      </c>
+      <c r="E53">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="F53">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="G53">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="H53">
+        <v>6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>-0.5</v>
+      </c>
+      <c r="B54">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C54">
+        <v>1.0054847233528099</v>
+      </c>
+      <c r="D54">
+        <v>1.0054847233528099</v>
+      </c>
+      <c r="E54">
+        <v>0.99360000000000004</v>
+      </c>
+      <c r="F54">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="G54">
+        <v>0.99260000000000004</v>
+      </c>
+      <c r="H54">
+        <v>7.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-0.5</v>
+      </c>
+      <c r="B55">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C55">
+        <v>1.00764140376481</v>
+      </c>
+      <c r="D55">
+        <v>1.00779361809333</v>
+      </c>
+      <c r="E55">
+        <v>0.99339999999999995</v>
+      </c>
+      <c r="F55">
+        <v>6.6E-3</v>
+      </c>
+      <c r="G55">
+        <v>0.9919</v>
+      </c>
+      <c r="H55">
+        <v>8.2000000000000007E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-0.5</v>
+      </c>
+      <c r="B56">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C56">
+        <v>1.01080332016999</v>
+      </c>
+      <c r="D56">
+        <v>1.011039066708</v>
+      </c>
+      <c r="E56">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="F56">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="G56">
+        <v>0.99150000000000005</v>
+      </c>
+      <c r="H56">
+        <v>8.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>-0.5</v>
+      </c>
+      <c r="B57">
+        <v>0.01</v>
+      </c>
+      <c r="C57">
+        <v>1.0099708022379801</v>
+      </c>
+      <c r="D57">
+        <v>1.0100255400859599</v>
+      </c>
+      <c r="E57">
+        <v>0.99070000000000003</v>
+      </c>
+      <c r="F57">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="G57">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="H57">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>-0.5</v>
+      </c>
+      <c r="B58">
+        <v>0.02</v>
+      </c>
+      <c r="C58">
+        <v>1.0295678267842401</v>
+      </c>
+      <c r="D58">
+        <v>1.0301697494905599</v>
+      </c>
+      <c r="E58">
+        <v>0.98260000000000003</v>
+      </c>
+      <c r="F58">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="G58">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="H58">
+        <v>2.1600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>-0.5</v>
+      </c>
+      <c r="B59">
+        <v>0.03</v>
+      </c>
+      <c r="C59">
+        <v>1.0398421930025901</v>
+      </c>
+      <c r="D59">
+        <v>1.04095250432205</v>
+      </c>
+      <c r="E59">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F59">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G59">
+        <v>0.96950000000000003</v>
+      </c>
+      <c r="H59">
+        <v>3.2399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>-0.5</v>
+      </c>
+      <c r="B60">
+        <v>0.04</v>
+      </c>
+      <c r="C60">
+        <v>1.0462948898043301</v>
+      </c>
+      <c r="D60">
+        <v>1.0471929650115901</v>
+      </c>
+      <c r="E60">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="F60">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="G60">
+        <v>0.96130000000000004</v>
+      </c>
+      <c r="H60">
+        <v>4.1500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>-0.5</v>
+      </c>
+      <c r="B61">
+        <v>0.05</v>
+      </c>
+      <c r="C61">
+        <v>1.03800813716197</v>
+      </c>
+      <c r="D61">
+        <v>1.03879688561147</v>
+      </c>
+      <c r="E61">
+        <v>0.95979999999999999</v>
+      </c>
+      <c r="F61">
+        <v>4.02E-2</v>
+      </c>
+      <c r="G61">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="H61">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>-0.5</v>
+      </c>
+      <c r="B62">
+        <v>0.06</v>
+      </c>
+      <c r="C62">
+        <v>1.05700418609186</v>
+      </c>
+      <c r="D62">
+        <v>1.05866018668205</v>
+      </c>
+      <c r="E62">
+        <v>0.95479999999999998</v>
+      </c>
+      <c r="F62">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="G62">
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="H62">
+        <v>6.1899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>-0.5</v>
+      </c>
+      <c r="B63">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C63">
+        <v>1.0753467677608699</v>
+      </c>
+      <c r="D63">
+        <v>1.07716725090071</v>
+      </c>
+      <c r="E63">
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="F63">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="G63">
+        <v>0.92879999999999996</v>
+      </c>
+      <c r="H63">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>-0.5</v>
+      </c>
+      <c r="B64">
+        <v>0.08</v>
+      </c>
+      <c r="C64">
+        <v>1.0687485425604599</v>
+      </c>
+      <c r="D64">
+        <v>1.070918299918</v>
+      </c>
+      <c r="E64">
+        <v>0.93489999999999995</v>
+      </c>
+      <c r="F64">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="G64">
+        <v>0.92010000000000003</v>
+      </c>
+      <c r="H64">
+        <v>8.8900000000000007E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>-0.5</v>
+      </c>
+      <c r="B65">
+        <v>0.09</v>
+      </c>
+      <c r="C65">
+        <v>1.07898646332349</v>
+      </c>
+      <c r="D65">
+        <v>1.08187503134285</v>
+      </c>
+      <c r="E65">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="F65">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="G65">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="H65">
+        <v>9.9500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>-0.5</v>
+      </c>
+      <c r="B66">
+        <v>0.1</v>
+      </c>
+      <c r="C66">
+        <v>1.07457918131569</v>
+      </c>
+      <c r="D66">
+        <v>1.07730385589512</v>
+      </c>
+      <c r="E66">
+        <v>0.9214</v>
+      </c>
+      <c r="F66">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="G66">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="H66">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>-0.5</v>
+      </c>
+      <c r="B67">
+        <v>0.2</v>
+      </c>
+      <c r="C67">
+        <v>1.1544460634294</v>
+      </c>
+      <c r="D67">
+        <v>1.16421024427691</v>
+      </c>
+      <c r="E67">
+        <v>0.86370000000000002</v>
+      </c>
+      <c r="F67">
+        <v>0.1363</v>
+      </c>
+      <c r="G67">
+        <v>0.82220000000000004</v>
+      </c>
+      <c r="H67">
+        <v>0.2286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>-0.5</v>
+      </c>
+      <c r="B68">
+        <v>0.3</v>
+      </c>
+      <c r="C68">
+        <v>1.183539396567</v>
+      </c>
+      <c r="D68">
+        <v>1.19853762620287</v>
+      </c>
+      <c r="E68">
+        <v>0.79720000000000002</v>
+      </c>
+      <c r="F68">
+        <v>0.20280000000000001</v>
+      </c>
+      <c r="G68">
+        <v>0.7389</v>
+      </c>
+      <c r="H68">
+        <v>0.35970000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>-0.5</v>
+      </c>
+      <c r="B69">
+        <v>0.4</v>
+      </c>
+      <c r="C69">
+        <v>1.2302050064435399</v>
+      </c>
+      <c r="D69">
+        <v>1.2540483148663599</v>
+      </c>
+      <c r="E69">
+        <v>0.75290000000000001</v>
+      </c>
+      <c r="F69">
+        <v>0.24709999999999999</v>
+      </c>
+      <c r="G69">
+        <v>0.6744</v>
+      </c>
+      <c r="H69">
+        <v>0.49730000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>-0.5</v>
+      </c>
+      <c r="B70">
+        <v>0.5</v>
+      </c>
+      <c r="C70">
+        <v>1.2699175481171501</v>
+      </c>
+      <c r="D70">
+        <v>1.3051434431628901</v>
+      </c>
+      <c r="E70">
+        <v>0.7056</v>
+      </c>
+      <c r="F70">
+        <v>0.2944</v>
+      </c>
+      <c r="G70">
+        <v>0.60319999999999996</v>
+      </c>
+      <c r="H70">
+        <v>0.65290000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>-0.5</v>
+      </c>
+      <c r="B71">
+        <v>0.6</v>
+      </c>
+      <c r="C71">
+        <v>1.3169935136559701</v>
+      </c>
+      <c r="D71">
+        <v>1.3622546270558999</v>
+      </c>
+      <c r="E71">
+        <v>0.67320000000000002</v>
+      </c>
+      <c r="F71">
+        <v>0.32679999999999998</v>
+      </c>
+      <c r="G71">
+        <v>0.54430000000000001</v>
+      </c>
+      <c r="H71">
+        <v>0.82040000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>-0.5</v>
+      </c>
+      <c r="B72">
+        <v>0.7</v>
+      </c>
+      <c r="C72">
+        <v>1.3420781680635101</v>
+      </c>
+      <c r="D72">
+        <v>1.40245519379346</v>
+      </c>
+      <c r="E72">
+        <v>0.64629999999999999</v>
+      </c>
+      <c r="F72">
+        <v>0.35370000000000001</v>
+      </c>
+      <c r="G72">
+        <v>0.4995</v>
+      </c>
+      <c r="H72">
+        <v>0.98140000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>-0.5</v>
+      </c>
+      <c r="B73">
+        <v>0.8</v>
+      </c>
+      <c r="C73">
+        <v>1.3694345601342399</v>
+      </c>
+      <c r="D73">
+        <v>1.4368524591176699</v>
+      </c>
+      <c r="E73">
+        <v>0.60809999999999997</v>
+      </c>
+      <c r="F73">
+        <v>0.39190000000000003</v>
+      </c>
+      <c r="G73">
+        <v>0.45</v>
+      </c>
+      <c r="H73">
+        <v>1.1407</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>-0.5</v>
+      </c>
+      <c r="B74">
+        <v>0.9</v>
+      </c>
+      <c r="C74">
+        <v>1.38888481324835</v>
+      </c>
+      <c r="D74">
+        <v>1.47503310780208</v>
+      </c>
+      <c r="E74">
+        <v>0.5756</v>
+      </c>
+      <c r="F74">
+        <v>0.4244</v>
+      </c>
+      <c r="G74">
+        <v>0.40820000000000001</v>
+      </c>
+      <c r="H74">
+        <v>1.3452</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>-0.5</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1.40804506356493</v>
+      </c>
+      <c r="D75">
+        <v>1.5054518894733599</v>
+      </c>
+      <c r="E75">
+        <v>0.5534</v>
+      </c>
+      <c r="F75">
+        <v>0.4466</v>
+      </c>
+      <c r="G75">
+        <v>0.36809999999999998</v>
+      </c>
+      <c r="H75">
+        <v>1.5113000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>-0.5</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>1.5319723610759199</v>
+      </c>
+      <c r="D76">
+        <v>1.82721156158781</v>
+      </c>
+      <c r="E76">
+        <v>0.37659999999999999</v>
+      </c>
+      <c r="F76">
+        <v>0.62339999999999995</v>
+      </c>
+      <c r="G76">
+        <v>0.13139999999999999</v>
+      </c>
+      <c r="H76">
+        <v>3.6667000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>-0.5</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>1.51925000134091</v>
+      </c>
+      <c r="D77">
+        <v>2.0465110940520801</v>
+      </c>
+      <c r="E77">
+        <v>0.2893</v>
+      </c>
+      <c r="F77">
+        <v>0.7107</v>
+      </c>
+      <c r="G77">
+        <v>5.2699999999999997E-2</v>
+      </c>
+      <c r="H77">
+        <v>6.0819000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>-0.5</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>1.41697801102738</v>
+      </c>
+      <c r="D78">
+        <v>2.1983801458991499</v>
+      </c>
+      <c r="E78">
+        <v>0.23150000000000001</v>
+      </c>
+      <c r="F78">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="G78">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="H78">
+        <v>8.7888000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>-0.5</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>1.30207630609147</v>
+      </c>
+      <c r="D79">
+        <v>2.26445213625846</v>
+      </c>
+      <c r="E79">
+        <v>0.1961</v>
+      </c>
+      <c r="F79">
+        <v>0.80369999999999997</v>
+      </c>
+      <c r="G79">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="H79">
+        <v>11.2895</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>-0.5</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>1.14177789243098</v>
+      </c>
+      <c r="D80">
+        <v>2.2617674639574998</v>
+      </c>
+      <c r="E80">
+        <v>0.16159999999999999</v>
+      </c>
+      <c r="F80">
+        <v>0.83709999999999996</v>
+      </c>
+      <c r="G80">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="H80">
+        <v>13.5206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>-0.5</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>1.0337040478753301</v>
+      </c>
+      <c r="D81">
+        <v>2.2927725070965601</v>
+      </c>
+      <c r="E81">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="F81">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="G81">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H81">
+        <v>16.037299999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>-0.5</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>0.92739110071938602</v>
+      </c>
+      <c r="D82">
+        <v>2.27147474448117</v>
+      </c>
+      <c r="E82">
+        <v>0.12479999999999999</v>
+      </c>
+      <c r="F82">
+        <v>0.86429999999999996</v>
+      </c>
+      <c r="G82">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H82">
+        <v>18.206600000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>-0.5</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>0.85101786528838996</v>
+      </c>
+      <c r="D83">
+        <v>2.2992277219783301</v>
+      </c>
+      <c r="E83">
+        <v>0.1103</v>
+      </c>
+      <c r="F83">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>20.694900000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>-0.5</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>0.76425788438874498</v>
+      </c>
+      <c r="D84">
+        <v>2.2019381637102802</v>
+      </c>
+      <c r="E84">
+        <v>8.77E-2</v>
+      </c>
+      <c r="F84">
+        <v>0.88060000000000005</v>
+      </c>
+      <c r="G84">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H84">
+        <v>22.045000000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>-0.5</v>
+      </c>
+      <c r="B85">
+        <v>20</v>
+      </c>
+      <c r="C85">
+        <v>0.39165807611728598</v>
+      </c>
+      <c r="D85">
+        <v>1.40624626460277</v>
+      </c>
+      <c r="E85">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="F85">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>28.116900000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>-0.5</v>
+      </c>
+      <c r="B86">
+        <v>30</v>
+      </c>
+      <c r="C86">
+        <v>0.25872429787598999</v>
+      </c>
+      <c r="D86">
+        <v>0.93796340736749795</v>
+      </c>
+      <c r="E86">
+        <v>1E-4</v>
+      </c>
+      <c r="F86">
+        <v>0.88770000000000004</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>28.191500000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>-0.5</v>
+      </c>
+      <c r="B87">
+        <v>40</v>
+      </c>
+      <c r="C87">
+        <v>0.198582913035281</v>
+      </c>
+      <c r="D87">
+        <v>0.71970533256403701</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0.8861</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>28.716899999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>-0.5</v>
+      </c>
+      <c r="B88">
+        <v>50</v>
+      </c>
+      <c r="C88">
+        <v>0.15517641464995599</v>
+      </c>
+      <c r="D88">
+        <v>0.56262246505719704</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>28.015999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>-0.5</v>
+      </c>
+      <c r="B89">
+        <v>60</v>
+      </c>
+      <c r="C89">
+        <v>0.12923813809638099</v>
+      </c>
+      <c r="D89">
+        <v>0.46374669484120201</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0.88790000000000002</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>27.8384</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>-0.5</v>
+      </c>
+      <c r="B90">
+        <v>70</v>
+      </c>
+      <c r="C90">
+        <v>0.112193508600009</v>
+      </c>
+      <c r="D90">
+        <v>0.41071720158261898</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0.8841</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>28.7531</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>-0.5</v>
+      </c>
+      <c r="B91">
+        <v>80</v>
+      </c>
+      <c r="C91">
+        <v>9.9229506548361601E-2</v>
+      </c>
+      <c r="D91">
+        <v>0.36041521547234101</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>28.897200000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>-0.5</v>
+      </c>
+      <c r="B92">
+        <v>90</v>
+      </c>
+      <c r="C92">
+        <v>8.8516256320357103E-2</v>
+      </c>
+      <c r="D92">
+        <v>0.32566018193746199</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0.88060000000000005</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>29.3078</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>-0.5</v>
+      </c>
+      <c r="B93">
+        <v>100</v>
+      </c>
+      <c r="C93">
+        <v>7.7343077012096306E-2</v>
+      </c>
+      <c r="D93">
+        <v>0.27957691675801999</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0.88549999999999995</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>27.9939</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>-0.1</v>
+      </c>
+      <c r="B94">
+        <v>1E-3</v>
+      </c>
+      <c r="C94">
+        <v>1.00079503140119</v>
+      </c>
+      <c r="D94">
+        <v>1.00079503140119</v>
+      </c>
+      <c r="E94">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="F94">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G94">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="H94">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>-0.1</v>
+      </c>
+      <c r="B95">
+        <v>2E-3</v>
+      </c>
+      <c r="C95">
+        <v>1.00596377798735</v>
+      </c>
+      <c r="D95">
+        <v>1.00596377798735</v>
+      </c>
+      <c r="E95">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="F95">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G95">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="H95">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>-0.1</v>
+      </c>
+      <c r="B96">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C96">
+        <v>1.0094526670785</v>
+      </c>
+      <c r="D96">
+        <v>1.0096818877512299</v>
+      </c>
+      <c r="E96">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="F96">
+        <v>2.3E-3</v>
+      </c>
+      <c r="G96">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="H96">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>-0.1</v>
+      </c>
+      <c r="B97">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C97">
+        <v>1.0063748882221299</v>
+      </c>
+      <c r="D97">
+        <v>1.0064020291862801</v>
+      </c>
+      <c r="E97">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="F97">
+        <v>2.3E-3</v>
+      </c>
+      <c r="G97">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="H97">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>-0.1</v>
+      </c>
+      <c r="B98">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C98">
+        <v>1.00955899710146</v>
+      </c>
+      <c r="D98">
+        <v>1.00955899710146</v>
+      </c>
+      <c r="E98">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="F98">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="G98">
+        <v>0.99390000000000001</v>
+      </c>
+      <c r="H98">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>-0.1</v>
+      </c>
+      <c r="B99">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C99">
+        <v>1.0469610414285</v>
+      </c>
+      <c r="D99">
+        <v>1.04799171115074</v>
+      </c>
+      <c r="E99">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="F99">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="G99">
+        <v>0.99350000000000005</v>
+      </c>
+      <c r="H99">
+        <v>6.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>-0.1</v>
+      </c>
+      <c r="B100">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C100">
+        <v>1.0127417203735301</v>
+      </c>
+      <c r="D100">
+        <v>1.0127417203735301</v>
+      </c>
+      <c r="E100">
+        <v>0.996</v>
+      </c>
+      <c r="F100">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G100">
+        <v>0.99350000000000005</v>
+      </c>
+      <c r="H100">
+        <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>-0.1</v>
+      </c>
+      <c r="B101">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C101">
+        <v>1.0208422285094001</v>
+      </c>
+      <c r="D101">
+        <v>1.0208422285094001</v>
+      </c>
+      <c r="E101">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="F101">
+        <v>4.3E-3</v>
+      </c>
+      <c r="G101">
+        <v>0.99239999999999995</v>
+      </c>
+      <c r="H101">
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>-0.1</v>
+      </c>
+      <c r="B102">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C102">
+        <v>1.0163590059754699</v>
+      </c>
+      <c r="D102">
+        <v>1.01639055958313</v>
+      </c>
+      <c r="E102">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="F102">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="G102">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="H102">
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>-0.1</v>
+      </c>
+      <c r="B103">
+        <v>0.01</v>
+      </c>
+      <c r="C103">
+        <v>1.02950445701728</v>
+      </c>
+      <c r="D103">
+        <v>1.03029480150742</v>
+      </c>
+      <c r="E103">
+        <v>0.99319999999999997</v>
+      </c>
+      <c r="F103">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="G103">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="H103">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>-0.1</v>
+      </c>
+      <c r="B104">
+        <v>0.02</v>
+      </c>
+      <c r="C104">
+        <v>1.0382623934472399</v>
+      </c>
+      <c r="D104">
+        <v>1.03859838576122</v>
+      </c>
+      <c r="E104">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="F104">
+        <v>1.12E-2</v>
+      </c>
+      <c r="G104">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="H104">
+        <v>2.18E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>-0.1</v>
+      </c>
+      <c r="B105">
+        <v>0.03</v>
+      </c>
+      <c r="C105">
+        <v>1.04914640122111</v>
+      </c>
+      <c r="D105">
+        <v>1.0500595966248001</v>
+      </c>
+      <c r="E105">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="F105">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="G105">
+        <v>0.96989999999999998</v>
+      </c>
+      <c r="H105">
+        <v>3.1899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>-0.1</v>
+      </c>
+      <c r="B106">
+        <v>0.04</v>
+      </c>
+      <c r="C106">
+        <v>1.0665941815112301</v>
+      </c>
+      <c r="D106">
+        <v>1.06793094552821</v>
+      </c>
+      <c r="E106">
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="F106">
+        <v>2.35E-2</v>
+      </c>
+      <c r="G106">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="H106">
+        <v>4.53E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>-0.1</v>
+      </c>
+      <c r="B107">
+        <v>0.05</v>
+      </c>
+      <c r="C107">
+        <v>1.0903871213176699</v>
+      </c>
+      <c r="D107">
+        <v>1.0927232603574899</v>
+      </c>
+      <c r="E107">
+        <v>0.96809999999999996</v>
+      </c>
+      <c r="F107">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="G107">
+        <v>0.94789999999999996</v>
+      </c>
+      <c r="H107">
+        <v>5.7099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>-0.1</v>
+      </c>
+      <c r="B108">
+        <v>0.06</v>
+      </c>
+      <c r="C108">
+        <v>1.09692826657721</v>
+      </c>
+      <c r="D108">
+        <v>1.0988749104531499</v>
+      </c>
+      <c r="E108">
+        <v>0.96560000000000001</v>
+      </c>
+      <c r="F108">
+        <v>3.44E-2</v>
+      </c>
+      <c r="G108">
+        <v>0.93869999999999998</v>
+      </c>
+      <c r="H108">
+        <v>6.8099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>-0.1</v>
+      </c>
+      <c r="B109">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C109">
+        <v>1.1083804484037001</v>
+      </c>
+      <c r="D109">
+        <v>1.1117331186642501</v>
+      </c>
+      <c r="E109">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F109">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G109">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="H109">
+        <v>8.1199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>-0.1</v>
+      </c>
+      <c r="B110">
+        <v>0.08</v>
+      </c>
+      <c r="C110">
+        <v>1.0978720902942301</v>
+      </c>
+      <c r="D110">
+        <v>1.1010491810826999</v>
+      </c>
+      <c r="E110">
+        <v>0.95579999999999998</v>
+      </c>
+      <c r="F110">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="G110">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="H110">
+        <v>8.8400000000000006E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>-0.1</v>
+      </c>
+      <c r="B111">
+        <v>0.09</v>
+      </c>
+      <c r="C111">
+        <v>1.1160473944320399</v>
+      </c>
+      <c r="D111">
+        <v>1.1195733528073299</v>
+      </c>
+      <c r="E111">
+        <v>0.94979999999999998</v>
+      </c>
+      <c r="F111">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="G111">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="H111">
+        <v>0.10290000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>-0.1</v>
+      </c>
+      <c r="B112">
+        <v>0.1</v>
+      </c>
+      <c r="C112">
+        <v>1.1417081421122399</v>
+      </c>
+      <c r="D112">
+        <v>1.14675300203373</v>
+      </c>
+      <c r="E112">
+        <v>0.94520000000000004</v>
+      </c>
+      <c r="F112">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="G112">
+        <v>0.89880000000000004</v>
+      </c>
+      <c r="H112">
+        <v>0.1216</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>-0.1</v>
+      </c>
+      <c r="B113">
+        <v>0.2</v>
+      </c>
+      <c r="C113">
+        <v>1.2163035776867701</v>
+      </c>
+      <c r="D113">
+        <v>1.22829182369118</v>
+      </c>
+      <c r="E113">
+        <v>0.89539999999999997</v>
+      </c>
+      <c r="F113">
+        <v>0.1046</v>
+      </c>
+      <c r="G113">
+        <v>0.81930000000000003</v>
+      </c>
+      <c r="H113">
+        <v>0.24629999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>-0.1</v>
+      </c>
+      <c r="B114">
+        <v>0.3</v>
+      </c>
+      <c r="C114">
+        <v>1.2644137331757901</v>
+      </c>
+      <c r="D114">
+        <v>1.2825821745230801</v>
+      </c>
+      <c r="E114">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="F114">
+        <v>0.1429</v>
+      </c>
+      <c r="G114">
+        <v>0.747</v>
+      </c>
+      <c r="H114">
+        <v>0.37540000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>-0.1</v>
+      </c>
+      <c r="B115">
+        <v>0.4</v>
+      </c>
+      <c r="C115">
+        <v>1.32600290909478</v>
+      </c>
+      <c r="D115">
+        <v>1.3549471824810799</v>
+      </c>
+      <c r="E115">
+        <v>0.8135</v>
+      </c>
+      <c r="F115">
+        <v>0.1865</v>
+      </c>
+      <c r="G115">
+        <v>0.66959999999999997</v>
+      </c>
+      <c r="H115">
+        <v>0.54590000000000005</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>-0.1</v>
+      </c>
+      <c r="B116">
+        <v>0.5</v>
+      </c>
+      <c r="C116">
+        <v>1.38126424348835</v>
+      </c>
+      <c r="D116">
+        <v>1.4212280561359301</v>
+      </c>
+      <c r="E116">
+        <v>0.78220000000000001</v>
+      </c>
+      <c r="F116">
+        <v>0.21779999999999999</v>
+      </c>
+      <c r="G116">
+        <v>0.60780000000000001</v>
+      </c>
+      <c r="H116">
+        <v>0.7107</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>-0.1</v>
+      </c>
+      <c r="B117">
+        <v>0.6</v>
+      </c>
+      <c r="C117">
+        <v>1.4166177265314099</v>
+      </c>
+      <c r="D117">
+        <v>1.4670518393704901</v>
+      </c>
+      <c r="E117">
+        <v>0.74490000000000001</v>
+      </c>
+      <c r="F117">
+        <v>0.25509999999999999</v>
+      </c>
+      <c r="G117">
+        <v>0.55020000000000002</v>
+      </c>
+      <c r="H117">
+        <v>0.87350000000000005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>-0.1</v>
+      </c>
+      <c r="B118">
+        <v>0.7</v>
+      </c>
+      <c r="C118">
+        <v>1.4570228882195699</v>
+      </c>
+      <c r="D118">
+        <v>1.52215688568515</v>
+      </c>
+      <c r="E118">
+        <v>0.71660000000000001</v>
+      </c>
+      <c r="F118">
+        <v>0.28339999999999999</v>
+      </c>
+      <c r="G118">
+        <v>0.50660000000000005</v>
+      </c>
+      <c r="H118">
+        <v>1.0580000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>-0.1</v>
+      </c>
+      <c r="B119">
+        <v>0.8</v>
+      </c>
+      <c r="C119">
+        <v>1.49002470825217</v>
+      </c>
+      <c r="D119">
+        <v>1.56883402961368</v>
+      </c>
+      <c r="E119">
+        <v>0.68520000000000003</v>
+      </c>
+      <c r="F119">
+        <v>0.31480000000000002</v>
+      </c>
+      <c r="G119">
+        <v>0.44990000000000002</v>
+      </c>
+      <c r="H119">
+        <v>1.2595000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>-0.1</v>
+      </c>
+      <c r="B120">
+        <v>0.9</v>
+      </c>
+      <c r="C120">
+        <v>1.4895817601383601</v>
+      </c>
+      <c r="D120">
+        <v>1.57796595184226</v>
+      </c>
+      <c r="E120">
+        <v>0.6583</v>
+      </c>
+      <c r="F120">
+        <v>0.3417</v>
+      </c>
+      <c r="G120">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="H120">
+        <v>1.4236</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>-0.1</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>1.5410876345040501</v>
+      </c>
+      <c r="D121">
+        <v>1.6496586944998399</v>
+      </c>
+      <c r="E121">
+        <v>0.63129999999999997</v>
+      </c>
+      <c r="F121">
+        <v>0.36870000000000003</v>
+      </c>
+      <c r="G121">
+        <v>0.3664</v>
+      </c>
+      <c r="H121">
+        <v>1.6506000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>-0.1</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122">
+        <v>1.6049282856535201</v>
+      </c>
+      <c r="D122">
+        <v>1.8704793196173799</v>
+      </c>
+      <c r="E122">
+        <v>0.45379999999999998</v>
+      </c>
+      <c r="F122">
+        <v>0.54620000000000002</v>
+      </c>
+      <c r="G122">
+        <v>0.1371</v>
+      </c>
+      <c r="H122">
+        <v>3.7191000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>-0.1</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>1.56980104155377</v>
+      </c>
+      <c r="D123">
+        <v>2.0321187876867399</v>
+      </c>
+      <c r="E123">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="F123">
+        <v>0.65249999999999997</v>
+      </c>
+      <c r="G123">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="H123">
+        <v>6.1463000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>-0.1</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>1.4957643978698301</v>
+      </c>
+      <c r="D124">
+        <v>2.1820846250493502</v>
+      </c>
+      <c r="E124">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="F124">
+        <v>0.70250000000000001</v>
+      </c>
+      <c r="G124">
+        <v>1.95E-2</v>
+      </c>
+      <c r="H124">
+        <v>8.7304999999999993</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>-0.1</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <v>1.38565881750802</v>
+      </c>
+      <c r="D125">
+        <v>2.24067686819695</v>
+      </c>
+      <c r="E125">
+        <v>0.2482</v>
+      </c>
+      <c r="F125">
+        <v>0.75180000000000002</v>
+      </c>
+      <c r="G125">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="H125">
+        <v>11.1999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>-0.1</v>
+      </c>
+      <c r="B126">
+        <v>6</v>
+      </c>
+      <c r="C126">
+        <v>1.23795178791493</v>
+      </c>
+      <c r="D126">
+        <v>2.2367268514188701</v>
+      </c>
+      <c r="E126">
+        <v>0.20960000000000001</v>
+      </c>
+      <c r="F126">
+        <v>0.78979999999999995</v>
+      </c>
+      <c r="G126">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H126">
+        <v>13.434200000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>-0.1</v>
+      </c>
+      <c r="B127">
+        <v>7</v>
+      </c>
+      <c r="C127">
+        <v>1.1305211502677901</v>
+      </c>
+      <c r="D127">
+        <v>2.2686906593226501</v>
+      </c>
+      <c r="E127">
+        <v>0.1852</v>
+      </c>
+      <c r="F127">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="G127">
+        <v>1.4E-3</v>
+      </c>
+      <c r="H127">
+        <v>15.852600000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>-0.1</v>
+      </c>
+      <c r="B128">
+        <v>8</v>
+      </c>
+      <c r="C128">
+        <v>1.04199971188857</v>
+      </c>
+      <c r="D128">
+        <v>2.3335680240181298</v>
+      </c>
+      <c r="E128">
+        <v>0.16109999999999999</v>
+      </c>
+      <c r="F128">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="G128">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="H128">
+        <v>18.660699999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>-0.1</v>
+      </c>
+      <c r="B129">
+        <v>9</v>
+      </c>
+      <c r="C129">
+        <v>0.95442841664356903</v>
+      </c>
+      <c r="D129">
+        <v>2.3555443145277799</v>
+      </c>
+      <c r="E129">
+        <v>0.1414</v>
+      </c>
+      <c r="F129">
+        <v>0.84670000000000001</v>
+      </c>
+      <c r="G129">
+        <v>1E-4</v>
+      </c>
+      <c r="H129">
+        <v>21.280799999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>-0.1</v>
+      </c>
+      <c r="B130">
+        <v>10</v>
+      </c>
+      <c r="C130">
+        <v>0.86989331613587695</v>
+      </c>
+      <c r="D130">
+        <v>2.2964845749530198</v>
+      </c>
+      <c r="E130">
+        <v>0.13220000000000001</v>
+      </c>
+      <c r="F130">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>22.945399999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>-0.1</v>
+      </c>
+      <c r="B131">
+        <v>20</v>
+      </c>
+      <c r="C131">
+        <v>0.45425161639189299</v>
+      </c>
+      <c r="D131">
+        <v>1.6629792070518801</v>
+      </c>
+      <c r="E131">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="F131">
+        <v>0.85950000000000004</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>33.275199999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>-0.1</v>
+      </c>
+      <c r="B132">
+        <v>30</v>
+      </c>
+      <c r="C132">
+        <v>0.29395009583055098</v>
+      </c>
+      <c r="D132">
+        <v>1.06056300495212</v>
+      </c>
+      <c r="E132">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="F132">
+        <v>0.87229999999999996</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>31.744800000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>-0.1</v>
+      </c>
+      <c r="B133">
+        <v>40</v>
+      </c>
+      <c r="C133">
+        <v>0.22259141069135299</v>
+      </c>
+      <c r="D133">
+        <v>0.81066196645812605</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0.87190000000000001</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>32.4895</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>-0.1</v>
+      </c>
+      <c r="B134">
+        <v>50</v>
+      </c>
+      <c r="C134">
+        <v>0.179613817366262</v>
+      </c>
+      <c r="D134">
+        <v>0.658104997512866</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0.86780000000000002</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>32.913499999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>-0.1</v>
+      </c>
+      <c r="B135">
+        <v>60</v>
+      </c>
+      <c r="C135">
+        <v>0.148901785730292</v>
+      </c>
+      <c r="D135">
+        <v>0.54672903221290203</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0.86839999999999995</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>32.899000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>-0.1</v>
+      </c>
+      <c r="B136">
+        <v>70</v>
+      </c>
+      <c r="C136">
+        <v>0.12776402640954199</v>
+      </c>
+      <c r="D136">
+        <v>0.46816556871231002</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>32.816699999999997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>-0.1</v>
+      </c>
+      <c r="B137">
+        <v>80</v>
+      </c>
+      <c r="C137">
+        <v>0.1131232659564</v>
+      </c>
+      <c r="D137">
+        <v>0.415087709025527</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>33.1965</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>-0.1</v>
+      </c>
+      <c r="B138">
+        <v>90</v>
+      </c>
+      <c r="C138">
+        <v>9.69974500898724E-2</v>
+      </c>
+      <c r="D138">
+        <v>0.35124670073578002</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0.87460000000000004</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>31.645499999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>-0.1</v>
+      </c>
+      <c r="B139">
+        <v>100</v>
+      </c>
+      <c r="C139">
+        <v>8.8587075954368294E-2</v>
+      </c>
+      <c r="D139">
+        <v>0.32471877868381899</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0.86850000000000005</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>32.427999999999997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>0.1</v>
+      </c>
+      <c r="B140">
+        <v>1E-3</v>
+      </c>
+      <c r="C140">
+        <v>1.0023944675091201</v>
+      </c>
+      <c r="D140">
+        <v>1.0023944675091201</v>
+      </c>
+      <c r="E140">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="F140">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="G140">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="H140">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>0.1</v>
+      </c>
+      <c r="B141">
+        <v>2E-3</v>
+      </c>
+      <c r="C141">
+        <v>1.0012126396399399</v>
+      </c>
+      <c r="D141">
+        <v>1.0012126396399399</v>
+      </c>
+      <c r="E141">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F141">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G141">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="H141">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>0.1</v>
+      </c>
+      <c r="B142">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C142">
+        <v>1.0043174162903099</v>
+      </c>
+      <c r="D142">
+        <v>1.0043174162903099</v>
+      </c>
+      <c r="E142">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="F142">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G142">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="H142">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>0.1</v>
+      </c>
+      <c r="B143">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C143">
+        <v>1.00298206387358</v>
+      </c>
+      <c r="D143">
+        <v>1.00298206387358</v>
+      </c>
+      <c r="E143">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="F143">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="G143">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="H143">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>0.1</v>
+      </c>
+      <c r="B144">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C144">
+        <v>1.0517124434934699</v>
+      </c>
+      <c r="D144">
+        <v>1.0537377541466599</v>
+      </c>
+      <c r="E144">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="F144">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="G144">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="H144">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>0.1</v>
+      </c>
+      <c r="B145">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C145">
+        <v>1.00731532611589</v>
+      </c>
+      <c r="D145">
+        <v>1.00731960860028</v>
+      </c>
+      <c r="E145">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="F145">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G145">
+        <v>0.99390000000000001</v>
+      </c>
+      <c r="H145">
+        <v>6.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>0.1</v>
+      </c>
+      <c r="B146">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C146">
+        <v>1.0350119841977801</v>
+      </c>
+      <c r="D146">
+        <v>1.03503875270034</v>
+      </c>
+      <c r="E146">
+        <v>0.997</v>
+      </c>
+      <c r="F146">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G146">
+        <v>0.9929</v>
+      </c>
+      <c r="H146">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>0.1</v>
+      </c>
+      <c r="B147">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C147">
+        <v>1.0149686372795499</v>
+      </c>
+      <c r="D147">
+        <v>1.01519812970732</v>
+      </c>
+      <c r="E147">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="F147">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="G147">
+        <v>0.99229999999999996</v>
+      </c>
+      <c r="H147">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>0.1</v>
+      </c>
+      <c r="B148">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C148">
+        <v>1.02656615467385</v>
+      </c>
+      <c r="D148">
+        <v>1.02682135294316</v>
+      </c>
+      <c r="E148">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="F148">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="G148">
+        <v>0.9909</v>
+      </c>
+      <c r="H148">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>0.1</v>
+      </c>
+      <c r="B149">
+        <v>0.01</v>
+      </c>
+      <c r="C149">
+        <v>1.0230930118571</v>
+      </c>
+      <c r="D149">
+        <v>1.0234661836206</v>
+      </c>
+      <c r="E149">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="F149">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="G149">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="H149">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>0.1</v>
+      </c>
+      <c r="B150">
+        <v>0.02</v>
+      </c>
+      <c r="C150">
+        <v>1.0452415407603799</v>
+      </c>
+      <c r="D150">
+        <v>1.0455421114701799</v>
+      </c>
+      <c r="E150">
+        <v>0.9909</v>
+      </c>
+      <c r="F150">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="G150">
+        <v>0.9788</v>
+      </c>
+      <c r="H150">
+        <v>2.18E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>0.1</v>
+      </c>
+      <c r="B151">
+        <v>0.03</v>
+      </c>
+      <c r="C151">
+        <v>1.0457474570083101</v>
+      </c>
+      <c r="D151">
+        <v>1.04623321234634</v>
+      </c>
+      <c r="E151">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="F151">
+        <v>1.35E-2</v>
+      </c>
+      <c r="G151">
+        <v>0.96960000000000002</v>
+      </c>
+      <c r="H151">
+        <v>3.1699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>0.1</v>
+      </c>
+      <c r="B152">
+        <v>0.04</v>
+      </c>
+      <c r="C152">
+        <v>1.0617681509943899</v>
+      </c>
+      <c r="D152">
+        <v>1.0628783858308199</v>
+      </c>
+      <c r="E152">
+        <v>0.9829</v>
+      </c>
+      <c r="F152">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="G152">
+        <v>0.95809999999999995</v>
+      </c>
+      <c r="H152">
+        <v>4.53E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>0.1</v>
+      </c>
+      <c r="B153">
+        <v>0.05</v>
+      </c>
+      <c r="C153">
+        <v>1.06488613869882</v>
+      </c>
+      <c r="D153">
+        <v>1.06614339537789</v>
+      </c>
+      <c r="E153">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="F153">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="G153">
+        <v>0.95030000000000003</v>
+      </c>
+      <c r="H153">
+        <v>5.4699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>0.1</v>
+      </c>
+      <c r="B154">
+        <v>0.06</v>
+      </c>
+      <c r="C154">
+        <v>1.08476310222913</v>
+      </c>
+      <c r="D154">
+        <v>1.0867360335857501</v>
+      </c>
+      <c r="E154">
+        <v>0.97430000000000005</v>
+      </c>
+      <c r="F154">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="G154">
+        <v>0.94010000000000005</v>
+      </c>
+      <c r="H154">
+        <v>6.7500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>0.1</v>
+      </c>
+      <c r="B155">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C155">
+        <v>1.12039716710552</v>
+      </c>
+      <c r="D155">
+        <v>1.1244696197459301</v>
+      </c>
+      <c r="E155">
+        <v>0.96840000000000004</v>
+      </c>
+      <c r="F155">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="G155">
+        <v>0.93020000000000003</v>
+      </c>
+      <c r="H155">
+        <v>8.0699999999999994E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>0.1</v>
+      </c>
+      <c r="B156">
+        <v>0.08</v>
+      </c>
+      <c r="C156">
+        <v>1.1127099001769001</v>
+      </c>
+      <c r="D156">
+        <v>1.11667718091162</v>
+      </c>
+      <c r="E156">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="F156">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="G156">
+        <v>0.9234</v>
+      </c>
+      <c r="H156">
+        <v>9.0300000000000005E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>0.1</v>
+      </c>
+      <c r="B157">
+        <v>0.09</v>
+      </c>
+      <c r="C157">
+        <v>1.1166721110006299</v>
+      </c>
+      <c r="D157">
+        <v>1.1198332867506799</v>
+      </c>
+      <c r="E157">
+        <v>0.96440000000000003</v>
+      </c>
+      <c r="F157">
+        <v>3.56E-2</v>
+      </c>
+      <c r="G157">
+        <v>0.91320000000000001</v>
+      </c>
+      <c r="H157">
+        <v>9.9699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>0.1</v>
+      </c>
+      <c r="B158">
+        <v>0.1</v>
+      </c>
+      <c r="C158">
+        <v>1.1216092516389</v>
+      </c>
+      <c r="D158">
+        <v>1.1256713482471701</v>
+      </c>
+      <c r="E158">
+        <v>0.95979999999999999</v>
+      </c>
+      <c r="F158">
+        <v>4.02E-2</v>
+      </c>
+      <c r="G158">
+        <v>0.90380000000000005</v>
+      </c>
+      <c r="H158">
+        <v>0.1147</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>0.1</v>
+      </c>
+      <c r="B159">
+        <v>0.2</v>
+      </c>
+      <c r="C159">
+        <v>1.2050687947340699</v>
+      </c>
+      <c r="D159">
+        <v>1.21590733689641</v>
+      </c>
+      <c r="E159">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="F159">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="G159">
+        <v>0.81540000000000001</v>
+      </c>
+      <c r="H159">
+        <v>0.2472</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>0.1</v>
+      </c>
+      <c r="B160">
+        <v>0.3</v>
+      </c>
+      <c r="C160">
+        <v>1.26446239829261</v>
+      </c>
+      <c r="D160">
+        <v>1.2826019414388501</v>
+      </c>
+      <c r="E160">
+        <v>0.88829999999999998</v>
+      </c>
+      <c r="F160">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="G160">
+        <v>0.74419999999999997</v>
+      </c>
+      <c r="H160">
+        <v>0.37709999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>0.1</v>
+      </c>
+      <c r="B161">
+        <v>0.4</v>
+      </c>
+      <c r="C161">
+        <v>1.31739929925315</v>
+      </c>
+      <c r="D161">
+        <v>1.34448224537257</v>
+      </c>
+      <c r="E161">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="F161">
+        <v>0.1489</v>
+      </c>
+      <c r="G161">
+        <v>0.67190000000000005</v>
+      </c>
+      <c r="H161">
+        <v>0.53890000000000005</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>0.1</v>
+      </c>
+      <c r="B162">
+        <v>0.5</v>
+      </c>
+      <c r="C162">
+        <v>1.3752066208539899</v>
+      </c>
+      <c r="D162">
+        <v>1.41439279317862</v>
+      </c>
+      <c r="E162">
+        <v>0.82210000000000005</v>
+      </c>
+      <c r="F162">
+        <v>0.1779</v>
+      </c>
+      <c r="G162">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="H162">
+        <v>0.71850000000000003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>0.1</v>
+      </c>
+      <c r="B163">
+        <v>0.6</v>
+      </c>
+      <c r="C163">
+        <v>1.41704714772024</v>
+      </c>
+      <c r="D163">
+        <v>1.4656994881663401</v>
+      </c>
+      <c r="E163">
+        <v>0.79330000000000001</v>
+      </c>
+      <c r="F163">
+        <v>0.20669999999999999</v>
+      </c>
+      <c r="G163">
+        <v>0.54910000000000003</v>
+      </c>
+      <c r="H163">
+        <v>0.87519999999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>0.1</v>
+      </c>
+      <c r="B164">
+        <v>0.7</v>
+      </c>
+      <c r="C164">
+        <v>1.4271767269908999</v>
+      </c>
+      <c r="D164">
+        <v>1.48600034267706</v>
+      </c>
+      <c r="E164">
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="F164">
+        <v>0.2344</v>
+      </c>
+      <c r="G164">
+        <v>0.50349999999999995</v>
+      </c>
+      <c r="H164">
+        <v>1.0324</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>0.1</v>
+      </c>
+      <c r="B165">
+        <v>0.8</v>
+      </c>
+      <c r="C165">
+        <v>1.47261085544985</v>
+      </c>
+      <c r="D165">
+        <v>1.5461628826045599</v>
+      </c>
+      <c r="E165">
+        <v>0.73409999999999997</v>
+      </c>
+      <c r="F165">
+        <v>0.26590000000000003</v>
+      </c>
+      <c r="G165">
+        <v>0.4546</v>
+      </c>
+      <c r="H165">
+        <v>1.226</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>0.1</v>
+      </c>
+      <c r="B166">
+        <v>0.9</v>
+      </c>
+      <c r="C166">
+        <v>1.5078832567237701</v>
+      </c>
+      <c r="D166">
+        <v>1.5954755846086399</v>
+      </c>
+      <c r="E166">
+        <v>0.72019999999999995</v>
+      </c>
+      <c r="F166">
+        <v>0.27979999999999999</v>
+      </c>
+      <c r="G166">
+        <v>0.41289999999999999</v>
+      </c>
+      <c r="H166">
+        <v>1.4276</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>0.1</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>1.4976207456921</v>
+      </c>
+      <c r="D167">
+        <v>1.59139273921385</v>
+      </c>
+      <c r="E167">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="F167">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="G167">
+        <v>0.37590000000000001</v>
+      </c>
+      <c r="H167">
+        <v>1.5834999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>0.1</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168">
+        <v>1.6382741397448499</v>
+      </c>
+      <c r="D168">
+        <v>1.9046131060010001</v>
+      </c>
+      <c r="E168">
+        <v>0.51029999999999998</v>
+      </c>
+      <c r="F168">
+        <v>0.48970000000000002</v>
+      </c>
+      <c r="G168">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="H168">
+        <v>3.8052000000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>0.1</v>
+      </c>
+      <c r="B169">
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>1.61534796630904</v>
+      </c>
+      <c r="D169">
+        <v>2.0565003667044102</v>
+      </c>
+      <c r="E169">
+        <v>0.4047</v>
+      </c>
+      <c r="F169">
+        <v>0.59530000000000005</v>
+      </c>
+      <c r="G169">
+        <v>5.33E-2</v>
+      </c>
+      <c r="H169">
+        <v>6.1375000000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>0.1</v>
+      </c>
+      <c r="B170">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>1.5271405976775101</v>
+      </c>
+      <c r="D170">
+        <v>2.15084319297504</v>
+      </c>
+      <c r="E170">
+        <v>0.3392</v>
+      </c>
+      <c r="F170">
+        <v>0.66080000000000005</v>
+      </c>
+      <c r="G170">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="H170">
+        <v>8.5519999999999996</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>0.1</v>
+      </c>
+      <c r="B171">
+        <v>5</v>
+      </c>
+      <c r="C171">
+        <v>1.4191596412868901</v>
+      </c>
+      <c r="D171">
+        <v>2.21205130623611</v>
+      </c>
+      <c r="E171">
+        <v>0.28710000000000002</v>
+      </c>
+      <c r="F171">
+        <v>0.71289999999999998</v>
+      </c>
+      <c r="G171">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H171">
+        <v>11.0479</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>0.1</v>
+      </c>
+      <c r="B172">
+        <v>6</v>
+      </c>
+      <c r="C172">
+        <v>1.3100738209323199</v>
+      </c>
+      <c r="D172">
+        <v>2.2852659795457</v>
+      </c>
+      <c r="E172">
+        <v>0.25159999999999999</v>
+      </c>
+      <c r="F172">
+        <v>0.74809999999999999</v>
+      </c>
+      <c r="G172">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H172">
+        <v>13.722200000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>0.1</v>
+      </c>
+      <c r="B173">
+        <v>7</v>
+      </c>
+      <c r="C173">
+        <v>1.21239442294928</v>
+      </c>
+      <c r="D173">
+        <v>2.3622081849726002</v>
+      </c>
+      <c r="E173">
+        <v>0.21959999999999999</v>
+      </c>
+      <c r="F173">
+        <v>0.7792</v>
+      </c>
+      <c r="G173">
+        <v>1E-3</v>
+      </c>
+      <c r="H173">
+        <v>16.514500000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>0.1</v>
+      </c>
+      <c r="B174">
+        <v>8</v>
+      </c>
+      <c r="C174">
+        <v>1.09624469234498</v>
+      </c>
+      <c r="D174">
+        <v>2.3241664089538698</v>
+      </c>
+      <c r="E174">
+        <v>0.1862</v>
+      </c>
+      <c r="F174">
+        <v>0.81079999999999997</v>
+      </c>
+      <c r="G174">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="H174">
+        <v>18.567599999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>0.1</v>
+      </c>
+      <c r="B175">
+        <v>9</v>
+      </c>
+      <c r="C175">
+        <v>1.0014675880506001</v>
+      </c>
+      <c r="D175">
+        <v>2.31732108054252</v>
+      </c>
+      <c r="E175">
+        <v>0.16980000000000001</v>
+      </c>
+      <c r="F175">
+        <v>0.82320000000000004</v>
+      </c>
+      <c r="G175">
+        <v>1E-4</v>
+      </c>
+      <c r="H175">
+        <v>20.855799999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>0.1</v>
+      </c>
+      <c r="B176">
+        <v>10</v>
+      </c>
+      <c r="C176">
+        <v>0.90676375253476604</v>
+      </c>
+      <c r="D176">
+        <v>2.2542326699009299</v>
+      </c>
+      <c r="E176">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="F176">
+        <v>0.8337</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>22.5868</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>0.1</v>
+      </c>
+      <c r="B177">
+        <v>20</v>
+      </c>
+      <c r="C177">
+        <v>0.48692527582501499</v>
+      </c>
+      <c r="D177">
+        <v>1.72884902619887</v>
+      </c>
+      <c r="E177">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="F177">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>34.4604</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>0.1</v>
+      </c>
+      <c r="B178">
+        <v>30</v>
+      </c>
+      <c r="C178">
+        <v>0.32613354367054698</v>
+      </c>
+      <c r="D178">
+        <v>1.20871797902724</v>
+      </c>
+      <c r="E178">
+        <v>3.8E-3</v>
+      </c>
+      <c r="F178">
+        <v>0.85289999999999999</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>36.314</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>0.1</v>
+      </c>
+      <c r="B179">
+        <v>40</v>
+      </c>
+      <c r="C179">
+        <v>0.243437459202893</v>
+      </c>
+      <c r="D179">
+        <v>0.90574631212995205</v>
+      </c>
+      <c r="E179">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F179">
+        <v>0.85009999999999997</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>36.175800000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>0.1</v>
+      </c>
+      <c r="B180">
+        <v>50</v>
+      </c>
+      <c r="C180">
+        <v>0.19322024429149401</v>
+      </c>
+      <c r="D180">
+        <v>0.71388670348610395</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0.85550000000000004</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>35.584099999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>0.1</v>
+      </c>
+      <c r="B181">
+        <v>60</v>
+      </c>
+      <c r="C181">
+        <v>0.16295539474659201</v>
+      </c>
+      <c r="D181">
+        <v>0.610314137397305</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0.85270000000000001</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>36.592100000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>0.1</v>
+      </c>
+      <c r="B182">
+        <v>70</v>
+      </c>
+      <c r="C182">
+        <v>0.13816333964550001</v>
+      </c>
+      <c r="D182">
+        <v>0.50691443117489399</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0.85919999999999996</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>35.429600000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>0.1</v>
+      </c>
+      <c r="B183">
+        <v>80</v>
+      </c>
+      <c r="C183">
+        <v>0.122556807986931</v>
+      </c>
+      <c r="D183">
+        <v>0.45505190014584601</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>36.485300000000002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>0.1</v>
+      </c>
+      <c r="B184">
+        <v>90</v>
+      </c>
+      <c r="C184">
+        <v>0.108659678235169</v>
+      </c>
+      <c r="D184">
+        <v>0.40664776986464302</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0.85209999999999997</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>36.609900000000003</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>0.1</v>
+      </c>
+      <c r="B185">
+        <v>100</v>
+      </c>
+      <c r="C185">
+        <v>9.8245876610921296E-2</v>
+      </c>
+      <c r="D185">
+        <v>0.366322332629751</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0.84960000000000002</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>36.572499999999998</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>0.5</v>
+      </c>
+      <c r="B186">
+        <v>1E-3</v>
+      </c>
+      <c r="C186">
+        <v>1.0010329204116999</v>
+      </c>
+      <c r="D186">
+        <v>1.0010329204116999</v>
+      </c>
+      <c r="E186">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F186">
+        <v>1E-4</v>
+      </c>
+      <c r="G186">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="H186">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>0.5</v>
+      </c>
+      <c r="B187">
+        <v>2E-3</v>
+      </c>
+      <c r="C187">
+        <v>1.0010044161151399</v>
+      </c>
+      <c r="D187">
+        <v>1.0010044161151399</v>
+      </c>
+      <c r="E187">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F187">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G187">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="H187">
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>0.5</v>
+      </c>
+      <c r="B188">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C188">
+        <v>1.0019169896886799</v>
+      </c>
+      <c r="D188">
+        <v>1.0019169896886799</v>
+      </c>
+      <c r="E188">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="F188">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="G188">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="H188">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>0.5</v>
+      </c>
+      <c r="B189">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C189">
+        <v>1.00197539639499</v>
+      </c>
+      <c r="D189">
+        <v>1.00197539639499</v>
+      </c>
+      <c r="E189">
+        <v>0.999</v>
+      </c>
+      <c r="F189">
+        <v>1E-3</v>
+      </c>
+      <c r="G189">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="H189">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>0.5</v>
+      </c>
+      <c r="B190">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C190">
+        <v>1.0039372845897201</v>
+      </c>
+      <c r="D190">
+        <v>1.0039372845897201</v>
+      </c>
+      <c r="E190">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="F190">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="G190">
+        <v>0.99490000000000001</v>
+      </c>
+      <c r="H190">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>0.5</v>
+      </c>
+      <c r="B191">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C191">
+        <v>1.00370515850513</v>
+      </c>
+      <c r="D191">
+        <v>1.00370515850513</v>
+      </c>
+      <c r="E191">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="F191">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="G191">
+        <v>0.99490000000000001</v>
+      </c>
+      <c r="H191">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>0.5</v>
+      </c>
+      <c r="B192">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C192">
+        <v>1.0048253827400999</v>
+      </c>
+      <c r="D192">
+        <v>1.0048253827400999</v>
+      </c>
+      <c r="E192">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="F192">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="G192">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="H192">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>0.5</v>
+      </c>
+      <c r="B193">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C193">
+        <v>1.01630221421751</v>
+      </c>
+      <c r="D193">
+        <v>1.0168331546242499</v>
+      </c>
+      <c r="E193">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="F193">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="G193">
+        <v>0.99150000000000005</v>
+      </c>
+      <c r="H193">
+        <v>8.6999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>0.5</v>
+      </c>
+      <c r="B194">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C194">
+        <v>1.0079674226414299</v>
+      </c>
+      <c r="D194">
+        <v>1.0079674226414299</v>
+      </c>
+      <c r="E194">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="F194">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G194">
+        <v>0.9919</v>
+      </c>
+      <c r="H194">
+        <v>8.0999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>0.5</v>
+      </c>
+      <c r="B195">
+        <v>0.01</v>
+      </c>
+      <c r="C195">
+        <v>1.0068922755176799</v>
+      </c>
+      <c r="D195">
+        <v>1.00704307974617</v>
+      </c>
+      <c r="E195">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="F195">
+        <v>1.8E-3</v>
+      </c>
+      <c r="G195">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="H195">
+        <v>1.06E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>0.5</v>
+      </c>
+      <c r="B196">
+        <v>0.02</v>
+      </c>
+      <c r="C196">
+        <v>1.03841571770463</v>
+      </c>
+      <c r="D196">
+        <v>1.03913298762414</v>
+      </c>
+      <c r="E196">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="F196">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="G196">
+        <v>0.97840000000000005</v>
+      </c>
+      <c r="H196">
+        <v>2.23E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>0.5</v>
+      </c>
+      <c r="B197">
+        <v>0.03</v>
+      </c>
+      <c r="C197">
+        <v>1.0413268264953399</v>
+      </c>
+      <c r="D197">
+        <v>1.0419898797671301</v>
+      </c>
+      <c r="E197">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="F197">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="G197">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="H197">
+        <v>3.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>0.5</v>
+      </c>
+      <c r="B198">
+        <v>0.04</v>
+      </c>
+      <c r="C198">
+        <v>1.0455485117171901</v>
+      </c>
+      <c r="D198">
+        <v>1.04657159019957</v>
+      </c>
+      <c r="E198">
+        <v>0.9919</v>
+      </c>
+      <c r="F198">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="G198">
+        <v>0.96440000000000003</v>
+      </c>
+      <c r="H198">
+        <v>3.85E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>0.5</v>
+      </c>
+      <c r="B199">
+        <v>0.05</v>
+      </c>
+      <c r="C199">
+        <v>1.07447895558892</v>
+      </c>
+      <c r="D199">
+        <v>1.0766172567002601</v>
+      </c>
+      <c r="E199">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="F199">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="G199">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="H199">
+        <v>5.3100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>0.5</v>
+      </c>
+      <c r="B200">
+        <v>0.06</v>
+      </c>
+      <c r="C200">
+        <v>1.06113187899547</v>
+      </c>
+      <c r="D200">
+        <v>1.06303712889034</v>
+      </c>
+      <c r="E200">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="F200">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="G200">
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="H200">
+        <v>6.3799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>0.5</v>
+      </c>
+      <c r="B201">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C201">
+        <v>1.0701954209734099</v>
+      </c>
+      <c r="D201">
+        <v>1.07236300307523</v>
+      </c>
+      <c r="E201">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="F201">
+        <v>1.14E-2</v>
+      </c>
+      <c r="G201">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="H201">
+        <v>7.6600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>0.5</v>
+      </c>
+      <c r="B202">
+        <v>0.08</v>
+      </c>
+      <c r="C202">
+        <v>1.06472974437658</v>
+      </c>
+      <c r="D202">
+        <v>1.0664472291268301</v>
+      </c>
+      <c r="E202">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="F202">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="G202">
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="H202">
+        <v>8.8800000000000004E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>0.5</v>
+      </c>
+      <c r="B203">
+        <v>0.09</v>
+      </c>
+      <c r="C203">
+        <v>1.07933626804897</v>
+      </c>
+      <c r="D203">
+        <v>1.0818962078460199</v>
+      </c>
+      <c r="E203">
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="F203">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="G203">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="H203">
+        <v>9.3700000000000006E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>0.5</v>
+      </c>
+      <c r="B204">
+        <v>0.1</v>
+      </c>
+      <c r="C204">
+        <v>1.0756445152323699</v>
+      </c>
+      <c r="D204">
+        <v>1.07815665427092</v>
+      </c>
+      <c r="E204">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="F204">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="G204">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="H204">
+        <v>0.1062</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>0.5</v>
+      </c>
+      <c r="B205">
+        <v>0.2</v>
+      </c>
+      <c r="C205">
+        <v>1.13668738890776</v>
+      </c>
+      <c r="D205">
+        <v>1.1442592722810401</v>
+      </c>
+      <c r="E205">
+        <v>0.96279999999999999</v>
+      </c>
+      <c r="F205">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="G205">
+        <v>0.81850000000000001</v>
+      </c>
+      <c r="H205">
+        <v>0.22989999999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>0.5</v>
+      </c>
+      <c r="B206">
+        <v>0.3</v>
+      </c>
+      <c r="C206">
+        <v>1.1946845238952899</v>
+      </c>
+      <c r="D206">
+        <v>1.20894167759404</v>
+      </c>
+      <c r="E206">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="F206">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G206">
+        <v>0.74080000000000001</v>
+      </c>
+      <c r="H206">
+        <v>0.36370000000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>0.5</v>
+      </c>
+      <c r="B207">
+        <v>0.4</v>
+      </c>
+      <c r="C207">
+        <v>1.2226154060080701</v>
+      </c>
+      <c r="D207">
+        <v>1.24227566093624</v>
+      </c>
+      <c r="E207">
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="F207">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="G207">
+        <v>0.67149999999999999</v>
+      </c>
+      <c r="H207">
+        <v>0.48920000000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>0.5</v>
+      </c>
+      <c r="B208">
+        <v>0.5</v>
+      </c>
+      <c r="C208">
+        <v>1.2699587408933299</v>
+      </c>
+      <c r="D208">
+        <v>1.3004687362622001</v>
+      </c>
+      <c r="E208">
+        <v>0.9093</v>
+      </c>
+      <c r="F208">
+        <v>9.0700000000000003E-2</v>
+      </c>
+      <c r="G208">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="H208">
+        <v>0.65429999999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>0.5</v>
+      </c>
+      <c r="B209">
+        <v>0.6</v>
+      </c>
+      <c r="C209">
+        <v>1.3190697610187101</v>
+      </c>
+      <c r="D209">
+        <v>1.3605005203892899</v>
+      </c>
+      <c r="E209">
+        <v>0.88929999999999998</v>
+      </c>
+      <c r="F209">
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="G209">
+        <v>0.53859999999999997</v>
+      </c>
+      <c r="H209">
+        <v>0.82850000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>0.5</v>
+      </c>
+      <c r="B210">
+        <v>0.7</v>
+      </c>
+      <c r="C210">
+        <v>1.3465452716872801</v>
+      </c>
+      <c r="D210">
+        <v>1.3963435699373099</v>
+      </c>
+      <c r="E210">
+        <v>0.872</v>
+      </c>
+      <c r="F210">
+        <v>0.128</v>
+      </c>
+      <c r="G210">
+        <v>0.49530000000000002</v>
+      </c>
+      <c r="H210">
+        <v>0.98570000000000002</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>0.5</v>
+      </c>
+      <c r="B211">
+        <v>0.8</v>
+      </c>
+      <c r="C211">
+        <v>1.3807048395197701</v>
+      </c>
+      <c r="D211">
+        <v>1.44287352921564</v>
+      </c>
+      <c r="E211">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="F211">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="G211">
+        <v>0.44350000000000001</v>
+      </c>
+      <c r="H211">
+        <v>1.1536999999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>0.5</v>
+      </c>
+      <c r="B212">
+        <v>0.9</v>
+      </c>
+      <c r="C212">
+        <v>1.39684333146043</v>
+      </c>
+      <c r="D212">
+        <v>1.46775603907324</v>
+      </c>
+      <c r="E212">
+        <v>0.84389999999999998</v>
+      </c>
+      <c r="F212">
+        <v>0.15609999999999999</v>
+      </c>
+      <c r="G212">
+        <v>0.40060000000000001</v>
+      </c>
+      <c r="H212">
+        <v>1.3268</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>0.5</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>1.42411521105774</v>
+      </c>
+      <c r="D213">
+        <v>1.5089421223582</v>
+      </c>
+      <c r="E213">
+        <v>0.82379999999999998</v>
+      </c>
+      <c r="F213">
+        <v>0.1762</v>
+      </c>
+      <c r="G213">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="H213">
+        <v>1.5228999999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>0.5</v>
+      </c>
+      <c r="B214">
+        <v>2</v>
+      </c>
+      <c r="C214">
+        <v>1.55974261886656</v>
+      </c>
+      <c r="D214">
+        <v>1.77977968994641</v>
+      </c>
+      <c r="E214">
+        <v>0.67290000000000005</v>
+      </c>
+      <c r="F214">
+        <v>0.3271</v>
+      </c>
+      <c r="G214">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="H214">
+        <v>3.5642999999999998</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>0.5</v>
+      </c>
+      <c r="B215">
+        <v>3</v>
+      </c>
+      <c r="C215">
+        <v>1.5626734217045499</v>
+      </c>
+      <c r="D215">
+        <v>1.9193734738389601</v>
+      </c>
+      <c r="E215">
+        <v>0.57550000000000001</v>
+      </c>
+      <c r="F215">
+        <v>0.42449999999999999</v>
+      </c>
+      <c r="G215">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="H215">
+        <v>5.7138999999999998</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>0.5</v>
+      </c>
+      <c r="B216">
+        <v>4</v>
+      </c>
+      <c r="C216">
+        <v>1.5555962926908</v>
+      </c>
+      <c r="D216">
+        <v>2.0780906332853499</v>
+      </c>
+      <c r="E216">
+        <v>0.49340000000000001</v>
+      </c>
+      <c r="F216">
+        <v>0.50660000000000005</v>
+      </c>
+      <c r="G216">
+        <v>1.78E-2</v>
+      </c>
+      <c r="H216">
+        <v>8.3112999999999992</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>0.5</v>
+      </c>
+      <c r="B217">
+        <v>5</v>
+      </c>
+      <c r="C217">
+        <v>1.4841856538088001</v>
+      </c>
+      <c r="D217">
+        <v>2.1702113148853202</v>
+      </c>
+      <c r="E217">
+        <v>0.43</v>
+      </c>
+      <c r="F217">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G217">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="H217">
+        <v>10.845700000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>0.5</v>
+      </c>
+      <c r="B218">
+        <v>6</v>
+      </c>
+      <c r="C218">
+        <v>1.4019699824260401</v>
+      </c>
+      <c r="D218">
+        <v>2.2114937928307699</v>
+      </c>
+      <c r="E218">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="F218">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="G218">
+        <v>2.8E-3</v>
+      </c>
+      <c r="H218">
+        <v>13.204800000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>0.5</v>
+      </c>
+      <c r="B219">
+        <v>7</v>
+      </c>
+      <c r="C219">
+        <v>1.30639707402161</v>
+      </c>
+      <c r="D219">
+        <v>2.2436796258764802</v>
+      </c>
+      <c r="E219">
+        <v>0.34010000000000001</v>
+      </c>
+      <c r="F219">
+        <v>0.65949999999999998</v>
+      </c>
+      <c r="G219">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="H219">
+        <v>15.770300000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>0.5</v>
+      </c>
+      <c r="B220">
+        <v>8</v>
+      </c>
+      <c r="C220">
+        <v>1.2235917393039499</v>
+      </c>
+      <c r="D220">
+        <v>2.2914789693192201</v>
+      </c>
+      <c r="E220">
+        <v>0.307</v>
+      </c>
+      <c r="F220">
+        <v>0.69279999999999997</v>
+      </c>
+      <c r="G220">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H220">
+        <v>18.363499999999998</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>0.5</v>
+      </c>
+      <c r="B221">
+        <v>9</v>
+      </c>
+      <c r="C221">
+        <v>1.13498953570822</v>
+      </c>
+      <c r="D221">
+        <v>2.2775566153102802</v>
+      </c>
+      <c r="E221">
+        <v>0.28710000000000002</v>
+      </c>
+      <c r="F221">
+        <v>0.71140000000000003</v>
+      </c>
+      <c r="G221">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H221">
+        <v>20.5167</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>0.5</v>
+      </c>
+      <c r="B222">
+        <v>10</v>
+      </c>
+      <c r="C222">
+        <v>1.07993193921805</v>
+      </c>
+      <c r="D222">
+        <v>2.35595266672708</v>
+      </c>
+      <c r="E222">
+        <v>0.26419999999999999</v>
+      </c>
+      <c r="F222">
+        <v>0.73260000000000003</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>23.4832</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>0.5</v>
+      </c>
+      <c r="B223">
+        <v>20</v>
+      </c>
+      <c r="C223">
+        <v>0.59614409609588803</v>
+      </c>
+      <c r="D223">
+        <v>2.0684023825306102</v>
+      </c>
+      <c r="E223">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="F223">
+        <v>0.80089999999999995</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>41.393599999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>0.5</v>
+      </c>
+      <c r="B224">
+        <v>30</v>
+      </c>
+      <c r="C224">
+        <v>0.39486811465632699</v>
+      </c>
+      <c r="D224">
+        <v>1.5149848567704101</v>
+      </c>
+      <c r="E224">
+        <v>2.35E-2</v>
+      </c>
+      <c r="F224">
+        <v>0.80469999999999997</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>45.358600000000003</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>0.5</v>
+      </c>
+      <c r="B225">
+        <v>40</v>
+      </c>
+      <c r="C225">
+        <v>0.29576304016091798</v>
+      </c>
+      <c r="D225">
+        <v>1.1613063981398599</v>
+      </c>
+      <c r="E225">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="F225">
+        <v>0.80169999999999997</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>46.497700000000002</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>0.5</v>
+      </c>
+      <c r="B226">
+        <v>50</v>
+      </c>
+      <c r="C226">
+        <v>0.24081268692816599</v>
+      </c>
+      <c r="D226">
+        <v>0.96454564355231998</v>
+      </c>
+      <c r="E226">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F226">
+        <v>0.79549999999999998</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>48.068300000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>0.5</v>
+      </c>
+      <c r="B227">
+        <v>60</v>
+      </c>
+      <c r="C227">
+        <v>0.197713843988257</v>
+      </c>
+      <c r="D227">
+        <v>0.78031384770258005</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>0.79910000000000003</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>47.007599999999996</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>0.5</v>
+      </c>
+      <c r="B228">
+        <v>70</v>
+      </c>
+      <c r="C228">
+        <v>0.171199027051814</v>
+      </c>
+      <c r="D228">
+        <v>0.67536339493667796</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>0.80349999999999999</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>47.309100000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>0.5</v>
+      </c>
+      <c r="B229">
+        <v>80</v>
+      </c>
+      <c r="C229">
+        <v>0.15085089683826999</v>
+      </c>
+      <c r="D229">
+        <v>0.59858618274553699</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0.79920000000000002</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>47.907200000000003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>0.5</v>
+      </c>
+      <c r="B230">
+        <v>90</v>
+      </c>
+      <c r="C230">
+        <v>0.13305017564944699</v>
+      </c>
+      <c r="D230">
+        <v>0.52825762038010304</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0.79769999999999996</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>47.46</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>0.5</v>
+      </c>
+      <c r="B231">
+        <v>100</v>
+      </c>
+      <c r="C231">
+        <v>0.120227964574861</v>
+      </c>
+      <c r="D231">
+        <v>0.47474761739974303</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>47.525599999999997</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>0.9</v>
+      </c>
+      <c r="B232">
+        <v>1E-3</v>
+      </c>
+      <c r="C232">
+        <v>1.00002519824568</v>
+      </c>
+      <c r="D232">
+        <v>1.00002519824568</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="H232">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>0.9</v>
+      </c>
+      <c r="B233">
+        <v>2E-3</v>
+      </c>
+      <c r="C233">
+        <v>1.00028499927954</v>
+      </c>
+      <c r="D233">
+        <v>1.00028499927954</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="H233">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>0.9</v>
+      </c>
+      <c r="B234">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C234">
+        <v>0.99999768428436997</v>
+      </c>
+      <c r="D234">
+        <v>0.99999768428436997</v>
+      </c>
+      <c r="E234">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F234">
+        <v>1E-4</v>
+      </c>
+      <c r="G234">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="H234">
+        <v>2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>0.9</v>
+      </c>
+      <c r="B235">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C235">
+        <v>1.00028454392371</v>
+      </c>
+      <c r="D235">
+        <v>1.00028454392371</v>
+      </c>
+      <c r="E235">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F235">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G235">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="H235">
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>0.9</v>
+      </c>
+      <c r="B236">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C236">
+        <v>1.0016426481073299</v>
+      </c>
+      <c r="D236">
+        <v>1.0016426481073299</v>
+      </c>
+      <c r="E236">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F236">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G236">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="H236">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>0.9</v>
+      </c>
+      <c r="B237">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C237">
+        <v>1.00010314233388</v>
+      </c>
+      <c r="D237">
+        <v>1.00010314233388</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>0.995</v>
+      </c>
+      <c r="H237">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>0.9</v>
+      </c>
+      <c r="B238">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C238">
+        <v>1.00176109691827</v>
+      </c>
+      <c r="D238">
+        <v>1.00176109691827</v>
+      </c>
+      <c r="E238">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F238">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G238">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="H238">
+        <v>7.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>0.9</v>
+      </c>
+      <c r="B239">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C239">
+        <v>1.0020870093613701</v>
+      </c>
+      <c r="D239">
+        <v>1.0020870093613701</v>
+      </c>
+      <c r="E239">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F239">
+        <v>1E-4</v>
+      </c>
+      <c r="G239">
+        <v>0.9929</v>
+      </c>
+      <c r="H239">
+        <v>7.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>0.9</v>
+      </c>
+      <c r="B240">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C240">
+        <v>1.00518602385769</v>
+      </c>
+      <c r="D240">
+        <v>1.00518956213671</v>
+      </c>
+      <c r="E240">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F240">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G240">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="H240">
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>0.9</v>
+      </c>
+      <c r="B241">
+        <v>0.01</v>
+      </c>
+      <c r="C241">
+        <v>1.0010597783744499</v>
+      </c>
+      <c r="D241">
+        <v>1.0010597783744499</v>
+      </c>
+      <c r="E241">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F241">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G241">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="H241">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>0.9</v>
+      </c>
+      <c r="B242">
+        <v>0.02</v>
+      </c>
+      <c r="C242">
+        <v>1.0024953403104799</v>
+      </c>
+      <c r="D242">
+        <v>1.0025683969463299</v>
+      </c>
+      <c r="E242">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="F242">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="G242">
+        <v>0.98260000000000003</v>
+      </c>
+      <c r="H242">
+        <v>1.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>0.9</v>
+      </c>
+      <c r="B243">
+        <v>0.03</v>
+      </c>
+      <c r="C243">
+        <v>1.0048736125439499</v>
+      </c>
+      <c r="D243">
+        <v>1.00504474844422</v>
+      </c>
+      <c r="E243">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="F243">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G243">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="H243">
+        <v>3.3300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>0.9</v>
+      </c>
+      <c r="B244">
+        <v>0.04</v>
+      </c>
+      <c r="C244">
+        <v>1.00702433763177</v>
+      </c>
+      <c r="D244">
+        <v>1.0072027623572399</v>
+      </c>
+      <c r="E244">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="F244">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G244">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="H244">
+        <v>4.1099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>0.9</v>
+      </c>
+      <c r="B245">
+        <v>0.05</v>
+      </c>
+      <c r="C245">
+        <v>1.0061468255822701</v>
+      </c>
+      <c r="D245">
+        <v>1.0062318821370799</v>
+      </c>
+      <c r="E245">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="F245">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="G245">
+        <v>0.95289999999999997</v>
+      </c>
+      <c r="H245">
+        <v>4.8599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>0.9</v>
+      </c>
+      <c r="B246">
+        <v>0.06</v>
+      </c>
+      <c r="C246">
+        <v>1.01228296403716</v>
+      </c>
+      <c r="D246">
+        <v>1.01285461376626</v>
+      </c>
+      <c r="E246">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="F246">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G246">
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="H246">
+        <v>6.0600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>0.9</v>
+      </c>
+      <c r="B247">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C247">
+        <v>1.0099810493052499</v>
+      </c>
+      <c r="D247">
+        <v>1.01038266224421</v>
+      </c>
+      <c r="E247">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="F247">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="G247">
+        <v>0.93379999999999996</v>
+      </c>
+      <c r="H247">
+        <v>6.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>0.9</v>
+      </c>
+      <c r="B248">
+        <v>0.08</v>
+      </c>
+      <c r="C248">
+        <v>1.01750628151115</v>
+      </c>
+      <c r="D248">
+        <v>1.0185291515854999</v>
+      </c>
+      <c r="E248">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="F248">
+        <v>1.8E-3</v>
+      </c>
+      <c r="G248">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="H248">
+        <v>7.8700000000000006E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>0.9</v>
+      </c>
+      <c r="B249">
+        <v>0.09</v>
+      </c>
+      <c r="C249">
+        <v>1.0131007564446</v>
+      </c>
+      <c r="D249">
+        <v>1.01346786267634</v>
+      </c>
+      <c r="E249">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="F249">
+        <v>1.9E-3</v>
+      </c>
+      <c r="G249">
+        <v>0.9123</v>
+      </c>
+      <c r="H249">
+        <v>9.1800000000000007E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>0.9</v>
+      </c>
+      <c r="B250">
+        <v>0.1</v>
+      </c>
+      <c r="C250">
+        <v>1.02394516404097</v>
+      </c>
+      <c r="D250">
+        <v>1.0253328849956</v>
+      </c>
+      <c r="E250">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="F250">
+        <v>2.3E-3</v>
+      </c>
+      <c r="G250">
+        <v>0.90169999999999995</v>
+      </c>
+      <c r="H250">
+        <v>0.10489999999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>0.9</v>
+      </c>
+      <c r="B251">
+        <v>0.2</v>
+      </c>
+      <c r="C251">
+        <v>1.0301734944555101</v>
+      </c>
+      <c r="D251">
+        <v>1.0330945628338299</v>
+      </c>
+      <c r="E251">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="F251">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="G251">
+        <v>0.82220000000000004</v>
+      </c>
+      <c r="H251">
+        <v>0.20280000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>0.9</v>
+      </c>
+      <c r="B252">
+        <v>0.3</v>
+      </c>
+      <c r="C252">
+        <v>1.03402470051955</v>
+      </c>
+      <c r="D252">
+        <v>1.0374744927999</v>
+      </c>
+      <c r="E252">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="F252">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="G252">
+        <v>0.7429</v>
+      </c>
+      <c r="H252">
+        <v>0.30959999999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>0.9</v>
+      </c>
+      <c r="B253">
+        <v>0.4</v>
+      </c>
+      <c r="C253">
+        <v>1.0557752961236</v>
+      </c>
+      <c r="D253">
+        <v>1.06479060315626</v>
+      </c>
+      <c r="E253">
+        <v>0.99</v>
+      </c>
+      <c r="F253">
+        <v>0.01</v>
+      </c>
+      <c r="G253">
+        <v>0.68220000000000003</v>
+      </c>
+      <c r="H253">
+        <v>0.40860000000000002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>0.9</v>
+      </c>
+      <c r="B254">
+        <v>0.5</v>
+      </c>
+      <c r="C254">
+        <v>1.05726648363182</v>
+      </c>
+      <c r="D254">
+        <v>1.0681663394401499</v>
+      </c>
+      <c r="E254">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="F254">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G254">
+        <v>0.60809999999999997</v>
+      </c>
+      <c r="H254">
+        <v>0.53249999999999997</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>0.9</v>
+      </c>
+      <c r="B255">
+        <v>0.6</v>
+      </c>
+      <c r="C255">
+        <v>1.07626231314031</v>
+      </c>
+      <c r="D255">
+        <v>1.0921885600631001</v>
+      </c>
+      <c r="E255">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="F255">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="G255">
+        <v>0.54790000000000005</v>
+      </c>
+      <c r="H255">
+        <v>0.65149999999999997</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>0.9</v>
+      </c>
+      <c r="B256">
+        <v>0.7</v>
+      </c>
+      <c r="C256">
+        <v>1.0721983387062699</v>
+      </c>
+      <c r="D256">
+        <v>1.08985015613531</v>
+      </c>
+      <c r="E256">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F256">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G256">
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="H256">
+        <v>0.75890000000000002</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>0.9</v>
+      </c>
+      <c r="B257">
+        <v>0.8</v>
+      </c>
+      <c r="C257">
+        <v>1.0835034302206501</v>
+      </c>
+      <c r="D257">
+        <v>1.10674929065148</v>
+      </c>
+      <c r="E257">
+        <v>0.97870000000000001</v>
+      </c>
+      <c r="F257">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="G257">
+        <v>0.45529999999999998</v>
+      </c>
+      <c r="H257">
+        <v>0.88029999999999997</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>0.9</v>
+      </c>
+      <c r="B258">
+        <v>0.9</v>
+      </c>
+      <c r="C258">
+        <v>1.0820394063088601</v>
+      </c>
+      <c r="D258">
+        <v>1.1063490327518699</v>
+      </c>
+      <c r="E258">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="F258">
+        <v>2.18E-2</v>
+      </c>
+      <c r="G258">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="H258">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>0.9</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>1.0961889118006001</v>
+      </c>
+      <c r="D259">
+        <v>1.12854423643137</v>
+      </c>
+      <c r="E259">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="F259">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="G259">
+        <v>0.35920000000000002</v>
+      </c>
+      <c r="H259">
+        <v>1.1285000000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>0.9</v>
+      </c>
+      <c r="B260">
+        <v>2</v>
+      </c>
+      <c r="C260">
+        <v>1.1487363814034299</v>
+      </c>
+      <c r="D260">
+        <v>1.2445139436061701</v>
+      </c>
+      <c r="E260">
+        <v>0.94269999999999998</v>
+      </c>
+      <c r="F260">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="G260">
+        <v>0.1348</v>
+      </c>
+      <c r="H260">
+        <v>2.5164</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>0.9</v>
+      </c>
+      <c r="B261">
+        <v>3</v>
+      </c>
+      <c r="C261">
+        <v>1.17772190708063</v>
+      </c>
+      <c r="D261">
+        <v>1.3502560718752199</v>
+      </c>
+      <c r="E261">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="F261">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G261">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="H261">
+        <v>4.0528000000000004</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>0.9</v>
+      </c>
+      <c r="B262">
+        <v>4</v>
+      </c>
+      <c r="C262">
+        <v>1.18318794141519</v>
+      </c>
+      <c r="D262">
+        <v>1.4296886948240799</v>
+      </c>
+      <c r="E262">
+        <v>0.88109999999999999</v>
+      </c>
+      <c r="F262">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="G262">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="H262">
+        <v>5.7218999999999998</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>0.9</v>
+      </c>
+      <c r="B263">
+        <v>5</v>
+      </c>
+      <c r="C263">
+        <v>1.1895147931294101</v>
+      </c>
+      <c r="D263">
+        <v>1.5349603045664499</v>
+      </c>
+      <c r="E263">
+        <v>0.84409999999999996</v>
+      </c>
+      <c r="F263">
+        <v>0.15590000000000001</v>
+      </c>
+      <c r="G263">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="H263">
+        <v>7.6349999999999998</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>0.9</v>
+      </c>
+      <c r="B264">
+        <v>6</v>
+      </c>
+      <c r="C264">
+        <v>1.1738649229718101</v>
+      </c>
+      <c r="D264">
+        <v>1.6007287858103101</v>
+      </c>
+      <c r="E264">
+        <v>0.81559999999999999</v>
+      </c>
+      <c r="F264">
+        <v>0.18440000000000001</v>
+      </c>
+      <c r="G264">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="H264">
+        <v>9.5829000000000004</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>0.9</v>
+      </c>
+      <c r="B265">
+        <v>7</v>
+      </c>
+      <c r="C265">
+        <v>1.1669831265823301</v>
+      </c>
+      <c r="D265">
+        <v>1.6913135120970799</v>
+      </c>
+      <c r="E265">
+        <v>0.77969999999999995</v>
+      </c>
+      <c r="F265">
+        <v>0.2203</v>
+      </c>
+      <c r="G265">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H265">
+        <v>11.856</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>0.9</v>
+      </c>
+      <c r="B266">
+        <v>8</v>
+      </c>
+      <c r="C266">
+        <v>1.1360564405181901</v>
+      </c>
+      <c r="D266">
+        <v>1.7492558188829399</v>
+      </c>
+      <c r="E266">
+        <v>0.75249999999999995</v>
+      </c>
+      <c r="F266">
+        <v>0.2475</v>
+      </c>
+      <c r="G266">
+        <v>1E-4</v>
+      </c>
+      <c r="H266">
+        <v>14.037599999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>0.9</v>
+      </c>
+      <c r="B267">
+        <v>9</v>
+      </c>
+      <c r="C267">
+        <v>1.10634770136534</v>
+      </c>
+      <c r="D267">
+        <v>1.7843939178438</v>
+      </c>
+      <c r="E267">
+        <v>0.72409999999999997</v>
+      </c>
+      <c r="F267">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="G267">
+        <v>1E-4</v>
+      </c>
+      <c r="H267">
+        <v>16.076000000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>0.9</v>
+      </c>
+      <c r="B268">
+        <v>10</v>
+      </c>
+      <c r="C268">
+        <v>1.0861172574397899</v>
+      </c>
+      <c r="D268">
+        <v>1.8721208546914301</v>
+      </c>
+      <c r="E268">
+        <v>0.68620000000000003</v>
+      </c>
+      <c r="F268">
+        <v>0.31359999999999999</v>
+      </c>
+      <c r="G268">
+        <v>1E-4</v>
+      </c>
+      <c r="H268">
+        <v>18.673999999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>0.9</v>
+      </c>
+      <c r="B269">
+        <v>20</v>
+      </c>
+      <c r="C269">
+        <v>0.77859199981137694</v>
+      </c>
+      <c r="D269">
+        <v>2.17958500402773</v>
+      </c>
+      <c r="E269">
+        <v>0.49270000000000003</v>
+      </c>
+      <c r="F269">
+        <v>0.48680000000000001</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>43.558300000000003</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>0.9</v>
+      </c>
+      <c r="B270">
+        <v>30</v>
+      </c>
+      <c r="C270">
+        <v>0.55958250339065796</v>
+      </c>
+      <c r="D270">
+        <v>2.0795662738590299</v>
+      </c>
+      <c r="E270">
+        <v>0.3306</v>
+      </c>
+      <c r="F270">
+        <v>0.56089999999999995</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>62.348799999999997</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>0.9</v>
+      </c>
+      <c r="B271">
+        <v>40</v>
+      </c>
+      <c r="C271">
+        <v>0.42712163024267003</v>
+      </c>
+      <c r="D271">
+        <v>1.89277438531786</v>
+      </c>
+      <c r="E271">
+        <v>0.2009</v>
+      </c>
+      <c r="F271">
+        <v>0.57040000000000002</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>75.913600000000002</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>0.9</v>
+      </c>
+      <c r="B272">
+        <v>50</v>
+      </c>
+      <c r="C272">
+        <v>0.34246240047314203</v>
+      </c>
+      <c r="D272">
+        <v>1.6238951586486401</v>
+      </c>
+      <c r="E272">
+        <v>0.109</v>
+      </c>
+      <c r="F272">
+        <v>0.58650000000000002</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>81.218000000000004</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>0.9</v>
+      </c>
+      <c r="B273">
+        <v>60</v>
+      </c>
+      <c r="C273">
+        <v>0.28681122877812698</v>
+      </c>
+      <c r="D273">
+        <v>1.42184540024146</v>
+      </c>
+      <c r="E273">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F273">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>85.302099999999996</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>0.9</v>
+      </c>
+      <c r="B274">
+        <v>70</v>
+      </c>
+      <c r="C274">
+        <v>0.24580721312317</v>
+      </c>
+      <c r="D274">
+        <v>1.2310270557296801</v>
+      </c>
+      <c r="E274">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="F274">
+        <v>0.57430000000000003</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>86.1952</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>0.9</v>
+      </c>
+      <c r="B275">
+        <v>80</v>
+      </c>
+      <c r="C275">
+        <v>0.21454606196269299</v>
+      </c>
+      <c r="D275">
+        <v>1.07543690691867</v>
+      </c>
+      <c r="E275">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="F275">
+        <v>0.58079999999999998</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="H275">
+        <v>86.054400000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>0.9</v>
+      </c>
+      <c r="B276">
+        <v>90</v>
+      </c>
+      <c r="C276">
+        <v>0.190970862841329</v>
+      </c>
+      <c r="D276">
+        <v>0.96201756540905903</v>
+      </c>
+      <c r="E276">
+        <v>2.3E-3</v>
+      </c>
+      <c r="F276">
+        <v>0.5756</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>86.577699999999993</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>0.9</v>
+      </c>
+      <c r="B277">
+        <v>100</v>
+      </c>
+      <c r="C277">
+        <v>0.17302186274792999</v>
+      </c>
+      <c r="D277">
+        <v>0.873088719292613</v>
+      </c>
+      <c r="E277">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F277">
+        <v>0.57530000000000003</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>87.257999999999996</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>0.99</v>
+      </c>
+      <c r="B278">
+        <v>1E-3</v>
+      </c>
+      <c r="C278">
+        <v>1.0000004342372599</v>
+      </c>
+      <c r="D278">
+        <v>1.0000004342372599</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="H278">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>0.99</v>
+      </c>
+      <c r="B279">
+        <v>2E-3</v>
+      </c>
+      <c r="C279">
+        <v>1.00029591248078</v>
+      </c>
+      <c r="D279">
+        <v>1.00029591248078</v>
+      </c>
+      <c r="E279">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F279">
+        <v>1E-4</v>
+      </c>
+      <c r="G279">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="H279">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>0.99</v>
+      </c>
+      <c r="B280">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C280">
+        <v>1.00000445015753</v>
+      </c>
+      <c r="D280">
+        <v>1.00000445015753</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="H280">
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>0.99</v>
+      </c>
+      <c r="B281">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C281">
+        <v>1.00000607476298</v>
+      </c>
+      <c r="D281">
+        <v>1.00000607476298</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="H281">
+        <v>4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>0.99</v>
+      </c>
+      <c r="B282">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C282">
+        <v>1.00005371627863</v>
+      </c>
+      <c r="D282">
+        <v>1.00005585875293</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="H282">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>0.99</v>
+      </c>
+      <c r="B283">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C283">
+        <v>1.0000238873749401</v>
+      </c>
+      <c r="D283">
+        <v>1.0000238873749401</v>
+      </c>
+      <c r="E283">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F283">
+        <v>1E-4</v>
+      </c>
+      <c r="G283">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="H283">
+        <v>6.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>0.99</v>
+      </c>
+      <c r="B284">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C284">
+        <v>1.0011487896740501</v>
+      </c>
+      <c r="D284">
+        <v>1.0011487896740501</v>
+      </c>
+      <c r="E284">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F284">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G284">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="H284">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>0.99</v>
+      </c>
+      <c r="B285">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C285">
+        <v>1.00003037830024</v>
+      </c>
+      <c r="D285">
+        <v>1.00003037830024</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="H285">
+        <v>8.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>0.99</v>
+      </c>
+      <c r="B286">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C286">
+        <v>1.0000451513406301</v>
+      </c>
+      <c r="D286">
+        <v>1.0000451513406301</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0.9899</v>
+      </c>
+      <c r="H286">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>0.99</v>
+      </c>
+      <c r="B287">
+        <v>0.01</v>
+      </c>
+      <c r="C287">
+        <v>1.00001113066542</v>
+      </c>
+      <c r="D287">
+        <v>1.0000144400853801</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>0.98960000000000004</v>
+      </c>
+      <c r="H287">
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>0.99</v>
+      </c>
+      <c r="B288">
+        <v>0.02</v>
+      </c>
+      <c r="C288">
+        <v>1.0002356994855</v>
+      </c>
+      <c r="D288">
+        <v>1.00024456093686</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="H288">
+        <v>1.9900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>0.99</v>
+      </c>
+      <c r="B289">
+        <v>0.03</v>
+      </c>
+      <c r="C289">
+        <v>1.0003991385194499</v>
+      </c>
+      <c r="D289">
+        <v>1.0004318430375601</v>
+      </c>
+      <c r="E289">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F289">
+        <v>1E-4</v>
+      </c>
+      <c r="G289">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="H289">
+        <v>2.9499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>0.99</v>
+      </c>
+      <c r="B290">
+        <v>0.04</v>
+      </c>
+      <c r="C290">
+        <v>1.0005195249821</v>
+      </c>
+      <c r="D290">
+        <v>1.00056624031909</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="H290">
+        <v>4.24E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>0.99</v>
+      </c>
+      <c r="B291">
+        <v>0.05</v>
+      </c>
+      <c r="C291">
+        <v>1.0003478377187001</v>
+      </c>
+      <c r="D291">
+        <v>1.00039733616642</v>
+      </c>
+      <c r="E291">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F291">
+        <v>1E-4</v>
+      </c>
+      <c r="G291">
+        <v>0.95240000000000002</v>
+      </c>
+      <c r="H291">
+        <v>4.9099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>0.99</v>
+      </c>
+      <c r="B292">
+        <v>0.06</v>
+      </c>
+      <c r="C292">
+        <v>1.0060916893249401</v>
+      </c>
+      <c r="D292">
+        <v>1.0067457326735401</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>0.94020000000000004</v>
+      </c>
+      <c r="H292">
+        <v>6.2799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>0.99</v>
+      </c>
+      <c r="B293">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C293">
+        <v>1.0003217488846601</v>
+      </c>
+      <c r="D293">
+        <v>1.0003788429215901</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>0.93189999999999995</v>
+      </c>
+      <c r="H293">
+        <v>6.9800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>0.99</v>
+      </c>
+      <c r="B294">
+        <v>0.08</v>
+      </c>
+      <c r="C294">
+        <v>1.00269090461346</v>
+      </c>
+      <c r="D294">
+        <v>1.0031236317301699</v>
+      </c>
+      <c r="E294">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F294">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G294">
+        <v>0.92079999999999995</v>
+      </c>
+      <c r="H294">
+        <v>8.3099999999999993E-2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>0.99</v>
+      </c>
+      <c r="B295">
+        <v>0.09</v>
+      </c>
+      <c r="C295">
+        <v>1.0032737655019299</v>
+      </c>
+      <c r="D295">
+        <v>1.0034431395540599</v>
+      </c>
+      <c r="E295">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F295">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G295">
+        <v>0.91169999999999995</v>
+      </c>
+      <c r="H295">
+        <v>9.2200000000000004E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>0.99</v>
+      </c>
+      <c r="B296">
+        <v>0.1</v>
+      </c>
+      <c r="C296">
+        <v>1.00099391003511</v>
+      </c>
+      <c r="D296">
+        <v>1.0011281873854601</v>
+      </c>
+      <c r="E296">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F296">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G296">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="H296">
+        <v>0.1028</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>0.99</v>
+      </c>
+      <c r="B297">
+        <v>0.2</v>
+      </c>
+      <c r="C297">
+        <v>1.0050724094502099</v>
+      </c>
+      <c r="D297">
+        <v>1.00813304782405</v>
+      </c>
+      <c r="E297">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F297">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G297">
+        <v>0.81820000000000004</v>
+      </c>
+      <c r="H297">
+        <v>0.2026</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>0.99</v>
+      </c>
+      <c r="B298">
+        <v>0.3</v>
+      </c>
+      <c r="C298">
+        <v>1.0019803881642</v>
+      </c>
+      <c r="D298">
+        <v>1.00344339937731</v>
+      </c>
+      <c r="E298">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F298">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G298">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="H298">
+        <v>0.2954</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>0.99</v>
+      </c>
+      <c r="B299">
+        <v>0.4</v>
+      </c>
+      <c r="C299">
+        <v>1.0038911592501401</v>
+      </c>
+      <c r="D299">
+        <v>1.00772692082626</v>
+      </c>
+      <c r="E299">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="F299">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G299">
+        <v>0.67420000000000002</v>
+      </c>
+      <c r="H299">
+        <v>0.40029999999999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>0.99</v>
+      </c>
+      <c r="B300">
+        <v>0.5</v>
+      </c>
+      <c r="C300">
+        <v>1.0031016466451299</v>
+      </c>
+      <c r="D300">
+        <v>1.00722312904856</v>
+      </c>
+      <c r="E300">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F300">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G300">
+        <v>0.60609999999999997</v>
+      </c>
+      <c r="H300">
+        <v>0.49809999999999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>0.99</v>
+      </c>
+      <c r="B301">
+        <v>0.6</v>
+      </c>
+      <c r="C301">
+        <v>1.0030030963856</v>
+      </c>
+      <c r="D301">
+        <v>1.00943401323661</v>
+      </c>
+      <c r="E301">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="F301">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="G301">
+        <v>0.54720000000000002</v>
+      </c>
+      <c r="H301">
+        <v>0.60570000000000002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>0.99</v>
+      </c>
+      <c r="B302">
+        <v>0.7</v>
+      </c>
+      <c r="C302">
+        <v>1.0014462372057999</v>
+      </c>
+      <c r="D302">
+        <v>1.00904958816548</v>
+      </c>
+      <c r="E302">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="F302">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="G302">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="H302">
+        <v>0.71930000000000005</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>0.99</v>
+      </c>
+      <c r="B303">
+        <v>0.8</v>
+      </c>
+      <c r="C303">
+        <v>1.0006741229198699</v>
+      </c>
+      <c r="D303">
+        <v>1.01028777003598</v>
+      </c>
+      <c r="E303">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="F303">
+        <v>1.4E-3</v>
+      </c>
+      <c r="G303">
+        <v>0.44650000000000001</v>
+      </c>
+      <c r="H303">
+        <v>0.81299999999999994</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>0.99</v>
+      </c>
+      <c r="B304">
+        <v>0.9</v>
+      </c>
+      <c r="C304">
+        <v>1.00576415108686</v>
+      </c>
+      <c r="D304">
+        <v>1.02224133023388</v>
+      </c>
+      <c r="E304">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="F304">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="G304">
+        <v>0.40989999999999999</v>
+      </c>
+      <c r="H304">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>0.99</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305">
+        <v>0.99975283704519302</v>
+      </c>
+      <c r="D305">
+        <v>1.0142572669810199</v>
+      </c>
+      <c r="E305">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="F305">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G305">
+        <v>0.37</v>
+      </c>
+      <c r="H305">
+        <v>1.0224</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>0.99</v>
+      </c>
+      <c r="B306">
+        <v>2</v>
+      </c>
+      <c r="C306">
+        <v>0.98563269211144999</v>
+      </c>
+      <c r="D306">
+        <v>1.0304448430287301</v>
+      </c>
+      <c r="E306">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="F306">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="G306">
+        <v>0.1295</v>
+      </c>
+      <c r="H306">
+        <v>2.0674999999999999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>0.99</v>
+      </c>
+      <c r="B307">
+        <v>3</v>
+      </c>
+      <c r="C307">
+        <v>0.96718048737099205</v>
+      </c>
+      <c r="D307">
+        <v>1.04337570443457</v>
+      </c>
+      <c r="E307">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="F307">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G307">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="H307">
+        <v>3.1253000000000002</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>0.99</v>
+      </c>
+      <c r="B308">
+        <v>4</v>
+      </c>
+      <c r="C308">
+        <v>0.94640511400180005</v>
+      </c>
+      <c r="D308">
+        <v>1.0559148896563899</v>
+      </c>
+      <c r="E308">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="F308">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="G308">
+        <v>1.77E-2</v>
+      </c>
+      <c r="H308">
+        <v>4.2016</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>0.99</v>
+      </c>
+      <c r="B309">
+        <v>5</v>
+      </c>
+      <c r="C309">
+        <v>0.925701103678917</v>
+      </c>
+      <c r="D309">
+        <v>1.0616610803496001</v>
+      </c>
+      <c r="E309">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="F309">
+        <v>1.03E-2</v>
+      </c>
+      <c r="G309">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="H309">
+        <v>5.2976000000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>0.99</v>
+      </c>
+      <c r="B310">
+        <v>6</v>
+      </c>
+      <c r="C310">
+        <v>0.90403080938746305</v>
+      </c>
+      <c r="D310">
+        <v>1.0706097725974799</v>
+      </c>
+      <c r="E310">
+        <v>0.98540000000000005</v>
+      </c>
+      <c r="F310">
+        <v>1.46E-2</v>
+      </c>
+      <c r="G310">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H310">
+        <v>6.3837000000000002</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>0.99</v>
+      </c>
+      <c r="B311">
+        <v>7</v>
+      </c>
+      <c r="C311">
+        <v>0.88843934360497401</v>
+      </c>
+      <c r="D311">
+        <v>1.09768433367026</v>
+      </c>
+      <c r="E311">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="F311">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="G311">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H311">
+        <v>7.6890000000000001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>0.99</v>
+      </c>
+      <c r="B312">
+        <v>8</v>
+      </c>
+      <c r="C312">
+        <v>0.86659334423118495</v>
+      </c>
+      <c r="D312">
+        <v>1.0995083984518801</v>
+      </c>
+      <c r="E312">
+        <v>0.98009999999999997</v>
+      </c>
+      <c r="F312">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="G312">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H312">
+        <v>8.8405000000000005</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>0.99</v>
+      </c>
+      <c r="B313">
+        <v>9</v>
+      </c>
+      <c r="C313">
+        <v>0.84872944490937197</v>
+      </c>
+      <c r="D313">
+        <v>1.1125058914547601</v>
+      </c>
+      <c r="E313">
+        <v>0.97840000000000005</v>
+      </c>
+      <c r="F313">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="G313">
+        <v>1E-4</v>
+      </c>
+      <c r="H313">
+        <v>9.9986999999999995</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>0.99</v>
+      </c>
+      <c r="B314">
+        <v>10</v>
+      </c>
+      <c r="C314">
+        <v>0.82999163842863999</v>
+      </c>
+      <c r="D314">
+        <v>1.12470824787155</v>
+      </c>
+      <c r="E314">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="F314">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="G314">
+        <v>1E-4</v>
+      </c>
+      <c r="H314">
+        <v>11.2591</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>0.99</v>
+      </c>
+      <c r="B315">
+        <v>20</v>
+      </c>
+      <c r="C315">
+        <v>0.66974541700944601</v>
+      </c>
+      <c r="D315">
+        <v>1.2198500458680599</v>
+      </c>
+      <c r="E315">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="F315">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+      <c r="H315">
+        <v>24.346</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>0.99</v>
+      </c>
+      <c r="B316">
+        <v>30</v>
+      </c>
+      <c r="C316">
+        <v>0.54458896927596401</v>
+      </c>
+      <c r="D316">
+        <v>1.29517558809615</v>
+      </c>
+      <c r="E316">
+        <v>0.90769999999999995</v>
+      </c>
+      <c r="F316">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>38.742100000000001</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>0.99</v>
+      </c>
+      <c r="B317">
+        <v>40</v>
+      </c>
+      <c r="C317">
+        <v>0.44812822981627498</v>
+      </c>
+      <c r="D317">
+        <v>1.3495576529031601</v>
+      </c>
+      <c r="E317">
+        <v>0.85729999999999995</v>
+      </c>
+      <c r="F317">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317">
+        <v>53.993600000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>0.99</v>
+      </c>
+      <c r="B318">
+        <v>50</v>
+      </c>
+      <c r="C318">
+        <v>0.37639529425249602</v>
+      </c>
+      <c r="D318">
+        <v>1.3916291531829701</v>
+      </c>
+      <c r="E318">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="F318">
+        <v>0.1003</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+      <c r="H318">
+        <v>69.5899</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>0.99</v>
+      </c>
+      <c r="B319">
+        <v>60</v>
+      </c>
+      <c r="C319">
+        <v>0.32141685630458999</v>
+      </c>
+      <c r="D319">
+        <v>1.39190217034367</v>
+      </c>
+      <c r="E319">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="F319">
+        <v>0.1084</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+      <c r="H319">
+        <v>83.559600000000003</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>0.99</v>
+      </c>
+      <c r="B320">
+        <v>70</v>
+      </c>
+      <c r="C320">
+        <v>0.279161024884025</v>
+      </c>
+      <c r="D320">
+        <v>1.36556734157844</v>
+      </c>
+      <c r="E320">
+        <v>0.66690000000000005</v>
+      </c>
+      <c r="F320">
+        <v>0.1052</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+      <c r="H320">
+        <v>95.625299999999996</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>0.99</v>
+      </c>
+      <c r="B321">
+        <v>80</v>
+      </c>
+      <c r="C321">
+        <v>0.24518411666755899</v>
+      </c>
+      <c r="D321">
+        <v>1.33447928026423</v>
+      </c>
+      <c r="E321">
+        <v>0.58489999999999998</v>
+      </c>
+      <c r="F321">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+      <c r="H321">
+        <v>106.91070000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>0.99</v>
+      </c>
+      <c r="B322">
+        <v>90</v>
+      </c>
+      <c r="C322">
+        <v>0.218878393725291</v>
+      </c>
+      <c r="D322">
+        <v>1.28374450534642</v>
+      </c>
+      <c r="E322">
+        <v>0.50580000000000003</v>
+      </c>
+      <c r="F322">
+        <v>0.1</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+      <c r="H322">
+        <v>115.3908</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>0.99</v>
+      </c>
+      <c r="B323">
+        <v>100</v>
+      </c>
+      <c r="C323">
+        <v>0.19760504061232601</v>
+      </c>
+      <c r="D323">
+        <v>1.2205385905719699</v>
+      </c>
+      <c r="E323">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="F323">
+        <v>0.1116</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+      <c r="H323">
+        <v>121.9543</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>1</v>
+      </c>
+      <c r="B324">
+        <v>1E-3</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+      <c r="E324">
+        <v>1</v>
+      </c>
+      <c r="F324">
+        <v>0</v>
+      </c>
+      <c r="G324">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="H324">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>1</v>
+      </c>
+      <c r="B325">
+        <v>2E-3</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+      <c r="E325">
+        <v>1</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+      <c r="G325">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="H325">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>1</v>
+      </c>
+      <c r="B326">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+      <c r="E326">
+        <v>1</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+      <c r="G326">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="H326">
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>1</v>
+      </c>
+      <c r="B327">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+      <c r="E327">
+        <v>1</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="H327">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>1</v>
+      </c>
+      <c r="B328">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+      <c r="E328">
+        <v>1</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+      <c r="G328">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="H328">
+        <v>5.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>1</v>
+      </c>
+      <c r="B329">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C329">
+        <v>0.99999518740070004</v>
+      </c>
+      <c r="D329">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="E329">
+        <v>1</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+      <c r="G329">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="H329">
+        <v>5.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>1</v>
+      </c>
+      <c r="B330">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C330">
+        <v>0.99999554980904304</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+      <c r="E330">
+        <v>1</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330">
+        <v>0.9929</v>
+      </c>
+      <c r="H330">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>1</v>
+      </c>
+      <c r="B331">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+      <c r="E331">
+        <v>1</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+      <c r="G331">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="H331">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>1</v>
+      </c>
+      <c r="B332">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C332">
+        <v>0.999997312398064</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>0.9889</v>
+      </c>
+      <c r="H332">
+        <v>1.12E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>1</v>
+      </c>
+      <c r="B333">
+        <v>0.01</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="H333">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>1</v>
+      </c>
+      <c r="B334">
+        <v>0.02</v>
+      </c>
+      <c r="C334">
+        <v>0.99999371553302296</v>
+      </c>
+      <c r="D334">
+        <v>1</v>
+      </c>
+      <c r="E334">
+        <v>1</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+      <c r="G334">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="H334">
+        <v>2.06E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>1</v>
+      </c>
+      <c r="B335">
+        <v>0.03</v>
+      </c>
+      <c r="C335">
+        <v>0.99999081317191796</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+      <c r="E335">
+        <v>1</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+      <c r="G335">
+        <v>0.9708</v>
+      </c>
+      <c r="H335">
+        <v>2.9499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>1</v>
+      </c>
+      <c r="B336">
+        <v>0.04</v>
+      </c>
+      <c r="C336">
+        <v>0.99997134018580602</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+      <c r="E336">
+        <v>1</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+      <c r="G336">
+        <v>0.9607</v>
+      </c>
+      <c r="H336">
+        <v>4.0300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>1</v>
+      </c>
+      <c r="B337">
+        <v>0.05</v>
+      </c>
+      <c r="C337">
+        <v>0.99994802308255304</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+      <c r="E337">
+        <v>1</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+      <c r="G337">
+        <v>0.95079999999999998</v>
+      </c>
+      <c r="H337">
+        <v>5.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>1</v>
+      </c>
+      <c r="B338">
+        <v>0.06</v>
+      </c>
+      <c r="C338">
+        <v>0.99995477809086997</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>0.94069999999999998</v>
+      </c>
+      <c r="H338">
+        <v>6.08E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>1</v>
+      </c>
+      <c r="B339">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C339">
+        <v>0.999939872928442</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+      <c r="E339">
+        <v>1</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+      <c r="G339">
+        <v>0.93269999999999997</v>
+      </c>
+      <c r="H339">
+        <v>6.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>1</v>
+      </c>
+      <c r="B340">
+        <v>0.08</v>
+      </c>
+      <c r="C340">
+        <v>0.99990066605611205</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+      <c r="E340">
+        <v>1</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+      <c r="G340">
+        <v>0.9214</v>
+      </c>
+      <c r="H340">
+        <v>8.1299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>1</v>
+      </c>
+      <c r="B341">
+        <v>0.09</v>
+      </c>
+      <c r="C341">
+        <v>0.99984565827196004</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+      <c r="E341">
+        <v>1</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+      <c r="G341">
+        <v>0.91639999999999999</v>
+      </c>
+      <c r="H341">
+        <v>8.7900000000000006E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>1</v>
+      </c>
+      <c r="B342">
+        <v>0.1</v>
+      </c>
+      <c r="C342">
+        <v>0.99983434833844298</v>
+      </c>
+      <c r="D342">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="E342">
+        <v>1</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+      <c r="G342">
+        <v>0.90069999999999995</v>
+      </c>
+      <c r="H342">
+        <v>0.1043</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>1</v>
+      </c>
+      <c r="B343">
+        <v>0.2</v>
+      </c>
+      <c r="C343">
+        <v>0.99934589714776001</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+      <c r="E343">
+        <v>1</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+      <c r="G343">
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="H343">
+        <v>0.1996</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>1</v>
+      </c>
+      <c r="B344">
+        <v>0.3</v>
+      </c>
+      <c r="C344">
+        <v>0.99875578450010905</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+      <c r="E344">
+        <v>1</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+      <c r="G344">
+        <v>0.75049999999999994</v>
+      </c>
+      <c r="H344">
+        <v>0.28770000000000001</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>1</v>
+      </c>
+      <c r="B345">
+        <v>0.4</v>
+      </c>
+      <c r="C345">
+        <v>0.99759384399999196</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+      <c r="E345">
+        <v>1</v>
+      </c>
+      <c r="F345">
+        <v>0</v>
+      </c>
+      <c r="G345">
+        <v>0.67549999999999999</v>
+      </c>
+      <c r="H345">
+        <v>0.39679999999999999</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>1</v>
+      </c>
+      <c r="B346">
+        <v>0.5</v>
+      </c>
+      <c r="C346">
+        <v>0.99654916283284301</v>
+      </c>
+      <c r="D346">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="E346">
+        <v>1</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+      <c r="G346">
+        <v>0.60829999999999995</v>
+      </c>
+      <c r="H346">
+        <v>0.49859999999999999</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>1</v>
+      </c>
+      <c r="B347">
+        <v>0.6</v>
+      </c>
+      <c r="C347">
+        <v>0.99515006119659399</v>
+      </c>
+      <c r="D347">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="E347">
+        <v>1</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+      <c r="G347">
+        <v>0.55389999999999995</v>
+      </c>
+      <c r="H347">
+        <v>0.59689999999999999</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>1</v>
+      </c>
+      <c r="B348">
+        <v>0.7</v>
+      </c>
+      <c r="C348">
+        <v>0.993826241433582</v>
+      </c>
+      <c r="D348">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="E348">
+        <v>1</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+      <c r="G348">
+        <v>0.499</v>
+      </c>
+      <c r="H348">
+        <v>0.69240000000000002</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>1</v>
+      </c>
+      <c r="B349">
+        <v>0.8</v>
+      </c>
+      <c r="C349">
+        <v>0.99235879708821195</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+      <c r="E349">
+        <v>1</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="G349">
+        <v>0.4541</v>
+      </c>
+      <c r="H349">
+        <v>0.78749999999999998</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>1</v>
+      </c>
+      <c r="B350">
+        <v>0.9</v>
+      </c>
+      <c r="C350">
+        <v>0.99022690852086803</v>
+      </c>
+      <c r="D350">
+        <v>1</v>
+      </c>
+      <c r="E350">
+        <v>1</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350">
+        <v>0.4073</v>
+      </c>
+      <c r="H350">
+        <v>0.90239999999999998</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>1</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+      <c r="C351">
+        <v>0.988268127970926</v>
+      </c>
+      <c r="D351">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="E351">
+        <v>1</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+      <c r="G351">
+        <v>0.3715</v>
+      </c>
+      <c r="H351">
+        <v>0.99790000000000001</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>1</v>
+      </c>
+      <c r="B352">
+        <v>2</v>
+      </c>
+      <c r="C352">
+        <v>0.96592481071942005</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+      <c r="E352">
+        <v>1</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+      <c r="G352">
+        <v>0.14169999999999999</v>
+      </c>
+      <c r="H352">
+        <v>1.9924999999999999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>1</v>
+      </c>
+      <c r="B353">
+        <v>3</v>
+      </c>
+      <c r="C353">
+        <v>0.94102092989713404</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+      <c r="E353">
+        <v>1</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353">
+        <v>4.99E-2</v>
+      </c>
+      <c r="H353">
+        <v>3.0036999999999998</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>1</v>
+      </c>
+      <c r="B354">
+        <v>4</v>
+      </c>
+      <c r="C354">
+        <v>0.91649561124445</v>
+      </c>
+      <c r="D354">
+        <v>0.999999999999998</v>
+      </c>
+      <c r="E354">
+        <v>1</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354">
+        <v>1.67E-2</v>
+      </c>
+      <c r="H354">
+        <v>3.9992999999999999</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>1</v>
+      </c>
+      <c r="B355">
+        <v>5</v>
+      </c>
+      <c r="C355">
+        <v>0.89273838235234804</v>
+      </c>
+      <c r="D355">
+        <v>0.99999999999998901</v>
+      </c>
+      <c r="E355">
+        <v>1</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="H355">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>1</v>
+      </c>
+      <c r="B356">
+        <v>6</v>
+      </c>
+      <c r="C356">
+        <v>0.86973824982638603</v>
+      </c>
+      <c r="D356">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="E356">
+        <v>1</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="H356">
+        <v>6.0335999999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>1</v>
+      </c>
+      <c r="B357">
+        <v>7</v>
+      </c>
+      <c r="C357">
+        <v>0.84866088423242803</v>
+      </c>
+      <c r="D357">
+        <v>0.999999999999994</v>
+      </c>
+      <c r="E357">
+        <v>1</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357">
+        <v>1E-3</v>
+      </c>
+      <c r="H357">
+        <v>7.0415999999999999</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>1</v>
+      </c>
+      <c r="B358">
+        <v>8</v>
+      </c>
+      <c r="C358">
+        <v>0.82854851392251505</v>
+      </c>
+      <c r="D358">
+        <v>0.99999999999998901</v>
+      </c>
+      <c r="E358">
+        <v>1</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+      <c r="G358">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H358">
+        <v>8.0260999999999996</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>1</v>
+      </c>
+      <c r="B359">
+        <v>9</v>
+      </c>
+      <c r="C359">
+        <v>0.80870260987271902</v>
+      </c>
+      <c r="D359">
+        <v>0.99999999999999001</v>
+      </c>
+      <c r="E359">
+        <v>1</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H359">
+        <v>9.0267999999999997</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>1</v>
+      </c>
+      <c r="B360">
+        <v>10</v>
+      </c>
+      <c r="C360">
+        <v>0.78979610726045701</v>
+      </c>
+      <c r="D360">
+        <v>0.999999999999994</v>
+      </c>
+      <c r="E360">
+        <v>1</v>
+      </c>
+      <c r="F360">
+        <v>0</v>
+      </c>
+      <c r="G360">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H360">
+        <v>10.0221</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>1</v>
+      </c>
+      <c r="B361">
+        <v>20</v>
+      </c>
+      <c r="C361">
+        <v>0.63347037559365105</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+      <c r="E361">
+        <v>1</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
+      <c r="H361">
+        <v>20.019100000000002</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>1</v>
+      </c>
+      <c r="B362">
+        <v>30</v>
+      </c>
+      <c r="C362">
+        <v>0.51906123539197102</v>
+      </c>
+      <c r="D362">
+        <v>1.00000000000002</v>
+      </c>
+      <c r="E362">
+        <v>1</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+      <c r="H362">
+        <v>29.8994</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>1</v>
+      </c>
+      <c r="B363">
+        <v>40</v>
+      </c>
+      <c r="C363">
+        <v>0.43257460153268801</v>
+      </c>
+      <c r="D363">
+        <v>0.99999999999998501</v>
+      </c>
+      <c r="E363">
+        <v>1</v>
+      </c>
+      <c r="F363">
+        <v>0</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+      <c r="H363">
+        <v>39.956600000000002</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>1</v>
+      </c>
+      <c r="B364">
+        <v>50</v>
+      </c>
+      <c r="C364">
+        <v>0.367153280697814</v>
+      </c>
+      <c r="D364">
+        <v>0.999999999999995</v>
+      </c>
+      <c r="E364">
+        <v>1</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+      <c r="H364">
+        <v>49.988700000000001</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>1</v>
+      </c>
+      <c r="B365">
+        <v>60</v>
+      </c>
+      <c r="C365">
+        <v>0.31706732126035603</v>
+      </c>
+      <c r="D365">
+        <v>1.00000000000003</v>
+      </c>
+      <c r="E365">
+        <v>1</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+      <c r="G365">
+        <v>0</v>
+      </c>
+      <c r="H365">
+        <v>59.921700000000001</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>1</v>
+      </c>
+      <c r="B366">
+        <v>70</v>
+      </c>
+      <c r="C366">
+        <v>0.27728732202096501</v>
+      </c>
+      <c r="D366">
+        <v>1.00000000000002</v>
+      </c>
+      <c r="E366">
+        <v>1</v>
+      </c>
+      <c r="F366">
+        <v>0</v>
+      </c>
+      <c r="G366">
+        <v>0</v>
+      </c>
+      <c r="H366">
+        <v>70.072100000000006</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>1</v>
+      </c>
+      <c r="B367">
+        <v>80</v>
+      </c>
+      <c r="C367">
+        <v>0.245392287217297</v>
+      </c>
+      <c r="D367">
+        <v>1.00000000000005</v>
+      </c>
+      <c r="E367">
+        <v>1</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+      <c r="G367">
+        <v>0</v>
+      </c>
+      <c r="H367">
+        <v>79.909499999999994</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>1</v>
+      </c>
+      <c r="B368">
+        <v>90</v>
+      </c>
+      <c r="C368">
+        <v>0.218929433962854</v>
+      </c>
+      <c r="D368">
+        <v>1.00000000000001</v>
+      </c>
+      <c r="E368">
+        <v>1</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+      <c r="G368">
+        <v>0</v>
+      </c>
+      <c r="H368">
+        <v>90.004999999999995</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>1</v>
+      </c>
+      <c r="B369">
+        <v>100</v>
+      </c>
+      <c r="C369">
+        <v>0.19866100320684099</v>
+      </c>
+      <c r="D369">
+        <v>0.99999300851295003</v>
+      </c>
+      <c r="E369">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="F369">
+        <v>0</v>
+      </c>
+      <c r="G369">
+        <v>0</v>
+      </c>
+      <c r="H369">
+        <v>99.933999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\99gro\Documents\GitHub\Study-of-Emulsion-scattering\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F37658A-D55B-40F8-9F47-E0B724E9672B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEA06E7-0007-4183-9B8A-565E633003B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19599,10 +19599,13 @@
   <dimension ref="A1:H369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
